--- a/oase-root/libs/commonlibs/template.xlsx
+++ b/oase-root/libs/commonlibs/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ICF_AutoCapsule_disabled\MAS\OASE\GIT\OASE\oase-root\libs\commonlibs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\000001A00AQQ9\mail\開発環境\OASE\oase-root\libs\commonlibs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1757,71 +1757,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>ITA_NAME=action43,SYMPHONY_CLASS_ID=2,MENU_ID=1,CONVERT_FLG=FALSE</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t xml:space="preserve">【ITAドライバー】
-ITA_NAMEはOASE画面のシステム-アクション設定-ITA_driverの名前と紐づけます。
-SYMPHONY_CLASS_IDはITA画面の基本コンソール-Symphonyクラス一覧のSymphonyクラスIDと紐づけます。
-OPERATION_IDはITA画面の基本コンソール-投入オペレーション一覧のオペレーションIDと紐づけます。
-SERVER_LISTは実行対象となるホスト名を記述します。ホスト名はITA画面の基本コンソール-機器一覧のホスト名と紐づけます。
-複数記載する場合はコロン(:)で区切って記述します。
-MENU_IDはITAで作成されたパラメータシートと紐づけます。ITA画面の管理コンソール-メニュー管理から確認できます。
-CONVERT_FLGはTRUEまたはFALSEを設定します。MENU_ID指定の時に必要になります。
-SYMPHONY_CLASS_ID、OPERATION_ID、SERVER_LIST、MENU_IDの値に {{ VAR_条件名 }} と記入すると条件部の値を当てはめることができます。
-</t>
-    <rPh sb="24" eb="26">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>ヒモ</t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="147" eb="149">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="289" eb="291">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="303" eb="304">
-      <t>ヒモ</t>
-    </rPh>
-    <rPh sb="312" eb="314">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="315" eb="317">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="327" eb="329">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="331" eb="333">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="364" eb="366">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="377" eb="379">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="380" eb="381">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="382" eb="384">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t xml:space="preserve">【mailドライバー】
 MAIL_NAMEは必須です。OASE画面のシステム-アクション設定-mail_driverの名前と紐づけます。
 「MAIL_TO=,MAIL_CC=,MAIL_BCC=」は送信したいメールアドレスを記述してください。
@@ -1905,6 +1840,72 @@
     </rPh>
     <rPh sb="381" eb="383">
       <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>ITA_NAME=action43,SYMPHONY_CLASS_ID=2,MENU_ID=1:2,CONVERT_FLG=FALSE</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【ITAドライバー】
+ITA_NAMEはOASE画面のシステム-アクション設定-ITA_driverの名前と紐づけます。
+SYMPHONY_CLASS_IDはITA画面の基本コンソール-Symphonyクラス一覧のSymphonyクラスIDと紐づけます。
+OPERATION_IDはITA画面の基本コンソール-投入オペレーション一覧のオペレーションIDと紐づけます。
+SERVER_LISTは実行対象となるホスト名を記述します。ホスト名はITA画面の基本コンソール-機器一覧のホスト名と紐づけます。
+複数記載する場合はコロン(:)で区切って記述します。
+MENU_IDはITAで作成されたパラメータシートと紐づけます。ITA画面の管理コンソール-メニュー管理から確認できます。
+複数記載する場合はコロン(:)で区切って記述します。
+CONVERT_FLGはTRUEまたはFALSEを設定します。MENU_ID指定の時に必要になります。
+SYMPHONY_CLASS_ID、OPERATION_ID、SERVER_LIST、MENU_IDの値に {{ VAR_条件名 }} と記入すると条件部の値を当てはめることができます。
+</t>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="289" eb="291">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="303" eb="304">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="312" eb="314">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="315" eb="317">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="327" eb="329">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="331" eb="333">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="391" eb="393">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="404" eb="406">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="407" eb="408">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="409" eb="411">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="14"/>
   </si>
@@ -3746,7 +3747,7 @@
         <v>114</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>59</v>
@@ -4037,7 +4038,7 @@
         <v>99</v>
       </c>
       <c r="T13" s="39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="U13" s="38" t="s">
         <v>38</v>
@@ -4058,13 +4059,13 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="97.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="107.25" x14ac:dyDescent="0.2">
       <c r="O14" s="73" t="s">
         <v>52</v>
       </c>
       <c r="P14" s="73"/>
       <c r="S14" s="39" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="T14" s="39"/>
     </row>
@@ -4074,13 +4075,13 @@
       </c>
       <c r="P15" s="73"/>
       <c r="S15" s="39" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="T15" s="39"/>
     </row>
     <row r="16" spans="1:26" ht="97.5" x14ac:dyDescent="0.2">
       <c r="S16" s="39" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="T16" s="39"/>
     </row>

--- a/oase-root/libs/commonlibs/template.xlsx
+++ b/oase-root/libs/commonlibs/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\000001A00AQQ9\mail\開発環境\OASE\oase-root\libs\commonlibs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\000001A00AQQ9\mail\開発環境\oase\oase-root\libs\commonlibs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="135">
   <si>
     <t>RuleSet</t>
   </si>
@@ -1721,15 +1721,7 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>7</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>rule7</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>6</t>
     <phoneticPr fontId="14"/>
   </si>
   <si>
@@ -1825,13 +1817,18 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t xml:space="preserve">NGパターン：
+    <t>ITA_NAME=action43,SYMPHONY_CLASS_ID=2,MENU_ID=1:2,CONVERT_FLG=FALSE</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>NGパターン：
 1)ITA_NAME=action43,SYMPHONY_CLASS_ID=2,OPERATION_ID=1,SERVER_LIST=hostname1:hostname2,MENU_ID=1
 2)ITA_NAME=action43,SYMPHONY_CLASS_ID=2,OPERATION_ID=1,SERVER_LIST=hostname1:hostname2
 3)ITA_NAME=action43,SYMPHONY_CLASS_ID=2,OPERATION_ID=1,MENU_ID=1
 4)ITA_NAME=action43,SYMPHONY_CLASS_ID=2,SERVER_LIST=hostname1:hostname2,MENU_ID=1
 OPERATION_ID,SERVER_LIST,MENU_IDを同時に設定した場合エラーとなります。
-</t>
+5)ITA_NAME=action43,SYMPHONY_CLASS_ID=2,MENU_ID=1:2,CONVERT_FLG=TRUE
+MENU_IDを複数指定した場合はCONVERT_FLGをTUREに設定できません。</t>
     <rPh sb="374" eb="376">
       <t>ドウジ</t>
     </rPh>
@@ -1841,10 +1838,31 @@
     <rPh sb="381" eb="383">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>ITA_NAME=action43,SYMPHONY_CLASS_ID=2,MENU_ID=1:2,CONVERT_FLG=FALSE</t>
+    <rPh sb="472" eb="474">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="474" eb="476">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="478" eb="480">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="498" eb="500">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>rule8</t>
     <phoneticPr fontId="14"/>
   </si>
   <si>
@@ -1856,6 +1874,10 @@
 複数記載する場合はコロン(:)で区切って記述します。
 MENU_IDはITAで作成されたパラメータシートと紐づけます。ITA画面の管理コンソール-メニュー管理から確認できます。
 複数記載する場合はコロン(:)で区切って記述します。
+HOST_GROUP_NAMEはMENU_IDに紐づいたホストグループIDを記載します。MENU_IDと併せてコロン（:）で区切って記載します。
+1つのMENU_IDに複数のホストグループを紐づける場合はアンド（&amp;）で区切って記載します。
+複数のMENU_IDを設定する場合はパイプ（|）で区切って記載します。
+HOST_NAMEにつきましても、HOST_GROUP_NAMEと同様です。
 CONVERT_FLGはTRUEまたはFALSEを設定します。MENU_ID指定の時に必要になります。
 SYMPHONY_CLASS_ID、OPERATION_ID、SERVER_LIST、MENU_IDの値に {{ VAR_条件名 }} と記入すると条件部の値を当てはめることができます。
 </t>
@@ -1895,18 +1917,49 @@
     <rPh sb="331" eb="333">
       <t>カクニン</t>
     </rPh>
-    <rPh sb="391" eb="393">
+    <rPh sb="390" eb="391">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="404" eb="406">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="418" eb="419">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="428" eb="430">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="432" eb="434">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="450" eb="452">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="461" eb="462">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="465" eb="467">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="555" eb="557">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="586" eb="588">
       <t>セッテイ</t>
     </rPh>
-    <rPh sb="404" eb="406">
+    <rPh sb="599" eb="601">
       <t>シテイ</t>
     </rPh>
-    <rPh sb="407" eb="408">
+    <rPh sb="602" eb="603">
       <t>トキ</t>
     </rPh>
-    <rPh sb="409" eb="411">
+    <rPh sb="604" eb="606">
       <t>ヒツヨウ</t>
     </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>ITA_NAME=action43,SYMPHONY_CLASS_ID=2,MENU_ID=1:2:3:4,HOST_GROUP_NAME=1:HG1,HOST_NAME=2:H2&amp;H3|3:H4|4:H5&amp;H6&amp;H7,CONVERT_FLG=FALSE</t>
     <phoneticPr fontId="14"/>
   </si>
 </sst>
@@ -3275,9 +3328,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z23"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3620,7 +3673,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>31</v>
@@ -3665,13 +3718,13 @@
         <v>51</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R6" s="4" t="s">
         <v>114</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="T6" s="4" t="s">
         <v>59</v>
@@ -3696,7 +3749,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>31</v>
@@ -3741,13 +3794,13 @@
         <v>51</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="R7" s="4" t="s">
         <v>114</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>59</v>
@@ -3772,7 +3825,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>31</v>
@@ -3817,16 +3870,16 @@
         <v>51</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="U8" s="4" t="s">
         <v>31</v>
@@ -3835,14 +3888,12 @@
         <v>31</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y8" s="12" t="s">
-        <v>104</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="Y8" s="12"/>
       <c r="Z8" s="12"/>
     </row>
     <row r="9" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -3850,31 +3901,31 @@
         <v>30</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D9" s="32">
-        <v>3</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>32</v>
       </c>
       <c r="G9" s="32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H9" s="32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I9" s="32">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J9" s="32">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K9" s="33" t="s">
         <v>33</v>
@@ -3882,11 +3933,11 @@
       <c r="L9" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="N9" s="34" t="s">
-        <v>36</v>
+      <c r="M9" s="32">
+        <v>9</v>
+      </c>
+      <c r="N9" s="32">
+        <v>9</v>
       </c>
       <c r="O9" s="31" t="s">
         <v>50</v>
@@ -3895,16 +3946,16 @@
         <v>51</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="U9" s="4" t="s">
         <v>31</v>
@@ -3913,49 +3964,99 @@
         <v>31</v>
       </c>
       <c r="W9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y9" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z9" s="12"/>
+    </row>
+    <row r="10" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="X9" s="4" t="s">
+      <c r="D10" s="32">
+        <v>3</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="32">
+        <v>2</v>
+      </c>
+      <c r="H10" s="32">
+        <v>2</v>
+      </c>
+      <c r="I10" s="32">
+        <v>2</v>
+      </c>
+      <c r="J10" s="32">
+        <v>2</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Y9" s="12" t="s">
+      <c r="X10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y10" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Z9" s="12" t="s">
+      <c r="Z10" s="12" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
     </row>
     <row r="11" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="35"/>
-      <c r="B11" s="13"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="31"/>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
@@ -3981,116 +4082,140 @@
       <c r="Y11" s="12"/>
       <c r="Z11" s="12"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B12" s="14"/>
-    </row>
-    <row r="13" spans="1:26" ht="97.5" x14ac:dyDescent="0.2">
-      <c r="B13" s="38" t="s">
+    <row r="12" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="35"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" spans="1:26" ht="97.5" x14ac:dyDescent="0.2">
+      <c r="B14" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C14" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D14" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E14" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F14" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G14" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="38" t="s">
+      <c r="H14" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="38" t="s">
+      <c r="I14" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="J13" s="67" t="s">
+      <c r="J14" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="K13" s="38" t="s">
+      <c r="K14" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="L13" s="38" t="s">
+      <c r="L14" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="M13" s="38" t="s">
+      <c r="M14" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="N13" s="38" t="s">
+      <c r="N14" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="O13" s="73" t="s">
+      <c r="O14" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="38" t="s">
+      <c r="P14" s="74"/>
+      <c r="Q14" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="R13" s="38" t="s">
+      <c r="R14" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="S13" s="39" t="s">
+      <c r="S14" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="T13" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="U13" s="38" t="s">
+      <c r="T14" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="U14" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="V13" s="37" t="s">
+      <c r="V14" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="38" t="s">
+      <c r="W14" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="X13" s="37" t="s">
+      <c r="X14" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="Y13" s="40" t="s">
+      <c r="Y14" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="Z13" s="40" t="s">
+      <c r="Z14" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="107.25" x14ac:dyDescent="0.2">
-      <c r="O14" s="73" t="s">
+    <row r="15" spans="1:26" ht="146.25" x14ac:dyDescent="0.2">
+      <c r="O15" s="73" t="s">
         <v>52</v>
-      </c>
-      <c r="P14" s="73"/>
-      <c r="S14" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="T14" s="39"/>
-    </row>
-    <row r="15" spans="1:26" ht="87.75" x14ac:dyDescent="0.2">
-      <c r="O15" s="73" t="s">
-        <v>113</v>
       </c>
       <c r="P15" s="73"/>
       <c r="S15" s="39" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="T15" s="39"/>
     </row>
-    <row r="16" spans="1:26" ht="97.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O16" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="73"/>
       <c r="S16" s="39" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="T16" s="39"/>
     </row>
-    <row r="17" spans="19:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="19:20" ht="97.5" x14ac:dyDescent="0.2">
+      <c r="S17" s="39" t="s">
+        <v>125</v>
+      </c>
       <c r="T17" s="39"/>
     </row>
     <row r="18" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
+      <c r="T18" s="39"/>
     </row>
     <row r="19" spans="19:20" x14ac:dyDescent="0.2">
       <c r="S19" s="36"/>
@@ -4112,18 +4237,22 @@
       <c r="S23" s="36"/>
       <c r="T23" s="36"/>
     </row>
+    <row r="24" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="O13:P13"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="R10:R11">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="R11:R12">
       <formula1>"ITA,mail"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="R3:R9">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="R3:R10">
       <formula1>"ITA(ver1),mail(ver1)"</formula1>
     </dataValidation>
   </dataValidations>

--- a/oase-root/libs/commonlibs/template.xlsx
+++ b/oase-root/libs/commonlibs/template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="405" windowWidth="13275" windowHeight="9075" tabRatio="601"/>
+    <workbookView xWindow="6210" yWindow="405" windowWidth="13275" windowHeight="9075" tabRatio="601" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -1866,6 +1866,9 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
+    <t>ITA_NAME=action43,SYMPHONY_CLASS_ID=2,MENU_ID=1:2:3:4,HOSTGROUP_NAME=1:HG1,HOST_NAME=2:H2&amp;H3|3:H4|4:H5&amp;H6&amp;H7,CONVERT_FLG=FALSE</t>
+  </si>
+  <si>
     <t xml:space="preserve">【ITAドライバー】
 ITA_NAMEはOASE画面のシステム-アクション設定-ITA_driverの名前と紐づけます。
 SYMPHONY_CLASS_IDはITA画面の基本コンソール-Symphonyクラス一覧のSymphonyクラスIDと紐づけます。
@@ -1874,10 +1877,10 @@
 複数記載する場合はコロン(:)で区切って記述します。
 MENU_IDはITAで作成されたパラメータシートと紐づけます。ITA画面の管理コンソール-メニュー管理から確認できます。
 複数記載する場合はコロン(:)で区切って記述します。
-HOST_GROUP_NAMEはMENU_IDに紐づいたホストグループIDを記載します。MENU_IDと併せてコロン（:）で区切って記載します。
+HOSTGROUP_NAMEはMENU_IDに紐づいたホストグループIDを記載します。MENU_IDと併せてコロン（:）で区切って記載します。
 1つのMENU_IDに複数のホストグループを紐づける場合はアンド（&amp;）で区切って記載します。
 複数のMENU_IDを設定する場合はパイプ（|）で区切って記載します。
-HOST_NAMEにつきましても、HOST_GROUP_NAMEと同様です。
+HOST_NAMEにつきましても、HOSTGROUP_NAMEと同様です。
 CONVERT_FLGはTRUEまたはFALSEを設定します。MENU_ID指定の時に必要になります。
 SYMPHONY_CLASS_ID、OPERATION_ID、SERVER_LIST、MENU_IDの値に {{ VAR_条件名 }} と記入すると条件部の値を当てはめることができます。
 </t>
@@ -1917,49 +1920,45 @@
     <rPh sb="331" eb="333">
       <t>カクニン</t>
     </rPh>
-    <rPh sb="390" eb="391">
+    <rPh sb="389" eb="390">
       <t>ヒモ</t>
     </rPh>
-    <rPh sb="404" eb="406">
+    <rPh sb="403" eb="405">
       <t>キサイ</t>
     </rPh>
-    <rPh sb="418" eb="419">
+    <rPh sb="417" eb="418">
       <t>アワ</t>
     </rPh>
-    <rPh sb="428" eb="430">
+    <rPh sb="427" eb="429">
       <t>クギ</t>
     </rPh>
-    <rPh sb="432" eb="434">
+    <rPh sb="431" eb="433">
       <t>キサイ</t>
     </rPh>
-    <rPh sb="450" eb="452">
+    <rPh sb="449" eb="451">
       <t>フクスウ</t>
     </rPh>
-    <rPh sb="461" eb="462">
+    <rPh sb="460" eb="461">
       <t>ヒモ</t>
     </rPh>
-    <rPh sb="465" eb="467">
+    <rPh sb="464" eb="466">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="555" eb="557">
+    <rPh sb="553" eb="555">
       <t>ドウヨウ</t>
     </rPh>
-    <rPh sb="586" eb="588">
+    <rPh sb="584" eb="586">
       <t>セッテイ</t>
     </rPh>
-    <rPh sb="599" eb="601">
+    <rPh sb="597" eb="599">
       <t>シテイ</t>
     </rPh>
-    <rPh sb="602" eb="603">
+    <rPh sb="600" eb="601">
       <t>トキ</t>
     </rPh>
-    <rPh sb="604" eb="606">
+    <rPh sb="602" eb="604">
       <t>ヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>ITA_NAME=action43,SYMPHONY_CLASS_ID=2,MENU_ID=1:2:3:4,HOST_GROUP_NAME=1:HG1,HOST_NAME=2:H2&amp;H3|3:H4|4:H5&amp;H6&amp;H7,CONVERT_FLG=FALSE</t>
     <phoneticPr fontId="14"/>
   </si>
 </sst>
@@ -2987,7 +2986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight"/>
@@ -3330,7 +3329,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="R7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3876,7 +3877,7 @@
         <v>114</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T8" s="4" t="s">
         <v>59</v>
@@ -4194,7 +4195,7 @@
       </c>
       <c r="P15" s="73"/>
       <c r="S15" s="39" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T15" s="39"/>
     </row>

--- a/oase-root/libs/commonlibs/template.xlsx
+++ b/oase-root/libs/commonlibs/template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="405" windowWidth="13275" windowHeight="9075" tabRatio="601" activeTab="1"/>
+    <workbookView xWindow="6210" yWindow="405" windowWidth="13275" windowHeight="9075" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -2986,7 +2986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight"/>
@@ -3329,9 +3329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/oase-root/libs/commonlibs/template.xlsx
+++ b/oase-root/libs/commonlibs/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\000001A00AQQ9\mail\開発環境\oase\oase-root\libs\commonlibs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\000001A00AYCV\Documents\Workspace\oase\oase-root\libs\commonlibs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="91">
   <si>
     <t>RuleSet</t>
   </si>
@@ -380,25 +380,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>bc</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>^.*エラーが発生しました。.*$</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -407,308 +388,8 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>ああ</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>アクションのリトライ回数を記述します。</t>
-    <rPh sb="10" eb="12">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キジュツ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>アクションのリトライ間隔を記述します。
-リトライ間隔の単位は秒になります。</t>
-    <rPh sb="10" eb="12">
-      <t>カンカク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カンカク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ビョウ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>MAIL_NAME=oasetest,MAIL_TO=aaa@aaa.com;bbb@bbb.com,MAIL_CC=ccc@ccc.com,MAIL_BCC=ddd@ddd.com,MAIL_TEMPLATE=test_template</t>
     <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <t>test1(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>等しい</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>数値</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>))</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <t>test2(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>等しくない</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>数値</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>))</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <t>test5(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>より大きい</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <t>test6(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>以上</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <t>test7(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>より小さい</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <t>test8(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>以下</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <t>test11(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>含む</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <t>test12(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>含まない</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>test13[HH:mm](from)</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>test13[HH:mm](to)</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>06:00</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>18:00</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t xml:space="preserve">OKパターン：
-1) 06:00
-2) 13:00
-3) 01:01
-</t>
-    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>Sequential</t>
@@ -885,161 +566,6 @@
     <t>mail(ver1)</t>
   </si>
   <si>
-    <t>記述された数値より小さい場合、
-判定されます。</t>
-    <rPh sb="0" eb="2">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <t>test3(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>等しい</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>文字列</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>))</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <t>test4(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>等しくない</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>文字列</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>))</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <t>test9(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>正規表現に一致する</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <t>test10(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>正規表現に一致しない</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>ルール名
 （必須）</t>
     <phoneticPr fontId="14"/>
@@ -1104,189 +630,11 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>アクションリトライ間隔（必須）
-※「</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」以上を定義して下さい。</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>アクションリトライ回数（必須）
-※「</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」以上を定義して下さい。</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>有効日</t>
     <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>無効日</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>記述された文字列と等しくない場合、判定されます。</t>
-    <rPh sb="0" eb="2">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>記述された数値と等しい場合、判定されます。</t>
-    <rPh sb="0" eb="2">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>記述された数値と等しくない場合、判定されます。</t>
-    <rPh sb="0" eb="2">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>記述された文字列と等しい場合、判定されます。</t>
-    <rPh sb="0" eb="2">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>記述された数値より大きい場合、判定されます。</t>
-    <rPh sb="0" eb="2">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>記述された数値以上の場合、判定されます。</t>
-    <rPh sb="0" eb="2">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>記述された数値より小さい場合、判定されます。</t>
-    <rPh sb="0" eb="2">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
     <phoneticPr fontId="14"/>
   </si>
   <si>
@@ -1300,87 +648,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>記述された正規表現に一致しない場合、判定されます。</t>
-    <rPh sb="0" eb="2">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>セイキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウゲン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>記述された値が含まれる場合、判定されます。</t>
-    <rPh sb="0" eb="2">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>記述された値が含まれない場合、判定されます。</t>
-    <rPh sb="0" eb="2">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t xml:space="preserve">イベント発生日時の時分がfromからtoの間である場合、判定されます。
-時分が1桁の場合は頭に0を入力してください。
-</t>
-    <rPh sb="9" eb="11">
-      <t>ジフン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>アイダ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ジフン</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ケタ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>アタマ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>ルール説明</t>
     <rPh sb="3" eb="5">
       <t>ｾﾂﾒｲ</t>
@@ -1388,36 +655,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>アクションの抑止間隔を記述します。
-抑止間隔の単位は秒になります。</t>
-    <rPh sb="8" eb="10">
-      <t>カンカク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カンカク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ビョウ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>アクションの抑止回数を記述します。</t>
-    <rPh sb="8" eb="10">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キジュツ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1536,20 +773,6 @@
       <t>よくし</t>
     </rPh>
     <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>アクション抑止間隔（必須）
-※「0」以上を定義して下さい。</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>アクション抑止回数（必須）
-※「0」以上を定義して下さい。</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t xml:space="preserve">この項目はドライバー毎に記入方法が異なります。
@@ -1685,12 +908,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>rule3</t>
   </si>
   <si>
@@ -1698,14 +915,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>NGパターン：
-1) 6:00
-2) 13:0
-3) :
-記述フォーマットが異なる為エラーとなります。</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>ITA(ver1)</t>
   </si>
   <si>
@@ -1713,10 +922,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>0</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>ITA_NAME=action43,SYMPHONY_CLASS_ID=2</t>
     <phoneticPr fontId="14"/>
   </si>
@@ -1726,14 +931,6 @@
   </si>
   <si>
     <t>rule6</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>5</t>
     <phoneticPr fontId="14"/>
   </si>
   <si>
@@ -1851,15 +1048,6 @@
       <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
   <si>
     <t>rule8</t>
@@ -1961,12 +1149,85 @@
     </rPh>
     <phoneticPr fontId="14"/>
   </si>
+  <si>
+    <t>アクションリトライ間隔（必須）
+※「1」以上を定義して下さい。</t>
+  </si>
+  <si>
+    <t>アクションリトライ回数（必須）
+※「1」以上を定義して下さい。</t>
+  </si>
+  <si>
+    <t>アクション抑止間隔（必須）
+※「0」以上を定義して下さい。</t>
+  </si>
+  <si>
+    <t>アクション抑止回数（必須）
+※「0」以上を定義して下さい。</t>
+  </si>
+  <si>
+    <r>
+      <t>test(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>正規表現に一致する</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>間隔の単位は秒になります。</t>
+    <rPh sb="0" eb="2">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>※条件部は作成されるDTによって列数が異なります。</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>レツスウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2083,13 +1344,6 @@
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2346,7 +1600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2425,9 +1679,6 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2441,10 +1692,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2454,18 +1701,11 @@
     <xf numFmtId="49" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2571,9 +1811,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2583,17 +1820,29 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2610,6 +1859,108 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>563565</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>55561</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>769939</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>103188</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="角丸四角形吹き出し 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2055815" y="1881186"/>
+          <a:ext cx="206374" cy="206377"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -24053"/>
+            <a:gd name="adj2" fmla="val -40717"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2908,11 +2259,11 @@
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -2994,94 +2345,94 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="9.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="43" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="43" customWidth="1"/>
-    <col min="3" max="17" width="9.140625" style="43" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="43" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="43"/>
+    <col min="1" max="1" width="3.5703125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="39" customWidth="1"/>
+    <col min="3" max="17" width="9.140625" style="39" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="39" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-    </row>
-    <row r="2" spans="2:13" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="44"/>
-      <c r="C2" s="45" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+    </row>
+    <row r="2" spans="2:13" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="40"/>
+      <c r="C2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-    </row>
-    <row r="3" spans="2:13" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="44"/>
-      <c r="C3" s="45" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+    </row>
+    <row r="3" spans="2:13" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="40"/>
+      <c r="C3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-    </row>
-    <row r="4" spans="2:13" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="44"/>
-      <c r="C4" s="45" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+    </row>
+    <row r="4" spans="2:13" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="40"/>
+      <c r="C4" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-    </row>
-    <row r="5" spans="2:13" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="44"/>
-      <c r="C5" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-    </row>
-    <row r="6" spans="2:13" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+    </row>
+    <row r="5" spans="2:13" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="40"/>
+      <c r="C5" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+    </row>
+    <row r="6" spans="2:13" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="2:13" s="47" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
+    <row r="7" spans="2:13" s="43" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
     </row>
     <row r="8" spans="2:13" s="10" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="52"/>
-      <c r="C8" s="53" t="s">
+      <c r="B8" s="48"/>
+      <c r="C8" s="49" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -3094,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>1</v>
@@ -3116,22 +2467,22 @@
       </c>
     </row>
     <row r="9" spans="2:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="54"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="57"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="53"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
     <row r="10" spans="2:13" s="10" customFormat="1" ht="39" x14ac:dyDescent="0.2">
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="7" t="s">
         <v>14</v>
       </c>
@@ -3142,7 +2493,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>17</v>
@@ -3159,11 +2510,11 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="2:13" s="61" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="60"/>
+    <row r="11" spans="2:13" s="57" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="56"/>
       <c r="D11" s="24" t="s">
         <v>29</v>
       </c>
@@ -3171,10 +2522,10 @@
         <v>28</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>26</v>
@@ -3183,10 +2534,10 @@
         <v>27</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="L11" s="22" t="s">
         <v>23</v>
@@ -3195,9 +2546,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11"/>
-      <c r="C12" s="62"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -3206,12 +2557,12 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-    </row>
-    <row r="13" spans="2:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+    </row>
+    <row r="13" spans="2:13" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
-      <c r="C13" s="62"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -3220,12 +2571,12 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-    </row>
-    <row r="14" spans="2:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+    </row>
+    <row r="14" spans="2:13" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="11"/>
-      <c r="C14" s="62"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -3234,12 +2585,12 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-    </row>
-    <row r="15" spans="2:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+    </row>
+    <row r="15" spans="2:13" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="11"/>
-      <c r="C15" s="62"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -3248,12 +2599,12 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-    </row>
-    <row r="16" spans="2:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+    </row>
+    <row r="16" spans="2:13" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
-      <c r="C16" s="62"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -3262,12 +2613,12 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-    </row>
-    <row r="17" spans="2:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+    </row>
+    <row r="17" spans="2:13" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="11"/>
-      <c r="C17" s="62"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -3276,12 +2627,12 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-    </row>
-    <row r="18" spans="2:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+    </row>
+    <row r="18" spans="2:13" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="11"/>
-      <c r="C18" s="62"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -3290,19 +2641,19 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
     </row>
     <row r="19" spans="2:13" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="62" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="66"/>
+      <c r="B20" s="62"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="65"/>
+      <c r="B36" s="61"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" deleteRows="0"/>
@@ -3327,7 +2678,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
@@ -3335,928 +2686,491 @@
   <cols>
     <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="19" style="6" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="103.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="103.5703125" customWidth="1"/>
-    <col min="21" max="22" width="30" customWidth="1"/>
-    <col min="23" max="24" width="29" customWidth="1"/>
-    <col min="25" max="16384" width="12" style="6"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="103.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="103.5703125" customWidth="1"/>
+    <col min="8" max="11" width="2.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12" style="6"/>
+    <col min="13" max="13" width="12" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="12" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:26" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="69" t="s">
-        <v>71</v>
+    <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="64" t="s">
+        <v>47</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="D2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="R2" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="S2" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="T2" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="V2" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="W2" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="X2" s="72" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y2" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z2" s="70" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="G2" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>31</v>
+      <c r="B3" s="70">
+        <v>1</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="32">
-        <v>5</v>
-      </c>
-      <c r="E3" s="32" t="s">
+      <c r="D3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="32">
-        <v>5</v>
-      </c>
-      <c r="H3" s="32">
-        <v>5</v>
-      </c>
-      <c r="I3" s="32">
-        <v>9</v>
-      </c>
-      <c r="J3" s="32">
-        <v>9</v>
-      </c>
-      <c r="K3" s="33" t="s">
+      <c r="E3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="H3" s="68">
+        <v>1</v>
+      </c>
+      <c r="I3" s="68">
+        <v>1</v>
+      </c>
+      <c r="J3" s="68">
+        <v>0</v>
+      </c>
+      <c r="K3" s="68">
+        <v>0</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>109</v>
+      <c r="B4" s="70">
+        <v>2</v>
       </c>
       <c r="C4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="32">
-        <v>5</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="32">
-        <v>5</v>
-      </c>
-      <c r="H4" s="32">
-        <v>5</v>
-      </c>
-      <c r="I4" s="32">
-        <v>9</v>
-      </c>
-      <c r="J4" s="32">
-        <v>9</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y4" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z4" s="12"/>
-    </row>
-    <row r="5" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="D4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="68">
+        <v>1</v>
+      </c>
+      <c r="I4" s="68">
+        <v>1</v>
+      </c>
+      <c r="J4" s="68">
+        <v>0</v>
+      </c>
+      <c r="K4" s="68">
+        <v>0</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>110</v>
+      <c r="B5" s="70">
+        <v>3</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="32">
-        <v>5</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="32">
-        <v>5</v>
-      </c>
-      <c r="H5" s="32">
-        <v>5</v>
-      </c>
-      <c r="I5" s="32">
-        <v>9</v>
-      </c>
-      <c r="J5" s="32">
-        <v>9</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="32">
-        <v>9</v>
-      </c>
-      <c r="N5" s="32">
-        <v>9</v>
-      </c>
-      <c r="O5" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-    </row>
-    <row r="6" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="D5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="68">
+        <v>1</v>
+      </c>
+      <c r="I5" s="68">
+        <v>1</v>
+      </c>
+      <c r="J5" s="68">
+        <v>0</v>
+      </c>
+      <c r="K5" s="68">
+        <v>0</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>120</v>
+      <c r="B6" s="70">
+        <v>4</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="68">
+        <v>1</v>
+      </c>
+      <c r="I6" s="68">
+        <v>1</v>
+      </c>
+      <c r="J6" s="68">
+        <v>0</v>
+      </c>
+      <c r="K6" s="68">
+        <v>0</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="70">
         <v>5</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="32">
-        <v>5</v>
-      </c>
-      <c r="H6" s="32">
-        <v>5</v>
-      </c>
-      <c r="I6" s="32">
-        <v>9</v>
-      </c>
-      <c r="J6" s="32">
-        <v>9</v>
-      </c>
-      <c r="K6" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="32">
-        <v>9</v>
-      </c>
-      <c r="N6" s="32">
-        <v>9</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-    </row>
-    <row r="7" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>121</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="32">
-        <v>5</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="32">
-        <v>5</v>
-      </c>
-      <c r="H7" s="32">
-        <v>5</v>
-      </c>
-      <c r="I7" s="32">
-        <v>9</v>
-      </c>
-      <c r="J7" s="32">
-        <v>9</v>
-      </c>
-      <c r="K7" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="32">
-        <v>9</v>
-      </c>
-      <c r="N7" s="32">
-        <v>9</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="P7" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-    </row>
-    <row r="8" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="D7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="68">
+        <v>1</v>
+      </c>
+      <c r="I7" s="68">
+        <v>1</v>
+      </c>
+      <c r="J7" s="68">
+        <v>0</v>
+      </c>
+      <c r="K7" s="68">
+        <v>0</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>129</v>
+      <c r="B8" s="70">
+        <v>6</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="32">
-        <v>5</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="32">
-        <v>5</v>
-      </c>
-      <c r="H8" s="32">
-        <v>5</v>
-      </c>
-      <c r="I8" s="32">
-        <v>9</v>
-      </c>
-      <c r="J8" s="32">
-        <v>9</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="32">
-        <v>9</v>
-      </c>
-      <c r="N8" s="32">
-        <v>9</v>
-      </c>
-      <c r="O8" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-    </row>
-    <row r="9" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+      <c r="D8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="68">
+        <v>1</v>
+      </c>
+      <c r="I8" s="68">
+        <v>1</v>
+      </c>
+      <c r="J8" s="68">
+        <v>0</v>
+      </c>
+      <c r="K8" s="68">
+        <v>0</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>130</v>
+      <c r="B9" s="70">
+        <v>7</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="32">
-        <v>5</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="32">
-        <v>5</v>
-      </c>
-      <c r="H9" s="32">
-        <v>5</v>
-      </c>
-      <c r="I9" s="32">
-        <v>9</v>
-      </c>
-      <c r="J9" s="32">
-        <v>9</v>
-      </c>
-      <c r="K9" s="33" t="s">
+      <c r="D9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="32">
-        <v>9</v>
-      </c>
-      <c r="N9" s="32">
-        <v>9</v>
-      </c>
-      <c r="O9" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="P9" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="U9" s="4" t="s">
+      <c r="G9" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="68">
+        <v>1</v>
+      </c>
+      <c r="I9" s="68">
+        <v>1</v>
+      </c>
+      <c r="J9" s="68">
+        <v>1</v>
+      </c>
+      <c r="K9" s="68">
+        <v>1</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="70">
+        <v>8</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="V9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y9" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z9" s="12"/>
-    </row>
-    <row r="10" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="32">
-        <v>3</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="32">
+      <c r="D10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="68">
+        <v>1</v>
+      </c>
+      <c r="I10" s="68">
+        <v>1</v>
+      </c>
+      <c r="J10" s="68">
         <v>2</v>
       </c>
-      <c r="H10" s="32">
+      <c r="K10" s="68">
         <v>2</v>
       </c>
-      <c r="I10" s="32">
-        <v>2</v>
-      </c>
-      <c r="J10" s="32">
-        <v>2</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="N10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="O10" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="P10" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y10" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z10" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
+      <c r="L10" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="32"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-    </row>
-    <row r="12" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="32"/>
       <c r="B12" s="13"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C12" s="30"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="14"/>
     </row>
-    <row r="14" spans="1:26" ht="97.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="38" t="s">
+    <row r="14" spans="1:13" ht="97.5" x14ac:dyDescent="0.2">
+      <c r="B14" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="146.25" x14ac:dyDescent="0.2">
+      <c r="C15" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="35"/>
+    </row>
+    <row r="16" spans="1:13" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="K14" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="L14" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="M14" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="N14" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="O14" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="R14" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="S14" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="T14" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="U14" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="V14" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="W14" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="X14" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y14" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z14" s="40" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="146.25" x14ac:dyDescent="0.2">
-      <c r="O15" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="P15" s="73"/>
-      <c r="S15" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="T15" s="39"/>
-    </row>
-    <row r="16" spans="1:26" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O16" s="73" t="s">
-        <v>113</v>
-      </c>
-      <c r="P16" s="73"/>
-      <c r="S16" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="T16" s="39"/>
-    </row>
-    <row r="17" spans="19:20" ht="97.5" x14ac:dyDescent="0.2">
-      <c r="S17" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="T17" s="39"/>
-    </row>
-    <row r="18" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="T18" s="39"/>
-    </row>
-    <row r="19" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-    </row>
-    <row r="20" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-    </row>
-    <row r="21" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-    </row>
-    <row r="22" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-    </row>
-    <row r="23" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-    </row>
-    <row r="24" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
+      <c r="G16" s="35"/>
+    </row>
+    <row r="17" spans="6:7" ht="97.5" x14ac:dyDescent="0.2">
+      <c r="F17" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
+  <mergeCells count="1">
+    <mergeCell ref="H14:K14"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="R11:R12">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E11:E12">
       <formula1>"ITA,mail"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="R3:R10">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E3:E10">
       <formula1>"ITA(ver1),mail(ver1)"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/oase-root/libs/commonlibs/template.xlsx
+++ b/oase-root/libs/commonlibs/template.xlsx
@@ -1150,22 +1150,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>アクションリトライ間隔（必須）
-※「1」以上を定義して下さい。</t>
-  </si>
-  <si>
-    <t>アクションリトライ回数（必須）
-※「1」以上を定義して下さい。</t>
-  </si>
-  <si>
-    <t>アクション抑止間隔（必須）
-※「0」以上を定義して下さい。</t>
-  </si>
-  <si>
-    <t>アクション抑止回数（必須）
-※「0」以上を定義して下さい。</t>
-  </si>
-  <si>
     <r>
       <t>test(</t>
     </r>
@@ -1220,6 +1204,138 @@
     <rPh sb="19" eb="20">
       <t>コト</t>
     </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>リトライ間隔（必須）
+※「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」以上を定義して下さい。</t>
+    </r>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>リトライ回数（必須）
+※「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」以上を定義して下さい。</t>
+    </r>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>抑止間隔（必須）
+※「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」以上を定義して下さい。</t>
+    </r>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>抑止回数（必須）
+※「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」以上を定義して下さい。</t>
+    </r>
     <phoneticPr fontId="14"/>
   </si>
 </sst>
@@ -1859,108 +1975,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>563565</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>55561</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>769939</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>103188</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="角丸四角形吹き出し 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2055815" y="1881186"/>
-          <a:ext cx="206374" cy="206377"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -24053"/>
-            <a:gd name="adj2" fmla="val -40717"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>※</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2703,7 +2717,7 @@
         <v>47</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>43</v>
@@ -2718,16 +2732,16 @@
         <v>39</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J2" s="66" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K2" s="67" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L2" s="65" t="s">
         <v>51</v>
@@ -3095,7 +3109,7 @@
         <v>78</v>
       </c>
       <c r="H14" s="72" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I14" s="72"/>
       <c r="J14" s="72"/>
@@ -3109,7 +3123,7 @@
     </row>
     <row r="15" spans="1:13" ht="146.25" x14ac:dyDescent="0.2">
       <c r="C15" s="71" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F15" s="35" t="s">
         <v>83</v>
@@ -3170,7 +3184,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/oase-root/libs/commonlibs/template.xlsx
+++ b/oase-root/libs/commonlibs/template.xlsx
@@ -1215,6 +1215,105 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
+      <t>リトライ回数（必須）
+※「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」以上を定義して下さい。</t>
+    </r>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>抑止間隔（必須）
+※「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」以上を定義して下さい。</t>
+    </r>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>抑止回数（必須）
+※「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」以上を定義して下さい。</t>
+    </r>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
       <t>リトライ間隔（必須）
 ※「</t>
     </r>
@@ -1226,105 +1325,6 @@
         <family val="2"/>
       </rPr>
       <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」以上を定義して下さい。</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>リトライ回数（必須）
-※「</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」以上を定義して下さい。</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>抑止間隔（必須）
-※「</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」以上を定義して下さい。</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>抑止回数（必須）
-※「</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -1804,9 +1804,6 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1936,12 +1933,6 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1959,6 +1950,15 @@
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2359,94 +2359,94 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="9.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="39" customWidth="1"/>
-    <col min="3" max="17" width="9.140625" style="39" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="39" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="39"/>
+    <col min="1" max="1" width="3.5703125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="38" customWidth="1"/>
+    <col min="3" max="17" width="9.140625" style="38" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="38" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="37"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-    </row>
-    <row r="2" spans="2:13" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="40"/>
-      <c r="C2" s="41" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+    </row>
+    <row r="2" spans="2:13" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="39"/>
+      <c r="C2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-    </row>
-    <row r="3" spans="2:13" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="40"/>
-      <c r="C3" s="41" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+    </row>
+    <row r="3" spans="2:13" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-    </row>
-    <row r="4" spans="2:13" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="40"/>
-      <c r="C4" s="41" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+    </row>
+    <row r="4" spans="2:13" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="39"/>
+      <c r="C4" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-    </row>
-    <row r="5" spans="2:13" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="40"/>
-      <c r="C5" s="41" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+    </row>
+    <row r="5" spans="2:13" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="39"/>
+      <c r="C5" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-    </row>
-    <row r="6" spans="2:13" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+    </row>
+    <row r="6" spans="2:13" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="2:13" s="43" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
+    <row r="7" spans="2:13" s="42" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
     </row>
     <row r="8" spans="2:13" s="10" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="48"/>
-      <c r="C8" s="49" t="s">
+      <c r="B8" s="47"/>
+      <c r="C8" s="48" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -2481,22 +2481,22 @@
       </c>
     </row>
     <row r="9" spans="2:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="53"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="52"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
     <row r="10" spans="2:13" s="10" customFormat="1" ht="39" x14ac:dyDescent="0.2">
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="7" t="s">
         <v>14</v>
       </c>
@@ -2524,11 +2524,11 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="2:13" s="57" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="63" t="s">
+    <row r="11" spans="2:13" s="56" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="56"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="24" t="s">
         <v>29</v>
       </c>
@@ -2560,9 +2560,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:13" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11"/>
-      <c r="C12" s="58"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -2571,12 +2571,12 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-    </row>
-    <row r="13" spans="2:13" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+    </row>
+    <row r="13" spans="2:13" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
-      <c r="C13" s="58"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -2585,12 +2585,12 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-    </row>
-    <row r="14" spans="2:13" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+    </row>
+    <row r="14" spans="2:13" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="11"/>
-      <c r="C14" s="58"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -2599,12 +2599,12 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-    </row>
-    <row r="15" spans="2:13" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+    </row>
+    <row r="15" spans="2:13" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="11"/>
-      <c r="C15" s="58"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -2613,12 +2613,12 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-    </row>
-    <row r="16" spans="2:13" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+    </row>
+    <row r="16" spans="2:13" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
-      <c r="C16" s="58"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -2627,12 +2627,12 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-    </row>
-    <row r="17" spans="2:13" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+    </row>
+    <row r="17" spans="2:13" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="11"/>
-      <c r="C17" s="58"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -2641,12 +2641,12 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-    </row>
-    <row r="18" spans="2:13" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+    </row>
+    <row r="18" spans="2:13" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="11"/>
-      <c r="C18" s="58"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -2655,19 +2655,19 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
     </row>
     <row r="19" spans="2:13" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="61" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="62"/>
+      <c r="B20" s="61"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="61"/>
+      <c r="B36" s="60"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" deleteRows="0"/>
@@ -2713,7 +2713,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="63" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="25" t="s">
@@ -2731,33 +2731,33 @@
       <c r="G2" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="J2" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="66" t="s">
+      <c r="K2" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="L2" s="65" t="s">
+      <c r="L2" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="65" t="s">
+      <c r="M2" s="64" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="70">
+      <c r="B3" s="67">
         <v>1</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -2766,22 +2766,22 @@
       <c r="E3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="68">
+      <c r="H3" s="65">
         <v>1</v>
       </c>
-      <c r="I3" s="68">
+      <c r="I3" s="65">
         <v>1</v>
       </c>
-      <c r="J3" s="68">
+      <c r="J3" s="65">
         <v>0</v>
       </c>
-      <c r="K3" s="68">
+      <c r="K3" s="65">
         <v>0</v>
       </c>
       <c r="L3" s="12"/>
@@ -2790,13 +2790,13 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="70">
+      <c r="B4" s="67">
         <v>2</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -2805,22 +2805,22 @@
       <c r="E4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="68">
+      <c r="H4" s="65">
         <v>1</v>
       </c>
-      <c r="I4" s="68">
+      <c r="I4" s="65">
         <v>1</v>
       </c>
-      <c r="J4" s="68">
+      <c r="J4" s="65">
         <v>0</v>
       </c>
-      <c r="K4" s="68">
+      <c r="K4" s="65">
         <v>0</v>
       </c>
       <c r="L4" s="12" t="s">
@@ -2829,13 +2829,13 @@
       <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="70">
+      <c r="B5" s="67">
         <v>3</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -2844,35 +2844,35 @@
       <c r="E5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="68">
+      <c r="H5" s="65">
         <v>1</v>
       </c>
-      <c r="I5" s="68">
+      <c r="I5" s="65">
         <v>1</v>
       </c>
-      <c r="J5" s="68">
+      <c r="J5" s="65">
         <v>0</v>
       </c>
-      <c r="K5" s="68">
+      <c r="K5" s="65">
         <v>0</v>
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="70">
+      <c r="B6" s="67">
         <v>4</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -2881,35 +2881,35 @@
       <c r="E6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="69" t="s">
+      <c r="G6" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="68">
+      <c r="H6" s="65">
         <v>1</v>
       </c>
-      <c r="I6" s="68">
+      <c r="I6" s="65">
         <v>1</v>
       </c>
-      <c r="J6" s="68">
+      <c r="J6" s="65">
         <v>0</v>
       </c>
-      <c r="K6" s="68">
+      <c r="K6" s="65">
         <v>0</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="70">
+      <c r="B7" s="67">
         <v>5</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -2918,35 +2918,35 @@
       <c r="E7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="65">
         <v>1</v>
       </c>
-      <c r="I7" s="68">
+      <c r="I7" s="65">
         <v>1</v>
       </c>
-      <c r="J7" s="68">
+      <c r="J7" s="65">
         <v>0</v>
       </c>
-      <c r="K7" s="68">
+      <c r="K7" s="65">
         <v>0</v>
       </c>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="70">
+      <c r="B8" s="67">
         <v>6</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -2955,35 +2955,35 @@
       <c r="E8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="69" t="s">
+      <c r="F8" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="69" t="s">
+      <c r="G8" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="68">
+      <c r="H8" s="65">
         <v>1</v>
       </c>
-      <c r="I8" s="68">
+      <c r="I8" s="65">
         <v>1</v>
       </c>
-      <c r="J8" s="68">
+      <c r="J8" s="65">
         <v>0</v>
       </c>
-      <c r="K8" s="68">
+      <c r="K8" s="65">
         <v>0</v>
       </c>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="70">
+      <c r="B9" s="67">
         <v>7</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -2992,22 +2992,22 @@
       <c r="E9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="69" t="s">
+      <c r="F9" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="69" t="s">
+      <c r="G9" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="68">
+      <c r="H9" s="65">
         <v>1</v>
       </c>
-      <c r="I9" s="68">
+      <c r="I9" s="65">
         <v>1</v>
       </c>
-      <c r="J9" s="68">
+      <c r="J9" s="65">
         <v>1</v>
       </c>
-      <c r="K9" s="68">
+      <c r="K9" s="65">
         <v>1</v>
       </c>
       <c r="L9" s="12" t="s">
@@ -3016,13 +3016,13 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="70">
+      <c r="B10" s="67">
         <v>8</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -3031,22 +3031,22 @@
       <c r="E10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="69" t="s">
+      <c r="F10" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="69" t="s">
+      <c r="G10" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="68">
+      <c r="H10" s="65">
         <v>1</v>
       </c>
-      <c r="I10" s="68">
+      <c r="I10" s="65">
         <v>1</v>
       </c>
-      <c r="J10" s="68">
+      <c r="J10" s="65">
         <v>2</v>
       </c>
-      <c r="K10" s="68">
+      <c r="K10" s="65">
         <v>2</v>
       </c>
       <c r="L10" s="12" t="s">
@@ -3057,13 +3057,13 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="30"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -3072,13 +3072,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="13"/>
-      <c r="C12" s="30"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -3090,84 +3090,84 @@
       <c r="B13" s="14"/>
     </row>
     <row r="14" spans="1:13" ht="97.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="72" t="s">
+      <c r="H14" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="36" t="s">
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="M14" s="36" t="s">
+      <c r="M14" s="35" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="146.25" x14ac:dyDescent="0.2">
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="35"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:13" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="35"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="6:7" ht="97.5" x14ac:dyDescent="0.2">
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="35"/>
+      <c r="G17" s="34"/>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="G18" s="35"/>
+      <c r="G18" s="34"/>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/oase-root/libs/commonlibs/template.xlsx
+++ b/oase-root/libs/commonlibs/template.xlsx
@@ -1215,7 +1215,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>リトライ回数（必須）
+      <t>抑止間隔（必須）
 ※「</t>
     </r>
     <r>
@@ -1225,7 +1225,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>1</t>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -1248,7 +1248,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>抑止間隔（必須）
+      <t>抑止回数（必須）
 ※「</t>
     </r>
     <r>
@@ -1281,8 +1281,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>抑止回数（必須）
-※「</t>
+      <t>リ</t>
     </r>
     <r>
       <rPr>
@@ -1291,7 +1290,27 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>0</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>トライ間隔（必須）
+※「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1314,7 +1333,26 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>リトライ間隔（必須）
+      <t>リ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>トライ回数（必須）
 ※「</t>
     </r>
     <r>
@@ -1948,17 +1986,17 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2694,7 +2732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2712,7 +2750,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="63" t="s">
         <v>47</v>
       </c>
@@ -2731,17 +2769,17 @@
       <c r="G2" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="I2" s="70" t="s">
+      <c r="J2" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="71" t="s">
+      <c r="K2" s="71" t="s">
         <v>88</v>
-      </c>
-      <c r="K2" s="72" t="s">
-        <v>89</v>
       </c>
       <c r="L2" s="64" t="s">
         <v>51</v>
@@ -3108,12 +3146,12 @@
       <c r="G14" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="69" t="s">
+      <c r="H14" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
       <c r="L14" s="35" t="s">
         <v>66</v>
       </c>

--- a/oase-root/libs/commonlibs/template.xlsx
+++ b/oase-root/libs/commonlibs/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\000001A00AQQ9\mail\開発環境\oase\oase-root\libs\commonlibs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\000001A00AYCV\Documents\Workspace\oase\oase-root\libs\commonlibs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="91">
   <si>
     <t>RuleSet</t>
   </si>
@@ -380,25 +380,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>bc</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>^.*エラーが発生しました。.*$</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -407,308 +388,8 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>ああ</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>アクションのリトライ回数を記述します。</t>
-    <rPh sb="10" eb="12">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キジュツ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>アクションのリトライ間隔を記述します。
-リトライ間隔の単位は秒になります。</t>
-    <rPh sb="10" eb="12">
-      <t>カンカク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カンカク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ビョウ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>MAIL_NAME=oasetest,MAIL_TO=aaa@aaa.com;bbb@bbb.com,MAIL_CC=ccc@ccc.com,MAIL_BCC=ddd@ddd.com,MAIL_TEMPLATE=test_template</t>
     <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <t>test1(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>等しい</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>数値</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>))</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <t>test2(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>等しくない</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>数値</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>))</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <t>test5(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>より大きい</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <t>test6(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>以上</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <t>test7(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>より小さい</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <t>test8(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>以下</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <t>test11(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>含む</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <t>test12(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>含まない</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>test13[HH:mm](from)</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>test13[HH:mm](to)</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>06:00</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>18:00</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t xml:space="preserve">OKパターン：
-1) 06:00
-2) 13:00
-3) 01:01
-</t>
-    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>Sequential</t>
@@ -885,161 +566,6 @@
     <t>mail(ver1)</t>
   </si>
   <si>
-    <t>記述された数値より小さい場合、
-判定されます。</t>
-    <rPh sb="0" eb="2">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <t>test3(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>等しい</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>文字列</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>))</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <t>test4(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>等しくない</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>文字列</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>))</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <t>test9(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>正規表現に一致する</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <t>test10(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>正規表現に一致しない</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>ルール名
 （必須）</t>
     <phoneticPr fontId="14"/>
@@ -1104,189 +630,11 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>アクションリトライ間隔（必須）
-※「</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」以上を定義して下さい。</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>アクションリトライ回数（必須）
-※「</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」以上を定義して下さい。</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>有効日</t>
     <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>無効日</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>記述された文字列と等しくない場合、判定されます。</t>
-    <rPh sb="0" eb="2">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>記述された数値と等しい場合、判定されます。</t>
-    <rPh sb="0" eb="2">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>記述された数値と等しくない場合、判定されます。</t>
-    <rPh sb="0" eb="2">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>記述された文字列と等しい場合、判定されます。</t>
-    <rPh sb="0" eb="2">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>記述された数値より大きい場合、判定されます。</t>
-    <rPh sb="0" eb="2">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>記述された数値以上の場合、判定されます。</t>
-    <rPh sb="0" eb="2">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>記述された数値より小さい場合、判定されます。</t>
-    <rPh sb="0" eb="2">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
     <phoneticPr fontId="14"/>
   </si>
   <si>
@@ -1300,87 +648,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>記述された正規表現に一致しない場合、判定されます。</t>
-    <rPh sb="0" eb="2">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>セイキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウゲン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>記述された値が含まれる場合、判定されます。</t>
-    <rPh sb="0" eb="2">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>記述された値が含まれない場合、判定されます。</t>
-    <rPh sb="0" eb="2">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t xml:space="preserve">イベント発生日時の時分がfromからtoの間である場合、判定されます。
-時分が1桁の場合は頭に0を入力してください。
-</t>
-    <rPh sb="9" eb="11">
-      <t>ジフン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>アイダ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ジフン</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ケタ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>アタマ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>ルール説明</t>
     <rPh sb="3" eb="5">
       <t>ｾﾂﾒｲ</t>
@@ -1388,36 +655,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>アクションの抑止間隔を記述します。
-抑止間隔の単位は秒になります。</t>
-    <rPh sb="8" eb="10">
-      <t>カンカク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カンカク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ビョウ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>アクションの抑止回数を記述します。</t>
-    <rPh sb="8" eb="10">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キジュツ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1536,20 +773,6 @@
       <t>よくし</t>
     </rPh>
     <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>アクション抑止間隔（必須）
-※「0」以上を定義して下さい。</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>アクション抑止回数（必須）
-※「0」以上を定義して下さい。</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t xml:space="preserve">この項目はドライバー毎に記入方法が異なります。
@@ -1685,12 +908,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>rule3</t>
   </si>
   <si>
@@ -1698,14 +915,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>NGパターン：
-1) 6:00
-2) 13:0
-3) :
-記述フォーマットが異なる為エラーとなります。</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>ITA(ver1)</t>
   </si>
   <si>
@@ -1713,10 +922,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>0</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>ITA_NAME=action43,SYMPHONY_CLASS_ID=2</t>
     <phoneticPr fontId="14"/>
   </si>
@@ -1726,14 +931,6 @@
   </si>
   <si>
     <t>rule6</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>5</t>
     <phoneticPr fontId="14"/>
   </si>
   <si>
@@ -1851,15 +1048,6 @@
       <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
   <si>
     <t>rule8</t>
@@ -1961,12 +1149,239 @@
     </rPh>
     <phoneticPr fontId="14"/>
   </si>
+  <si>
+    <r>
+      <t>test(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>正規表現に一致する</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>間隔の単位は秒になります。</t>
+    <rPh sb="0" eb="2">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>※条件部は作成されるDTによって列数が異なります。</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>レツスウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>抑止間隔（必須）
+※「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」以上を定義して下さい。</t>
+    </r>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>抑止回数（必須）
+※「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」以上を定義して下さい。</t>
+    </r>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>リ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>トライ間隔（必須）
+※「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」以上を定義して下さい。</t>
+    </r>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>リ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>トライ回数（必須）
+※「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」以上を定義して下さい。</t>
+    </r>
+    <phoneticPr fontId="14"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2083,13 +1498,6 @@
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2346,7 +1754,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2425,9 +1833,6 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2437,14 +1842,7 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2454,18 +1852,11 @@
     <xf numFmtId="49" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2571,9 +1962,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2583,17 +1971,32 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2908,11 +2311,11 @@
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -2994,94 +2397,94 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="9.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="43" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="43" customWidth="1"/>
-    <col min="3" max="17" width="9.140625" style="43" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="43" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="43"/>
+    <col min="1" max="1" width="3.5703125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="38" customWidth="1"/>
+    <col min="3" max="17" width="9.140625" style="38" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="38" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-    </row>
-    <row r="2" spans="2:13" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="44"/>
-      <c r="C2" s="45" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+    </row>
+    <row r="2" spans="2:13" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="39"/>
+      <c r="C2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-    </row>
-    <row r="3" spans="2:13" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="44"/>
-      <c r="C3" s="45" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+    </row>
+    <row r="3" spans="2:13" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-    </row>
-    <row r="4" spans="2:13" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="44"/>
-      <c r="C4" s="45" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+    </row>
+    <row r="4" spans="2:13" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="39"/>
+      <c r="C4" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-    </row>
-    <row r="5" spans="2:13" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="44"/>
-      <c r="C5" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-    </row>
-    <row r="6" spans="2:13" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+    </row>
+    <row r="5" spans="2:13" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="39"/>
+      <c r="C5" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+    </row>
+    <row r="6" spans="2:13" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="2:13" s="47" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
+    <row r="7" spans="2:13" s="42" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
     </row>
     <row r="8" spans="2:13" s="10" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="52"/>
-      <c r="C8" s="53" t="s">
+      <c r="B8" s="47"/>
+      <c r="C8" s="48" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -3094,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>1</v>
@@ -3116,22 +2519,22 @@
       </c>
     </row>
     <row r="9" spans="2:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="54"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="57"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="52"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
     <row r="10" spans="2:13" s="10" customFormat="1" ht="39" x14ac:dyDescent="0.2">
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="7" t="s">
         <v>14</v>
       </c>
@@ -3142,7 +2545,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>17</v>
@@ -3159,11 +2562,11 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="2:13" s="61" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="60"/>
+    <row r="11" spans="2:13" s="56" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="55"/>
       <c r="D11" s="24" t="s">
         <v>29</v>
       </c>
@@ -3171,10 +2574,10 @@
         <v>28</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>26</v>
@@ -3183,10 +2586,10 @@
         <v>27</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="L11" s="22" t="s">
         <v>23</v>
@@ -3195,9 +2598,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11"/>
-      <c r="C12" s="62"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -3206,12 +2609,12 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-    </row>
-    <row r="13" spans="2:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+    </row>
+    <row r="13" spans="2:13" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
-      <c r="C13" s="62"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -3220,12 +2623,12 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-    </row>
-    <row r="14" spans="2:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+    </row>
+    <row r="14" spans="2:13" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="11"/>
-      <c r="C14" s="62"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -3234,12 +2637,12 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-    </row>
-    <row r="15" spans="2:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+    </row>
+    <row r="15" spans="2:13" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="11"/>
-      <c r="C15" s="62"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -3248,12 +2651,12 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-    </row>
-    <row r="16" spans="2:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+    </row>
+    <row r="16" spans="2:13" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
-      <c r="C16" s="62"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -3262,12 +2665,12 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-    </row>
-    <row r="17" spans="2:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+    </row>
+    <row r="17" spans="2:13" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="11"/>
-      <c r="C17" s="62"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -3276,12 +2679,12 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-    </row>
-    <row r="18" spans="2:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+    </row>
+    <row r="18" spans="2:13" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="11"/>
-      <c r="C18" s="62"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -3290,19 +2693,19 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
     </row>
     <row r="19" spans="2:13" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="61" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="66"/>
+      <c r="B20" s="61"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="65"/>
+      <c r="B36" s="60"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" deleteRows="0"/>
@@ -3327,931 +2730,493 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="19" style="6" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="103.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="103.5703125" customWidth="1"/>
-    <col min="21" max="22" width="30" customWidth="1"/>
-    <col min="23" max="24" width="29" customWidth="1"/>
-    <col min="25" max="16384" width="12" style="6"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="103.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="103.5703125" customWidth="1"/>
+    <col min="8" max="11" width="2.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12" style="6"/>
+    <col min="13" max="13" width="12" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="12" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:26" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="69" t="s">
+    <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="64" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="67">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="65">
+        <v>1</v>
+      </c>
+      <c r="I3" s="65">
+        <v>1</v>
+      </c>
+      <c r="J3" s="65">
+        <v>0</v>
+      </c>
+      <c r="K3" s="65">
+        <v>0</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="67">
+        <v>2</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="65">
+        <v>1</v>
+      </c>
+      <c r="I4" s="65">
+        <v>1</v>
+      </c>
+      <c r="J4" s="65">
+        <v>0</v>
+      </c>
+      <c r="K4" s="65">
+        <v>0</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="67">
+        <v>3</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="G5" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="26" t="s">
+      <c r="H5" s="65">
+        <v>1</v>
+      </c>
+      <c r="I5" s="65">
+        <v>1</v>
+      </c>
+      <c r="J5" s="65">
+        <v>0</v>
+      </c>
+      <c r="K5" s="65">
+        <v>0</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="67">
+        <v>4</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="65">
+        <v>1</v>
+      </c>
+      <c r="I6" s="65">
+        <v>1</v>
+      </c>
+      <c r="J6" s="65">
+        <v>0</v>
+      </c>
+      <c r="K6" s="65">
+        <v>0</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="67">
+        <v>5</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="65">
+        <v>1</v>
+      </c>
+      <c r="I7" s="65">
+        <v>1</v>
+      </c>
+      <c r="J7" s="65">
+        <v>0</v>
+      </c>
+      <c r="K7" s="65">
+        <v>0</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="67">
+        <v>6</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="65">
+        <v>1</v>
+      </c>
+      <c r="I8" s="65">
+        <v>1</v>
+      </c>
+      <c r="J8" s="65">
+        <v>0</v>
+      </c>
+      <c r="K8" s="65">
+        <v>0</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="67">
+        <v>7</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="65">
+        <v>1</v>
+      </c>
+      <c r="I9" s="65">
+        <v>1</v>
+      </c>
+      <c r="J9" s="65">
+        <v>1</v>
+      </c>
+      <c r="K9" s="65">
+        <v>1</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="67">
+        <v>8</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="65">
+        <v>1</v>
+      </c>
+      <c r="I10" s="65">
+        <v>1</v>
+      </c>
+      <c r="J10" s="65">
+        <v>2</v>
+      </c>
+      <c r="K10" s="65">
+        <v>2</v>
+      </c>
+      <c r="L10" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="M10" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="26" t="s">
+    </row>
+    <row r="11" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="31"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="31"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" spans="1:13" ht="97.5" x14ac:dyDescent="0.2">
+      <c r="B14" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="E14" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="R2" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="S2" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="T2" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="V2" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="W2" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="X2" s="72" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y2" s="70" t="s">
+    </row>
+    <row r="15" spans="1:13" ht="146.25" x14ac:dyDescent="0.2">
+      <c r="C15" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="34"/>
+    </row>
+    <row r="16" spans="1:13" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17" spans="6:7" ht="97.5" x14ac:dyDescent="0.2">
+      <c r="F17" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="Z2" s="70" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="32">
-        <v>5</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="32">
-        <v>5</v>
-      </c>
-      <c r="H3" s="32">
-        <v>5</v>
-      </c>
-      <c r="I3" s="32">
-        <v>9</v>
-      </c>
-      <c r="J3" s="32">
-        <v>9</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="32">
-        <v>5</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="32">
-        <v>5</v>
-      </c>
-      <c r="H4" s="32">
-        <v>5</v>
-      </c>
-      <c r="I4" s="32">
-        <v>9</v>
-      </c>
-      <c r="J4" s="32">
-        <v>9</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y4" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z4" s="12"/>
-    </row>
-    <row r="5" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="32">
-        <v>5</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="32">
-        <v>5</v>
-      </c>
-      <c r="H5" s="32">
-        <v>5</v>
-      </c>
-      <c r="I5" s="32">
-        <v>9</v>
-      </c>
-      <c r="J5" s="32">
-        <v>9</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="32">
-        <v>9</v>
-      </c>
-      <c r="N5" s="32">
-        <v>9</v>
-      </c>
-      <c r="O5" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-    </row>
-    <row r="6" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="32">
-        <v>5</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="32">
-        <v>5</v>
-      </c>
-      <c r="H6" s="32">
-        <v>5</v>
-      </c>
-      <c r="I6" s="32">
-        <v>9</v>
-      </c>
-      <c r="J6" s="32">
-        <v>9</v>
-      </c>
-      <c r="K6" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="32">
-        <v>9</v>
-      </c>
-      <c r="N6" s="32">
-        <v>9</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-    </row>
-    <row r="7" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="32">
-        <v>5</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="32">
-        <v>5</v>
-      </c>
-      <c r="H7" s="32">
-        <v>5</v>
-      </c>
-      <c r="I7" s="32">
-        <v>9</v>
-      </c>
-      <c r="J7" s="32">
-        <v>9</v>
-      </c>
-      <c r="K7" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="32">
-        <v>9</v>
-      </c>
-      <c r="N7" s="32">
-        <v>9</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="P7" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-    </row>
-    <row r="8" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="32">
-        <v>5</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="32">
-        <v>5</v>
-      </c>
-      <c r="H8" s="32">
-        <v>5</v>
-      </c>
-      <c r="I8" s="32">
-        <v>9</v>
-      </c>
-      <c r="J8" s="32">
-        <v>9</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="32">
-        <v>9</v>
-      </c>
-      <c r="N8" s="32">
-        <v>9</v>
-      </c>
-      <c r="O8" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-    </row>
-    <row r="9" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="32">
-        <v>5</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="32">
-        <v>5</v>
-      </c>
-      <c r="H9" s="32">
-        <v>5</v>
-      </c>
-      <c r="I9" s="32">
-        <v>9</v>
-      </c>
-      <c r="J9" s="32">
-        <v>9</v>
-      </c>
-      <c r="K9" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="32">
-        <v>9</v>
-      </c>
-      <c r="N9" s="32">
-        <v>9</v>
-      </c>
-      <c r="O9" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="P9" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y9" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z9" s="12"/>
-    </row>
-    <row r="10" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="32">
-        <v>3</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="32">
-        <v>2</v>
-      </c>
-      <c r="H10" s="32">
-        <v>2</v>
-      </c>
-      <c r="I10" s="32">
-        <v>2</v>
-      </c>
-      <c r="J10" s="32">
-        <v>2</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="N10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="O10" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="P10" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y10" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z10" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-    </row>
-    <row r="12" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B13" s="14"/>
-    </row>
-    <row r="14" spans="1:26" ht="97.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="K14" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="L14" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="M14" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="N14" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="O14" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="R14" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="S14" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="T14" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="U14" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="V14" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="W14" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="X14" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y14" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z14" s="40" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="146.25" x14ac:dyDescent="0.2">
-      <c r="O15" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="P15" s="73"/>
-      <c r="S15" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="T15" s="39"/>
-    </row>
-    <row r="16" spans="1:26" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O16" s="73" t="s">
-        <v>113</v>
-      </c>
-      <c r="P16" s="73"/>
-      <c r="S16" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="T16" s="39"/>
-    </row>
-    <row r="17" spans="19:20" ht="97.5" x14ac:dyDescent="0.2">
-      <c r="S17" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="T17" s="39"/>
-    </row>
-    <row r="18" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="T18" s="39"/>
-    </row>
-    <row r="19" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-    </row>
-    <row r="20" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-    </row>
-    <row r="21" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-    </row>
-    <row r="22" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-    </row>
-    <row r="23" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-    </row>
-    <row r="24" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
+      <c r="G17" s="34"/>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="34"/>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
+  <mergeCells count="1">
+    <mergeCell ref="H14:K14"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="R11:R12">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E11:E12">
       <formula1>"ITA,mail"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="R3:R10">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E3:E10">
       <formula1>"ITA(ver1),mail(ver1)"</formula1>
     </dataValidation>
   </dataValidations>

--- a/oase-root/libs/commonlibs/template.xlsx
+++ b/oase-root/libs/commonlibs/template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\000001A00AYCV\Documents\Workspace\oase\oase-root\libs\commonlibs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\000001A00A6P3\Desktop\mail\EPOCH\sprint5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="405" windowWidth="13275" windowHeight="9075" tabRatio="601"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21855" windowHeight="9480" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="93">
   <si>
     <t>RuleSet</t>
   </si>
@@ -923,22 +923,6 @@
   </si>
   <si>
     <t>ITA_NAME=action43,SYMPHONY_CLASS_ID=2</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>rule7</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>rule6</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>rule4</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>rule5</t>
     <phoneticPr fontId="14"/>
   </si>
   <si>
@@ -1018,48 +1002,262 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>NGパターン：
-1)ITA_NAME=action43,SYMPHONY_CLASS_ID=2,OPERATION_ID=1,SERVER_LIST=hostname1:hostname2,MENU_ID=1
-2)ITA_NAME=action43,SYMPHONY_CLASS_ID=2,OPERATION_ID=1,SERVER_LIST=hostname1:hostname2
-3)ITA_NAME=action43,SYMPHONY_CLASS_ID=2,OPERATION_ID=1,MENU_ID=1
-4)ITA_NAME=action43,SYMPHONY_CLASS_ID=2,SERVER_LIST=hostname1:hostname2,MENU_ID=1
-OPERATION_ID,SERVER_LIST,MENU_IDを同時に設定した場合エラーとなります。
-5)ITA_NAME=action43,SYMPHONY_CLASS_ID=2,MENU_ID=1:2,CONVERT_FLG=TRUE
-MENU_IDを複数指定した場合はCONVERT_FLGをTUREに設定できません。</t>
-    <rPh sb="374" eb="376">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="377" eb="379">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="381" eb="383">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="472" eb="474">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="474" eb="476">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="478" eb="480">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="498" eb="500">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
+    <t>ITA_NAME=action43,SYMPHONY_CLASS_ID=2,MENU_ID=1:2:3:4,HOSTGROUP_NAME=1:HG1,HOST_NAME=2:H2&amp;H3|3:H4|4:H5&amp;H6&amp;H7,CONVERT_FLG=FALSE</t>
+  </si>
+  <si>
+    <r>
+      <t>test(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>正規表現に一致する</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>間隔の単位は秒になります。</t>
+    <rPh sb="0" eb="2">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>※条件部は作成されるDTによって列数が異なります。</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>レツスウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>抑止間隔（必須）
+※「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」以上を定義して下さい。</t>
+    </r>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>抑止回数（必須）
+※「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」以上を定義して下さい。</t>
+    </r>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>リ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>トライ間隔（必須）
+※「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」以上を定義して下さい。</t>
+    </r>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>リ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>トライ回数（必須）
+※「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」以上を定義して下さい。</t>
+    </r>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>rule4</t>
+  </si>
+  <si>
+    <t>rule5</t>
+  </si>
+  <si>
+    <t>rule6</t>
+  </si>
+  <si>
+    <t>rule7</t>
   </si>
   <si>
     <t>rule8</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>ITA_NAME=action43,SYMPHONY_CLASS_ID=2,MENU_ID=1:2:3:4,HOSTGROUP_NAME=1:HG1,HOST_NAME=2:H2&amp;H3|3:H4|4:H5&amp;H6&amp;H7,CONVERT_FLG=FALSE</t>
+  </si>
+  <si>
+    <t>rule9</t>
+  </si>
+  <si>
+    <t>ITA_NAME=action43,CONDUCTOR_CLASS_ID=2</t>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t xml:space="preserve">【ITAドライバー】
 ITA_NAMEはOASE画面のシステム-アクション設定-ITA_driverの名前と紐づけます。
 SYMPHONY_CLASS_IDはITA画面の基本コンソール-Symphonyクラス一覧のSymphonyクラスIDと紐づけます。
+CONDUCTOR_CLASS_IDはITA画面の基本コンソール-Conductorクラス一覧のConductorクラスIDと紐づけます。
 OPERATION_IDはITA画面の基本コンソール-投入オペレーション一覧のオペレーションIDと紐づけます。
 SERVER_LISTは実行対象となるホスト名を記述します。ホスト名はITA画面の基本コンソール-機器一覧のホスト名と紐づけます。
 複数記載する場合はコロン(:)で区切って記述します。
@@ -1070,7 +1268,7 @@
 複数のMENU_IDを設定する場合はパイプ（|）で区切って記載します。
 HOST_NAMEにつきましても、HOSTGROUP_NAMEと同様です。
 CONVERT_FLGはTRUEまたはFALSEを設定します。MENU_ID指定の時に必要になります。
-SYMPHONY_CLASS_ID、OPERATION_ID、SERVER_LIST、MENU_IDの値に {{ VAR_条件名 }} と記入すると条件部の値を当てはめることができます。
+SYMPHONY_CLASS_ID、CONDUCTOR_CLASS_ID、OPERATION_ID、SERVER_LIST、MENU_IDの値に {{ VAR_条件名 }} と記入すると条件部の値を当てはめることができます。
 </t>
     <rPh sb="24" eb="26">
       <t>ガメン</t>
@@ -1084,296 +1282,119 @@
     <rPh sb="54" eb="55">
       <t>ヒモ</t>
     </rPh>
-    <rPh sb="144" eb="146">
+    <rPh sb="150" eb="152">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="147" eb="149">
+    <rPh sb="153" eb="155">
       <t>キホン</t>
     </rPh>
-    <rPh sb="289" eb="291">
+    <rPh sb="214" eb="216">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="217" eb="219">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="359" eb="361">
       <t>サクセイ</t>
     </rPh>
-    <rPh sb="303" eb="304">
+    <rPh sb="373" eb="374">
       <t>ヒモ</t>
     </rPh>
-    <rPh sb="312" eb="314">
+    <rPh sb="382" eb="384">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="315" eb="317">
+    <rPh sb="385" eb="387">
       <t>カンリ</t>
     </rPh>
-    <rPh sb="327" eb="329">
+    <rPh sb="397" eb="399">
       <t>カンリ</t>
     </rPh>
-    <rPh sb="331" eb="333">
+    <rPh sb="401" eb="403">
       <t>カクニン</t>
     </rPh>
-    <rPh sb="389" eb="390">
+    <rPh sb="459" eb="460">
       <t>ヒモ</t>
     </rPh>
-    <rPh sb="403" eb="405">
+    <rPh sb="473" eb="475">
       <t>キサイ</t>
     </rPh>
-    <rPh sb="417" eb="418">
+    <rPh sb="487" eb="488">
       <t>アワ</t>
     </rPh>
-    <rPh sb="427" eb="429">
+    <rPh sb="497" eb="499">
       <t>クギ</t>
     </rPh>
-    <rPh sb="431" eb="433">
+    <rPh sb="501" eb="503">
       <t>キサイ</t>
     </rPh>
-    <rPh sb="449" eb="451">
+    <rPh sb="519" eb="521">
       <t>フクスウ</t>
     </rPh>
-    <rPh sb="460" eb="461">
+    <rPh sb="530" eb="531">
       <t>ヒモ</t>
     </rPh>
-    <rPh sb="464" eb="466">
+    <rPh sb="534" eb="536">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="553" eb="555">
+    <rPh sb="623" eb="625">
       <t>ドウヨウ</t>
     </rPh>
-    <rPh sb="584" eb="586">
+    <rPh sb="654" eb="656">
       <t>セッテイ</t>
     </rPh>
+    <rPh sb="667" eb="669">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="670" eb="671">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="672" eb="674">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NGパターン：
+1)ITA_NAME=action43,SYMPHONY_CLASS_ID=2,CONDUCTOR_CLASS_ID=3
+SYMPHONY_CLASS_IDとCONDUCTOR_CLASS_IDを同時に設定した場合エラーとなります。
+2)ITA_NAME=action43,SYMPHONY_CLASS_ID=2,OPERATION_ID=1,SERVER_LIST=hostname1:hostname2,MENU_ID=1
+3)ITA_NAME=action43,SYMPHONY_CLASS_ID=2,OPERATION_ID=1,SERVER_LIST=hostname1:hostname2
+4)ITA_NAME=action43,SYMPHONY_CLASS_ID=2,OPERATION_ID=1,MENU_ID=1
+5)ITA_NAME=action43,SYMPHONY_CLASS_ID=2,SERVER_LIST=hostname1:hostname2,MENU_ID=1
+OPERATION_ID,SERVER_LIST,MENU_IDを同時に設定した場合エラーとなります。
+6)ITA_NAME=action43,SYMPHONY_CLASS_ID=2,MENU_ID=1:2,CONVERT_FLG=TRUE
+MENU_IDを複数指定した場合はCONVERT_FLGをTUREに設定できません。
+</t>
+    <rPh sb="108" eb="110">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="493" eb="495">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="496" eb="498">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="500" eb="502">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="591" eb="593">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="593" eb="595">
+      <t>シテイ</t>
+    </rPh>
     <rPh sb="597" eb="599">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="600" eb="601">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="602" eb="604">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <t>test(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>正規表現に一致する</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>間隔の単位は秒になります。</t>
-    <rPh sb="0" eb="2">
-      <t>カンカク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ビョウ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>※条件部は作成されるDTによって列数が異なります。</t>
-    <rPh sb="1" eb="3">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>レツスウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>コト</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>抑止間隔（必須）
-※「</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」以上を定義して下さい。</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>抑止回数（必須）
-※「</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」以上を定義して下さい。</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>リ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>トライ間隔（必須）
-※「</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」以上を定義して下さい。</t>
-    </r>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>リ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>トライ回数（必須）
-※「</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」以上を定義して下さい。</t>
-    </r>
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="617" eb="619">
+      <t>セッテイ</t>
+    </rPh>
     <phoneticPr fontId="14"/>
   </si>
 </sst>
@@ -2730,7 +2751,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2755,7 +2776,7 @@
         <v>47</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>43</v>
@@ -2770,16 +2791,16 @@
         <v>39</v>
       </c>
       <c r="H2" s="69" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="I2" s="69" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J2" s="70" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K2" s="71" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="L2" s="64" t="s">
         <v>51</v>
@@ -2914,13 +2935,13 @@
         <v>31</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>69</v>
       </c>
       <c r="F6" s="66" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="G6" s="66" t="s">
         <v>40</v>
@@ -2951,13 +2972,13 @@
         <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>69</v>
       </c>
       <c r="F7" s="66" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G7" s="66" t="s">
         <v>40</v>
@@ -2988,13 +3009,13 @@
         <v>31</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>69</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G8" s="66" t="s">
         <v>40</v>
@@ -3025,16 +3046,16 @@
         <v>31</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F9" s="66" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="G9" s="66" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="H9" s="65">
         <v>1</v>
@@ -3043,14 +3064,12 @@
         <v>1</v>
       </c>
       <c r="J9" s="65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="65">
-        <v>1</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -3064,16 +3083,16 @@
         <v>31</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F10" s="66" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="G10" s="66" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="H10" s="65">
         <v>1</v>
@@ -3082,36 +3101,60 @@
         <v>1</v>
       </c>
       <c r="J10" s="65">
+        <v>1</v>
+      </c>
+      <c r="K10" s="65">
+        <v>1</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="67">
+        <v>9</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="65">
+        <v>1</v>
+      </c>
+      <c r="I11" s="65">
+        <v>1</v>
+      </c>
+      <c r="J11" s="65">
         <v>2</v>
       </c>
-      <c r="K10" s="65">
+      <c r="K11" s="65">
         <v>2</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L11" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M11" s="12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="31"/>
-      <c r="B12" s="13"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="29"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -3124,68 +3167,79 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="14"/>
-    </row>
-    <row r="14" spans="1:13" ht="97.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="33" t="s">
+    <row r="13" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="31"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="14"/>
+    </row>
+    <row r="15" spans="1:13" ht="97.5" x14ac:dyDescent="0.2">
+      <c r="B15" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C15" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D15" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E15" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F15" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G15" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="35" t="s">
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="M14" s="35" t="s">
+      <c r="M15" s="35" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="146.25" x14ac:dyDescent="0.2">
-      <c r="C15" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="34"/>
-    </row>
-    <row r="16" spans="1:13" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="C16" s="68" t="s">
+        <v>79</v>
+      </c>
       <c r="F16" s="34" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G16" s="34"/>
     </row>
-    <row r="17" spans="6:7" ht="97.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="6:7" ht="165.75" x14ac:dyDescent="0.2">
       <c r="F17" s="34" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="G17" s="34"/>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:7" ht="97.5" x14ac:dyDescent="0.2">
+      <c r="F18" s="34" t="s">
+        <v>73</v>
+      </c>
       <c r="G18" s="34"/>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+      <c r="G19" s="34"/>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F20" s="32"/>
@@ -3207,16 +3261,20 @@
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
     </row>
+    <row r="25" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E11:E12">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E12:E13">
       <formula1>"ITA,mail"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E3:E10">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E3:E11">
       <formula1>"ITA(ver1),mail(ver1)"</formula1>
     </dataValidation>
   </dataValidations>

--- a/oase-root/libs/commonlibs/template.xlsx
+++ b/oase-root/libs/commonlibs/template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\000001A00A6P3\Desktop\mail\EPOCH\sprint5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ICF_AutoCapsule_disabled\02.業務\20200930\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21855" windowHeight="9480" tabRatio="601"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21852" windowHeight="9480" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="101">
   <si>
     <t>RuleSet</t>
   </si>
@@ -816,10 +816,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>ITA_NAME=action43,SYMPHONY_CLASS_ID=2,OPERATION_ID={{ VAR_test1 }}</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>2020-01-01 00:00</t>
     <phoneticPr fontId="14"/>
   </si>
@@ -916,14 +912,6 @@
   </si>
   <si>
     <t>ITA(ver1)</t>
-  </si>
-  <si>
-    <t>rule2</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>ITA_NAME=action43,SYMPHONY_CLASS_ID=2</t>
-    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>ITA_NAME=action43,SYMPHONY_CLASS_ID=2,MENU_ID=1,CONVERT_FLG=TRUE</t>
@@ -1248,10 +1236,6 @@
   </si>
   <si>
     <t>rule9</t>
-  </si>
-  <si>
-    <t>ITA_NAME=action43,CONDUCTOR_CLASS_ID=2</t>
-    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t xml:space="preserve">【ITAドライバー】
@@ -1395,6 +1379,51 @@
     <rPh sb="617" eb="619">
       <t>セッテイ</t>
     </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>^.*エラーが発生しました。.*$</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>rule10</t>
+  </si>
+  <si>
+    <t>ITA_NAME=action43,SYMPHONY_CLASS_ID=2,OPERATION_ID=1</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>ITA_NAME=action43,CONDUCTOR_CLASS_ID=2,OPERATION_ID={{ VAR_test }}</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>ITA_NAME=action43,CONDUCTOR_CLASS_ID=2,OPERATION_ID=2</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>ITA_NAME=action43,CONDUCTOR_CLASS_ID=2,MENU_ID=1,CONVERT_FLG=TRUE</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>ITA_NAME=action43,CONDUCTOR_CLASS_ID=2,MENU_ID=1:2,CONVERT_FLG=FALSE</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>ITA_NAME=action43,SYMPHONY_CLASS_ID=2,OPERATION_ID={{ VAR_test }}</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>rule2</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>rule11</t>
+  </si>
+  <si>
+    <t>rule12</t>
+  </si>
+  <si>
+    <t>^.*エラーが発生しました。.*$</t>
     <phoneticPr fontId="14"/>
   </si>
 </sst>
@@ -2416,16 +2445,16 @@
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="9.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="9.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="38" customWidth="1"/>
-    <col min="3" max="17" width="9.140625" style="38" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="38" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="38"/>
+    <col min="1" max="1" width="3.5546875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="38" customWidth="1"/>
+    <col min="3" max="17" width="9.109375" style="38" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" style="38" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1" s="36"/>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
@@ -2489,7 +2518,7 @@
     <row r="6" spans="2:13" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="2:13" s="42" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" s="42" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B7" s="43"/>
       <c r="C7" s="44"/>
       <c r="D7" s="45"/>
@@ -2503,7 +2532,7 @@
       <c r="L7" s="46"/>
       <c r="M7" s="46"/>
     </row>
-    <row r="8" spans="2:13" s="10" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" s="10" customFormat="1" ht="19.2" x14ac:dyDescent="0.2">
       <c r="B8" s="47"/>
       <c r="C8" s="48" t="s">
         <v>11</v>
@@ -2553,7 +2582,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="2:13" s="10" customFormat="1" ht="39" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" s="10" customFormat="1" ht="38.4" x14ac:dyDescent="0.2">
       <c r="B10" s="53"/>
       <c r="C10" s="54"/>
       <c r="D10" s="7" t="s">
@@ -2717,7 +2746,7 @@
       <c r="L18" s="58"/>
       <c r="M18" s="58"/>
     </row>
-    <row r="19" spans="2:13" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="61" t="s">
         <v>25</v>
       </c>
@@ -2751,32 +2780,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="103.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="103.5703125" customWidth="1"/>
-    <col min="8" max="11" width="2.85546875" customWidth="1"/>
+    <col min="6" max="6" width="103.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="103.5546875" customWidth="1"/>
+    <col min="8" max="11" width="2.88671875" customWidth="1"/>
     <col min="12" max="12" width="12" style="6"/>
     <col min="13" max="13" width="12" style="6" customWidth="1"/>
     <col min="14" max="16384" width="12" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="63" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>43</v>
@@ -2791,16 +2820,16 @@
         <v>39</v>
       </c>
       <c r="H2" s="69" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I2" s="69" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J2" s="70" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K2" s="71" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L2" s="64" t="s">
         <v>51</v>
@@ -2809,7 +2838,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>30</v>
       </c>
@@ -2826,7 +2855,7 @@
         <v>49</v>
       </c>
       <c r="F3" s="66" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="G3" s="66" t="s">
         <v>33</v>
@@ -2845,10 +2874,10 @@
       </c>
       <c r="L3" s="12"/>
       <c r="M3" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>30</v>
       </c>
@@ -2856,16 +2885,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F4" s="66" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="G4" s="66" t="s">
         <v>40</v>
@@ -2882,12 +2911,10 @@
       <c r="K4" s="65">
         <v>0</v>
       </c>
-      <c r="L4" s="12" t="s">
-        <v>62</v>
-      </c>
+      <c r="L4" s="12"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>30</v>
       </c>
@@ -2898,13 +2925,13 @@
         <v>31</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="66" t="s">
         <v>67</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="66" t="s">
-        <v>71</v>
       </c>
       <c r="G5" s="66" t="s">
         <v>40</v>
@@ -2921,10 +2948,12 @@
       <c r="K5" s="65">
         <v>0</v>
       </c>
-      <c r="L5" s="12"/>
+      <c r="L5" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>30</v>
       </c>
@@ -2932,16 +2961,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F6" s="66" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G6" s="66" t="s">
         <v>40</v>
@@ -2961,7 +2990,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
         <v>30</v>
       </c>
@@ -2969,16 +2998,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F7" s="66" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="G7" s="66" t="s">
         <v>40</v>
@@ -2998,7 +3027,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
         <v>30</v>
       </c>
@@ -3009,13 +3038,13 @@
         <v>31</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="66" t="s">
         <v>69</v>
-      </c>
-      <c r="F8" s="66" t="s">
-        <v>75</v>
       </c>
       <c r="G8" s="66" t="s">
         <v>40</v>
@@ -3035,7 +3064,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
         <v>30</v>
       </c>
@@ -3046,13 +3075,13 @@
         <v>31</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" s="66" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G9" s="66" t="s">
         <v>40</v>
@@ -3072,7 +3101,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
         <v>30</v>
       </c>
@@ -3080,19 +3109,19 @@
         <v>8</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="F10" s="66" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="G10" s="66" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="H10" s="65">
         <v>1</v>
@@ -3101,17 +3130,15 @@
         <v>1</v>
       </c>
       <c r="J10" s="65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="65">
-        <v>1</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
         <v>30</v>
       </c>
@@ -3119,16 +3146,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="F11" s="66" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="G11" s="66" t="s">
         <v>40</v>
@@ -3140,141 +3167,254 @@
         <v>1</v>
       </c>
       <c r="J11" s="65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11" s="65">
-        <v>2</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="67">
+        <v>10</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="65">
+        <v>1</v>
+      </c>
+      <c r="I12" s="65">
+        <v>1</v>
+      </c>
+      <c r="J12" s="65">
+        <v>0</v>
+      </c>
+      <c r="K12" s="65">
+        <v>0</v>
+      </c>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="12"/>
+    <row r="13" spans="1:13" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="67">
+        <v>11</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="65">
+        <v>1</v>
+      </c>
+      <c r="I13" s="65">
+        <v>1</v>
+      </c>
+      <c r="J13" s="65">
+        <v>1</v>
+      </c>
+      <c r="K13" s="65">
+        <v>1</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="14"/>
-    </row>
-    <row r="15" spans="1:13" ht="97.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="33" t="s">
+    <row r="14" spans="1:13" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="67">
+        <v>12</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="65">
+        <v>1</v>
+      </c>
+      <c r="I14" s="65">
+        <v>1</v>
+      </c>
+      <c r="J14" s="65">
+        <v>2</v>
+      </c>
+      <c r="K14" s="65">
+        <v>2</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="14"/>
+    </row>
+    <row r="18" spans="2:13" ht="90" x14ac:dyDescent="0.2">
+      <c r="B18" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C18" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D18" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E18" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F18" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="M15" s="35" t="s">
+      <c r="G18" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="35" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="C16" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="34"/>
-    </row>
-    <row r="17" spans="6:7" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="F17" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="34"/>
-    </row>
-    <row r="18" spans="6:7" ht="97.5" x14ac:dyDescent="0.2">
-      <c r="F18" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="34"/>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="M18" s="35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="144" x14ac:dyDescent="0.25">
+      <c r="C19" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>87</v>
+      </c>
       <c r="G19" s="34"/>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-    </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-    </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" ht="153" x14ac:dyDescent="0.25">
+      <c r="F20" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="34"/>
+    </row>
+    <row r="21" spans="2:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="F21" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="34"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G22" s="34"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
     </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H18:K18"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E12:E13">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E15:E16">
       <formula1>"ITA,mail"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E3:E11">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E3:E14">
       <formula1>"ITA(ver1),mail(ver1)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3291,14 +3431,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3309,7 +3449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3320,7 +3460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3332,7 +3472,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>

--- a/oase-root/libs/commonlibs/template.xlsx
+++ b/oase-root/libs/commonlibs/template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ICF_AutoCapsule_disabled\02.業務\20200930\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\000001A00A6P3\Desktop\mail\EPOCH\sprint10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21852" windowHeight="9480" tabRatio="601"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22200" windowHeight="8670" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="103">
   <si>
     <t>RuleSet</t>
   </si>
@@ -1238,10 +1238,107 @@
     <t>rule9</t>
   </si>
   <si>
+    <t xml:space="preserve">NGパターン：
+1)ITA_NAME=action43,SYMPHONY_CLASS_ID=2,CONDUCTOR_CLASS_ID=3
+SYMPHONY_CLASS_IDとCONDUCTOR_CLASS_IDを同時に設定した場合エラーとなります。
+2)ITA_NAME=action43,SYMPHONY_CLASS_ID=2,OPERATION_ID=1,SERVER_LIST=hostname1:hostname2,MENU_ID=1
+3)ITA_NAME=action43,SYMPHONY_CLASS_ID=2,OPERATION_ID=1,SERVER_LIST=hostname1:hostname2
+4)ITA_NAME=action43,SYMPHONY_CLASS_ID=2,OPERATION_ID=1,MENU_ID=1
+5)ITA_NAME=action43,SYMPHONY_CLASS_ID=2,SERVER_LIST=hostname1:hostname2,MENU_ID=1
+OPERATION_ID,SERVER_LIST,MENU_IDを同時に設定した場合エラーとなります。
+6)ITA_NAME=action43,SYMPHONY_CLASS_ID=2,MENU_ID=1:2,CONVERT_FLG=TRUE
+MENU_IDを複数指定した場合はCONVERT_FLGをTUREに設定できません。
+</t>
+    <rPh sb="108" eb="110">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="493" eb="495">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="496" eb="498">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="500" eb="502">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="591" eb="593">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="593" eb="595">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="597" eb="599">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="617" eb="619">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>^.*エラーが発生しました。.*$</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>rule10</t>
+  </si>
+  <si>
+    <t>ITA_NAME=action43,SYMPHONY_CLASS_ID=2,OPERATION_ID=1</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>ITA_NAME=action43,CONDUCTOR_CLASS_ID=2,OPERATION_ID={{ VAR_test }}</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>ITA_NAME=action43,CONDUCTOR_CLASS_ID=2,OPERATION_ID=2</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>ITA_NAME=action43,CONDUCTOR_CLASS_ID=2,MENU_ID=1,CONVERT_FLG=TRUE</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>ITA_NAME=action43,CONDUCTOR_CLASS_ID=2,MENU_ID=1:2,CONVERT_FLG=FALSE</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>ITA_NAME=action43,SYMPHONY_CLASS_ID=2,OPERATION_ID={{ VAR_test }}</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>rule2</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>rule11</t>
+  </si>
+  <si>
+    <t>rule12</t>
+  </si>
+  <si>
+    <t>^.*エラーが発生しました。.*$</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>rule13</t>
+  </si>
+  <si>
+    <t>ITA_NAME=action43,CONDUCTOR_CLASS_ID=2,SERVER_LIST=hostname1:hostname2</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
     <t xml:space="preserve">【ITAドライバー】
 ITA_NAMEはOASE画面のシステム-アクション設定-ITA_driverの名前と紐づけます。
-SYMPHONY_CLASS_IDはITA画面の基本コンソール-Symphonyクラス一覧のSymphonyクラスIDと紐づけます。
-CONDUCTOR_CLASS_IDはITA画面の基本コンソール-Conductorクラス一覧のConductorクラスIDと紐づけます。
+SYMPHONY_CLASS_IDはITA画面のメインメニュー→Symphony→Symphonyクラス一覧のSymphonyクラスIDと紐づけます。
+　※ITA1.4以下の場合は基本コンソールにSymphonyクラス一覧があります。
+CONDUCTOR_CLASS_IDはITA画面のメインメニュー→Conductor→Conductorクラス一覧のConductorクラスIDと紐づけます。
 OPERATION_IDはITA画面の基本コンソール-投入オペレーション一覧のオペレーションIDと紐づけます。
 SERVER_LISTは実行対象となるホスト名を記述します。ホスト名はITA画面の基本コンソール-機器一覧のホスト名と紐づけます。
 複数記載する場合はコロン(:)で区切って記述します。
@@ -1266,164 +1363,78 @@
     <rPh sb="54" eb="55">
       <t>ヒモ</t>
     </rPh>
-    <rPh sb="150" eb="152">
+    <rPh sb="145" eb="147">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="201" eb="203">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="153" eb="155">
+    <rPh sb="275" eb="277">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="278" eb="280">
       <t>キホン</t>
     </rPh>
-    <rPh sb="214" eb="216">
+    <rPh sb="420" eb="422">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="434" eb="435">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="443" eb="445">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="217" eb="219">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="359" eb="361">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="373" eb="374">
+    <rPh sb="446" eb="448">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="458" eb="460">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="462" eb="464">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="520" eb="521">
       <t>ヒモ</t>
     </rPh>
-    <rPh sb="382" eb="384">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="385" eb="387">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="397" eb="399">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="401" eb="403">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="459" eb="460">
+    <rPh sb="534" eb="536">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="548" eb="549">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="558" eb="560">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="562" eb="564">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="580" eb="582">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="591" eb="592">
       <t>ヒモ</t>
     </rPh>
-    <rPh sb="473" eb="475">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="487" eb="488">
-      <t>アワ</t>
-    </rPh>
-    <rPh sb="497" eb="499">
-      <t>クギ</t>
-    </rPh>
-    <rPh sb="501" eb="503">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="519" eb="521">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="530" eb="531">
-      <t>ヒモ</t>
-    </rPh>
-    <rPh sb="534" eb="536">
+    <rPh sb="595" eb="597">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="623" eb="625">
+    <rPh sb="684" eb="686">
       <t>ドウヨウ</t>
     </rPh>
-    <rPh sb="654" eb="656">
+    <rPh sb="715" eb="717">
       <t>セッテイ</t>
     </rPh>
-    <rPh sb="667" eb="669">
+    <rPh sb="728" eb="730">
       <t>シテイ</t>
     </rPh>
-    <rPh sb="670" eb="671">
+    <rPh sb="731" eb="732">
       <t>トキ</t>
     </rPh>
-    <rPh sb="672" eb="674">
+    <rPh sb="733" eb="735">
       <t>ヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t xml:space="preserve">NGパターン：
-1)ITA_NAME=action43,SYMPHONY_CLASS_ID=2,CONDUCTOR_CLASS_ID=3
-SYMPHONY_CLASS_IDとCONDUCTOR_CLASS_IDを同時に設定した場合エラーとなります。
-2)ITA_NAME=action43,SYMPHONY_CLASS_ID=2,OPERATION_ID=1,SERVER_LIST=hostname1:hostname2,MENU_ID=1
-3)ITA_NAME=action43,SYMPHONY_CLASS_ID=2,OPERATION_ID=1,SERVER_LIST=hostname1:hostname2
-4)ITA_NAME=action43,SYMPHONY_CLASS_ID=2,OPERATION_ID=1,MENU_ID=1
-5)ITA_NAME=action43,SYMPHONY_CLASS_ID=2,SERVER_LIST=hostname1:hostname2,MENU_ID=1
-OPERATION_ID,SERVER_LIST,MENU_IDを同時に設定した場合エラーとなります。
-6)ITA_NAME=action43,SYMPHONY_CLASS_ID=2,MENU_ID=1:2,CONVERT_FLG=TRUE
-MENU_IDを複数指定した場合はCONVERT_FLGをTUREに設定できません。
-</t>
-    <rPh sb="108" eb="110">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="493" eb="495">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="496" eb="498">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="500" eb="502">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="591" eb="593">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="593" eb="595">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="597" eb="599">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="617" eb="619">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>^.*エラーが発生しました。.*$</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>rule10</t>
-  </si>
-  <si>
-    <t>ITA_NAME=action43,SYMPHONY_CLASS_ID=2,OPERATION_ID=1</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>ITA_NAME=action43,CONDUCTOR_CLASS_ID=2,OPERATION_ID={{ VAR_test }}</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>ITA_NAME=action43,CONDUCTOR_CLASS_ID=2,OPERATION_ID=2</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>ITA_NAME=action43,CONDUCTOR_CLASS_ID=2,MENU_ID=1,CONVERT_FLG=TRUE</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>ITA_NAME=action43,CONDUCTOR_CLASS_ID=2,MENU_ID=1:2,CONVERT_FLG=FALSE</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>ITA_NAME=action43,SYMPHONY_CLASS_ID=2,OPERATION_ID={{ VAR_test }}</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>rule2</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>rule11</t>
-  </si>
-  <si>
-    <t>rule12</t>
-  </si>
-  <si>
-    <t>^.*エラーが発生しました。.*$</t>
     <phoneticPr fontId="14"/>
   </si>
 </sst>
@@ -2445,16 +2456,16 @@
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="9.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="9.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="38" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="38" customWidth="1"/>
-    <col min="3" max="17" width="9.109375" style="38" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" style="38" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="38"/>
+    <col min="1" max="1" width="3.5703125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="38" customWidth="1"/>
+    <col min="3" max="17" width="9.140625" style="38" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="38" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1" s="36"/>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
@@ -2518,7 +2529,7 @@
     <row r="6" spans="2:13" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="2:13" s="42" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" s="42" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="43"/>
       <c r="C7" s="44"/>
       <c r="D7" s="45"/>
@@ -2532,7 +2543,7 @@
       <c r="L7" s="46"/>
       <c r="M7" s="46"/>
     </row>
-    <row r="8" spans="2:13" s="10" customFormat="1" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" s="10" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B8" s="47"/>
       <c r="C8" s="48" t="s">
         <v>11</v>
@@ -2582,7 +2593,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="2:13" s="10" customFormat="1" ht="38.4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" s="10" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="B10" s="53"/>
       <c r="C10" s="54"/>
       <c r="D10" s="7" t="s">
@@ -2746,7 +2757,7 @@
       <c r="L18" s="58"/>
       <c r="M18" s="58"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" ht="10.5" x14ac:dyDescent="0.2">
       <c r="B19" s="61" t="s">
         <v>25</v>
       </c>
@@ -2780,26 +2791,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="103.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="103.5546875" customWidth="1"/>
-    <col min="8" max="11" width="2.88671875" customWidth="1"/>
+    <col min="6" max="6" width="103.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="103.5703125" customWidth="1"/>
+    <col min="8" max="11" width="2.85546875" customWidth="1"/>
     <col min="12" max="12" width="12" style="6"/>
     <col min="13" max="13" width="12" style="6" customWidth="1"/>
     <col min="14" max="16384" width="12" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="63" t="s">
         <v>47</v>
@@ -2838,7 +2849,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>30</v>
       </c>
@@ -2855,7 +2866,7 @@
         <v>49</v>
       </c>
       <c r="F3" s="66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" s="66" t="s">
         <v>33</v>
@@ -2877,7 +2888,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>30</v>
       </c>
@@ -2885,16 +2896,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>68</v>
       </c>
       <c r="F4" s="66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G4" s="66" t="s">
         <v>40</v>
@@ -2914,7 +2925,7 @@
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>30</v>
       </c>
@@ -2953,7 +2964,7 @@
       </c>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>30</v>
       </c>
@@ -2961,7 +2972,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>81</v>
@@ -2970,7 +2981,7 @@
         <v>49</v>
       </c>
       <c r="F6" s="66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G6" s="66" t="s">
         <v>40</v>
@@ -2990,7 +3001,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
         <v>30</v>
       </c>
@@ -2998,7 +3009,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>82</v>
@@ -3007,7 +3018,7 @@
         <v>68</v>
       </c>
       <c r="F7" s="66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7" s="66" t="s">
         <v>40</v>
@@ -3027,7 +3038,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
         <v>30</v>
       </c>
@@ -3035,7 +3046,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>83</v>
@@ -3044,7 +3055,7 @@
         <v>68</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="G8" s="66" t="s">
         <v>40</v>
@@ -3064,7 +3075,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
         <v>30</v>
       </c>
@@ -3081,7 +3092,7 @@
         <v>68</v>
       </c>
       <c r="F9" s="66" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G9" s="66" t="s">
         <v>40</v>
@@ -3101,7 +3112,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
         <v>30</v>
       </c>
@@ -3109,7 +3120,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>85</v>
@@ -3118,7 +3129,7 @@
         <v>68</v>
       </c>
       <c r="F10" s="66" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="G10" s="66" t="s">
         <v>40</v>
@@ -3138,7 +3149,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
         <v>30</v>
       </c>
@@ -3146,7 +3157,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>86</v>
@@ -3155,7 +3166,7 @@
         <v>68</v>
       </c>
       <c r="F11" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G11" s="66" t="s">
         <v>40</v>
@@ -3175,7 +3186,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
         <v>30</v>
       </c>
@@ -3183,16 +3194,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>68</v>
       </c>
       <c r="F12" s="66" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="G12" s="66" t="s">
         <v>40</v>
@@ -3212,7 +3223,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
         <v>30</v>
       </c>
@@ -3223,16 +3234,16 @@
         <v>31</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="F13" s="66" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="G13" s="66" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="H13" s="65">
         <v>1</v>
@@ -3241,17 +3252,15 @@
         <v>1</v>
       </c>
       <c r="J13" s="65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="65">
-        <v>1</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
         <v>30</v>
       </c>
@@ -3262,16 +3271,16 @@
         <v>31</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F14" s="66" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="G14" s="66" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="H14" s="65">
         <v>1</v>
@@ -3280,36 +3289,60 @@
         <v>1</v>
       </c>
       <c r="J14" s="65">
+        <v>1</v>
+      </c>
+      <c r="K14" s="65">
+        <v>1</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="67">
+        <v>13</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="65">
+        <v>1</v>
+      </c>
+      <c r="I15" s="65">
+        <v>1</v>
+      </c>
+      <c r="J15" s="65">
         <v>2</v>
       </c>
-      <c r="K14" s="65">
+      <c r="K15" s="65">
         <v>2</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L15" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="M15" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-    </row>
-    <row r="16" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="31"/>
-      <c r="B16" s="13"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="29"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -3322,99 +3355,114 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
-    </row>
-    <row r="18" spans="2:13" ht="90" x14ac:dyDescent="0.2">
-      <c r="B18" s="33" t="s">
+    <row r="17" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="31"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B18" s="14"/>
+    </row>
+    <row r="19" spans="1:13" ht="97.5" x14ac:dyDescent="0.2">
+      <c r="B19" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C19" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D19" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E19" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F19" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G19" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="72" t="s">
+      <c r="H19" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="35" t="s">
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="M18" s="35" t="s">
+      <c r="M19" s="35" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="144" x14ac:dyDescent="0.25">
-      <c r="C19" s="68" t="s">
+    <row r="20" spans="1:13" ht="175.5" x14ac:dyDescent="0.2">
+      <c r="C20" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="F20" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="34"/>
+    </row>
+    <row r="21" spans="1:13" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="F21" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="34"/>
-    </row>
-    <row r="20" spans="2:13" ht="153" x14ac:dyDescent="0.25">
-      <c r="F20" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" s="34"/>
-    </row>
-    <row r="21" spans="2:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="F21" s="34" t="s">
+      <c r="G21" s="34"/>
+    </row>
+    <row r="22" spans="1:13" ht="97.5" x14ac:dyDescent="0.2">
+      <c r="F22" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="34"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G22" s="34"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G23" s="34"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
     </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H19:K19"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E15:E16">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E16:E17">
       <formula1>"ITA,mail"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E3:E14">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E3:E15">
       <formula1>"ITA(ver1),mail(ver1)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3431,14 +3479,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3449,7 +3497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3460,7 +3508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3472,7 +3520,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>

--- a/oase-root/libs/commonlibs/template.xlsx
+++ b/oase-root/libs/commonlibs/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\000001A00A6P3\Desktop\mail\EPOCH\sprint10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\abkfs04.nsl.ad.nec.co.jp\a06006-01\40_Exastro_OASE\21_OASE(NEC-Operation-Autonomy-Support-Engine)_開発\050_結果\スプリント14\5647\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,12 +21,12 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_1">Tables!#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">Lists!$A$5:$A$7</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="107">
   <si>
     <t>RuleSet</t>
   </si>
@@ -1435,6 +1435,21 @@
     <rPh sb="733" eb="735">
       <t>ヒツヨウ</t>
     </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>rule14</t>
+  </si>
+  <si>
+    <t>ServiceNow(ver1)</t>
+  </si>
+  <si>
+    <t>SERVICENOW_NAME=ServiceNowTest</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>【ServiceNowドライバー】
+SERVICENOW_NAMEは必須です。OASE画面のシステム-アクション設定-ServiceNow_driverの名前と紐づけます。</t>
     <phoneticPr fontId="14"/>
   </si>
 </sst>
@@ -2793,7 +2808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3341,17 +3356,39 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="A16" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="67">
+        <v>14</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="65">
+        <v>1</v>
+      </c>
+      <c r="I16" s="65">
+        <v>1</v>
+      </c>
+      <c r="J16" s="65">
+        <v>0</v>
+      </c>
+      <c r="K16" s="65">
+        <v>0</v>
+      </c>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
@@ -3426,7 +3463,10 @@
       </c>
       <c r="G22" s="34"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="F23" s="34" t="s">
+        <v>106</v>
+      </c>
       <c r="G23" s="34"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -3458,12 +3498,15 @@
     <mergeCell ref="H19:K19"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
-  <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E16:E17">
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E17">
       <formula1>"ITA,mail"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E3:E15">
       <formula1>"ITA(ver1),mail(ver1)"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E16">
+      <formula1>"ITA(ver1),mail(ver1),ServiceNow(ver1)"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/oase-root/libs/commonlibs/template.xlsx
+++ b/oase-root/libs/commonlibs/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\abkfs04.nsl.ad.nec.co.jp\a06006-01\40_Exastro_OASE\21_OASE(NEC-Operation-Autonomy-Support-Engine)_開発\050_結果\スプリント14\5647\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ICF_AutoCapsule_disabled\MAS\OASE\GIT\oase\oase-root\libs\commonlibs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="138">
   <si>
     <t>RuleSet</t>
   </si>
@@ -623,10 +623,6 @@
   </si>
   <si>
     <t>ITA(ver1)</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>mail(ver1)</t>
     <phoneticPr fontId="14"/>
   </si>
   <si>
@@ -1452,12 +1448,357 @@
 SERVICENOW_NAMEは必須です。OASE画面のシステム-アクション設定-ServiceNow_driverの名前と紐づけます。</t>
     <phoneticPr fontId="14"/>
   </si>
+  <si>
+    <t>m.getActs().addCondCount("$param");</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.getActs().addCondTerm("$param");</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.getActs().addCondGroup1("$param");</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.getActs().addCondPriority1("$param");</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.getActs().addCondGroup2("$param");</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.getActs().addCondPriority2("$param");</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>大グループ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（必須）</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>だい</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>小グループ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（必須）</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>しょう</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>大グループ優先順位</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">（必須）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※「1」からの通番を定義して下さい。</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>だい</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ﾕｳｾﾝ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ｼﾞｭﾝｲ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>つうばん</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ていぎ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>くだ</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>小グループ優先順位</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">（必須）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※「1」からの通番を定義して下さい。</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>しょう</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ﾕｳｾﾝ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ｼﾞｭﾝｲ</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>アクション条件回数</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">（必須）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※「1」以上を定義して下さい。</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>ｼﾞｮｳｹﾝ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ｶｲｽｳ</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>アクション条件期間(秒)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">（必須）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※「1」以上を定義して下さい。</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>ｼﾞｮｳｹﾝ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ｷｶﾝ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ﾋﾞｮｳ</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>小グループ（必須）</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>条件回数（必須）</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>条件期間(秒)（必須）</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>優先順位（必須）</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>大グループ（必須）</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>rule15</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>group1</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>group10</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>rule16</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>ITA_NAME=action43,CONDUCTOR_CLASS_ID=2,OPERATION_ID=2</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>rule17</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>group20</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>例</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>rule18</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>ITA_NAME=action43,CONDUCTOR_CLASS_ID=10,OPERATION_ID=10</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>グルーピングしたいルールに対してグループ名を記述することができます。優先順位は1が最優先です。
+グルーピングしない場合は「X」を記述してください。</t>
+    <rPh sb="20" eb="21">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>大グループからさらにグルーピングすることができます。優先順位は1が最優先です。
+グルーピングしない場合は「X」を記述してください。</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ユウセン</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1591,6 +1932,19 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF0070C0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1647,7 +2001,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1826,11 +2180,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2071,8 +2514,65 @@
     <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2463,9 +2963,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M36"/>
+  <dimension ref="B1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight"/>
@@ -2475,12 +2975,12 @@
   <cols>
     <col min="1" max="1" width="3.5703125" style="38" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="38" customWidth="1"/>
-    <col min="3" max="17" width="9.140625" style="38" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="38" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="38"/>
+    <col min="3" max="23" width="9.140625" style="38" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="38" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1" s="36"/>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
@@ -2489,7 +2989,7 @@
       <c r="G1" s="37"/>
       <c r="H1" s="37"/>
     </row>
-    <row r="2" spans="2:13" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:19" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="39"/>
       <c r="C2" s="40" t="s">
         <v>0</v>
@@ -2502,7 +3002,7 @@
       <c r="I2" s="41"/>
       <c r="J2" s="41"/>
     </row>
-    <row r="3" spans="2:13" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:19" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="39"/>
       <c r="C3" s="40" t="s">
         <v>12</v>
@@ -2515,7 +3015,7 @@
       <c r="I3" s="41"/>
       <c r="J3" s="41"/>
     </row>
-    <row r="4" spans="2:13" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:19" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="39"/>
       <c r="C4" s="40" t="s">
         <v>13</v>
@@ -2528,7 +3028,7 @@
       <c r="I4" s="41"/>
       <c r="J4" s="41"/>
     </row>
-    <row r="5" spans="2:13" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:19" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="39"/>
       <c r="C5" s="40" t="s">
         <v>34</v>
@@ -2541,10 +3041,10 @@
       <c r="I5" s="41"/>
       <c r="J5" s="41"/>
     </row>
-    <row r="6" spans="2:13" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:19" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="2:13" s="42" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:19" s="42" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="43"/>
       <c r="C7" s="44"/>
       <c r="D7" s="45"/>
@@ -2557,8 +3057,14 @@
       <c r="K7" s="46"/>
       <c r="L7" s="46"/>
       <c r="M7" s="46"/>
-    </row>
-    <row r="8" spans="2:13" s="10" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+    </row>
+    <row r="8" spans="2:19" s="10" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B8" s="47"/>
       <c r="C8" s="48" t="s">
         <v>11</v>
@@ -2587,14 +3093,32 @@
       <c r="K8" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="P8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="S8" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="49"/>
       <c r="C9" s="50"/>
       <c r="D9" s="51"/>
@@ -2607,8 +3131,14 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="2:13" s="10" customFormat="1" ht="39" x14ac:dyDescent="0.2">
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+    </row>
+    <row r="10" spans="2:19" s="10" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="B10" s="53"/>
       <c r="C10" s="54"/>
       <c r="D10" s="7" t="s">
@@ -2635,12 +3165,30 @@
       <c r="K10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="2:13" s="56" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L10" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+    </row>
+    <row r="11" spans="2:19" s="56" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="55"/>
       <c r="D11" s="24" t="s">
@@ -2662,19 +3210,37 @@
         <v>27</v>
       </c>
       <c r="J11" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="K11" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="L11" s="22" t="s">
+      <c r="L11" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="N11" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="P11" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q11" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="R11" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="22" t="s">
+      <c r="S11" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:13" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:19" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11"/>
       <c r="C12" s="57"/>
       <c r="D12" s="5"/>
@@ -2685,10 +3251,16 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-    </row>
-    <row r="13" spans="2:13" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L12" s="72"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+    </row>
+    <row r="13" spans="2:19" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
       <c r="C13" s="57"/>
       <c r="D13" s="5"/>
@@ -2699,10 +3271,16 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-    </row>
-    <row r="14" spans="2:13" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L13" s="72"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+    </row>
+    <row r="14" spans="2:19" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="11"/>
       <c r="C14" s="57"/>
       <c r="D14" s="5"/>
@@ -2713,10 +3291,16 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-    </row>
-    <row r="15" spans="2:13" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L14" s="72"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+    </row>
+    <row r="15" spans="2:19" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="11"/>
       <c r="C15" s="57"/>
       <c r="D15" s="5"/>
@@ -2727,10 +3311,16 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-    </row>
-    <row r="16" spans="2:13" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L15" s="72"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+    </row>
+    <row r="16" spans="2:19" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
       <c r="C16" s="57"/>
       <c r="D16" s="5"/>
@@ -2741,10 +3331,16 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-    </row>
-    <row r="17" spans="2:13" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L16" s="72"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+    </row>
+    <row r="17" spans="2:19" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="11"/>
       <c r="C17" s="57"/>
       <c r="D17" s="5"/>
@@ -2755,10 +3351,16 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-    </row>
-    <row r="18" spans="2:13" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L17" s="72"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="58"/>
+    </row>
+    <row r="18" spans="2:19" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="11"/>
       <c r="C18" s="57"/>
       <c r="D18" s="5"/>
@@ -2769,15 +3371,21 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-    </row>
-    <row r="19" spans="2:13" ht="10.5" x14ac:dyDescent="0.2">
+      <c r="L18" s="72"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
+    </row>
+    <row r="19" spans="2:19" ht="10.5" x14ac:dyDescent="0.2">
       <c r="B19" s="61" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="61"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
@@ -2806,7 +3414,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
@@ -2819,19 +3427,23 @@
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="103.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="103.5703125" customWidth="1"/>
-    <col min="8" max="11" width="2.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12" style="6"/>
-    <col min="13" max="13" width="12" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="12" style="6"/>
+    <col min="8" max="13" width="2.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="2.85546875" customWidth="1"/>
+    <col min="16" max="16" width="14" customWidth="1"/>
+    <col min="17" max="17" width="2.85546875" customWidth="1"/>
+    <col min="18" max="18" width="12" style="6"/>
+    <col min="19" max="19" width="12" style="6" customWidth="1"/>
+    <col min="20" max="16384" width="12" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="63" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>43</v>
@@ -2846,25 +3458,43 @@
         <v>39</v>
       </c>
       <c r="H2" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="69" t="s">
-        <v>80</v>
-      </c>
       <c r="J2" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2" s="64" t="s">
+      <c r="L2" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="M2" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="O2" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q2" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="R2" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="64" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>30</v>
       </c>
@@ -2881,7 +3511,7 @@
         <v>49</v>
       </c>
       <c r="F3" s="66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G3" s="66" t="s">
         <v>33</v>
@@ -2898,12 +3528,30 @@
       <c r="K3" s="65">
         <v>0</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L3" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="M3" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O3" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q3" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>30</v>
       </c>
@@ -2911,16 +3559,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F4" s="66" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G4" s="66" t="s">
         <v>40</v>
@@ -2937,10 +3585,28 @@
       <c r="K4" s="65">
         <v>0</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L4" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="M4" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O4" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q4" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+    </row>
+    <row r="5" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>30</v>
       </c>
@@ -2951,13 +3617,13 @@
         <v>31</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F5" s="66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" s="66" t="s">
         <v>40</v>
@@ -2974,12 +3640,30 @@
       <c r="K5" s="65">
         <v>0</v>
       </c>
-      <c r="L5" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L5" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="M5" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O5" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q5" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="S5" s="12"/>
+    </row>
+    <row r="6" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>30</v>
       </c>
@@ -2987,16 +3671,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G6" s="66" t="s">
         <v>40</v>
@@ -3013,10 +3697,28 @@
       <c r="K6" s="65">
         <v>0</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L6" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="M6" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O6" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q6" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+    </row>
+    <row r="7" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
         <v>30</v>
       </c>
@@ -3024,16 +3726,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F7" s="66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G7" s="66" t="s">
         <v>40</v>
@@ -3050,10 +3752,28 @@
       <c r="K7" s="65">
         <v>0</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L7" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="M7" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O7" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q7" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+    </row>
+    <row r="8" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
         <v>30</v>
       </c>
@@ -3061,16 +3781,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G8" s="66" t="s">
         <v>40</v>
@@ -3087,10 +3807,28 @@
       <c r="K8" s="65">
         <v>0</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L8" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="M8" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O8" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q8" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+    </row>
+    <row r="9" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
         <v>30</v>
       </c>
@@ -3101,13 +3839,13 @@
         <v>31</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="66" t="s">
         <v>68</v>
-      </c>
-      <c r="F9" s="66" t="s">
-        <v>69</v>
       </c>
       <c r="G9" s="66" t="s">
         <v>40</v>
@@ -3124,10 +3862,28 @@
       <c r="K9" s="65">
         <v>0</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L9" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="M9" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O9" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q9" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+    </row>
+    <row r="10" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
         <v>30</v>
       </c>
@@ -3138,13 +3894,13 @@
         <v>31</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F10" s="66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="66" t="s">
         <v>40</v>
@@ -3161,10 +3917,28 @@
       <c r="K10" s="65">
         <v>0</v>
       </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L10" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O10" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q10" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+    </row>
+    <row r="11" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
         <v>30</v>
       </c>
@@ -3172,16 +3946,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F11" s="66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G11" s="66" t="s">
         <v>40</v>
@@ -3198,10 +3972,28 @@
       <c r="K11" s="65">
         <v>0</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-    </row>
-    <row r="12" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L11" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O11" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q11" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+    </row>
+    <row r="12" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
         <v>30</v>
       </c>
@@ -3209,16 +4001,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F12" s="66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G12" s="66" t="s">
         <v>40</v>
@@ -3235,10 +4027,28 @@
       <c r="K12" s="65">
         <v>0</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-    </row>
-    <row r="13" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L12" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q12" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+    </row>
+    <row r="13" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
         <v>30</v>
       </c>
@@ -3249,13 +4059,13 @@
         <v>31</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F13" s="66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G13" s="66" t="s">
         <v>40</v>
@@ -3272,10 +4082,28 @@
       <c r="K13" s="65">
         <v>0</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-    </row>
-    <row r="14" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L13" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O13" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q13" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+    </row>
+    <row r="14" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
         <v>30</v>
       </c>
@@ -3286,16 +4114,16 @@
         <v>31</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F14" s="66" t="s">
         <v>33</v>
       </c>
       <c r="G14" s="66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H14" s="65">
         <v>1</v>
@@ -3309,12 +4137,30 @@
       <c r="K14" s="65">
         <v>1</v>
       </c>
-      <c r="L14" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="M14" s="12"/>
-    </row>
-    <row r="15" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L14" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="M14" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O14" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q14" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="S14" s="12"/>
+    </row>
+    <row r="15" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
         <v>30</v>
       </c>
@@ -3325,13 +4171,13 @@
         <v>31</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="66" t="s">
         <v>40</v>
@@ -3348,14 +4194,32 @@
       <c r="K15" s="65">
         <v>2</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="L15" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="M15" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O15" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q15" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="S15" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="M15" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
         <v>30</v>
       </c>
@@ -3366,13 +4230,13 @@
         <v>31</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="66" t="s">
         <v>104</v>
-      </c>
-      <c r="F16" s="66" t="s">
-        <v>105</v>
       </c>
       <c r="G16" s="66" t="s">
         <v>40</v>
@@ -3389,128 +4253,385 @@
       <c r="K16" s="65">
         <v>0</v>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-    </row>
-    <row r="17" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B18" s="14"/>
-    </row>
-    <row r="19" spans="1:13" ht="97.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="33" t="s">
+      <c r="L16" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="M16" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O16" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q16" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+    </row>
+    <row r="17" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="86">
+        <v>15</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" s="65">
+        <v>1</v>
+      </c>
+      <c r="I17" s="65">
+        <v>1</v>
+      </c>
+      <c r="J17" s="65">
+        <v>0</v>
+      </c>
+      <c r="K17" s="65">
+        <v>0</v>
+      </c>
+      <c r="L17" s="83">
+        <v>3</v>
+      </c>
+      <c r="M17" s="78">
+        <v>300</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="O17" s="83">
+        <v>1</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q17" s="83">
+        <v>1</v>
+      </c>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+    </row>
+    <row r="18" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="86">
+        <v>16</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="65">
+        <v>1</v>
+      </c>
+      <c r="I18" s="65">
+        <v>1</v>
+      </c>
+      <c r="J18" s="65">
+        <v>0</v>
+      </c>
+      <c r="K18" s="65">
+        <v>0</v>
+      </c>
+      <c r="L18" s="83">
+        <v>3</v>
+      </c>
+      <c r="M18" s="78">
+        <v>300</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="O18" s="83">
+        <v>2</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q18" s="83">
+        <v>2</v>
+      </c>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+    </row>
+    <row r="19" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="86">
+        <v>17</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" s="65">
+        <v>1</v>
+      </c>
+      <c r="I19" s="65">
+        <v>1</v>
+      </c>
+      <c r="J19" s="65">
+        <v>0</v>
+      </c>
+      <c r="K19" s="65">
+        <v>0</v>
+      </c>
+      <c r="L19" s="83">
+        <v>1</v>
+      </c>
+      <c r="M19" s="78">
+        <v>600</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="O19" s="83">
+        <v>3</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q19" s="83">
+        <v>1</v>
+      </c>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+    </row>
+    <row r="20" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="85">
+        <v>18</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="65">
+        <v>1</v>
+      </c>
+      <c r="I20" s="65">
+        <v>1</v>
+      </c>
+      <c r="J20" s="65">
+        <v>0</v>
+      </c>
+      <c r="K20" s="65">
+        <v>0</v>
+      </c>
+      <c r="L20" s="83">
+        <v>1</v>
+      </c>
+      <c r="M20" s="78">
+        <v>600</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="O20" s="83">
+        <v>4</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q20" s="83">
+        <v>2</v>
+      </c>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+    </row>
+    <row r="21" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="31"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B22" s="14"/>
+    </row>
+    <row r="23" spans="1:19" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="33" t="s">
+      <c r="C23" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E23" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" s="72" t="s">
+      <c r="F23" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="S23" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="175.5" x14ac:dyDescent="0.2">
+      <c r="C24" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="M19" s="35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="175.5" x14ac:dyDescent="0.2">
-      <c r="C20" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="34"/>
-    </row>
-    <row r="21" spans="1:13" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="F21" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="34"/>
-    </row>
-    <row r="22" spans="1:13" ht="97.5" x14ac:dyDescent="0.2">
-      <c r="F22" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="34"/>
-    </row>
-    <row r="23" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="F23" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="34"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F24" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="34"/>
+    </row>
+    <row r="25" spans="1:19" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="F25" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="34"/>
+    </row>
+    <row r="26" spans="1:19" ht="97.5" x14ac:dyDescent="0.2">
+      <c r="F26" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="34"/>
+    </row>
+    <row r="27" spans="1:19" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="F27" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="34"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
     </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H19:K19"/>
+  <dataConsolidate/>
+  <mergeCells count="3">
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
-  <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E17">
+  <dataValidations disablePrompts="1" count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E21">
       <formula1>"ITA,mail"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E3:E15">
-      <formula1>"ITA(ver1),mail(ver1)"</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E18 E20">
+      <formula1>"ITA(ver1),mail(ver1),ServiceNow(ver1)"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E16">
-      <formula1>"ITA(ver1),mail(ver1),ServiceNow(ver1)"</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E3:E17 E19">
+      <formula1>"なし,ITA(ver1),mail(ver1),ServiceNow(ver1)"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/oase-root/libs/commonlibs/template.xlsx
+++ b/oase-root/libs/commonlibs/template.xlsx
@@ -2,12 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ICF_AutoCapsule_disabled\MAS\OASE\GIT\oase\oase-root\libs\commonlibs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22200" windowHeight="8670" tabRatio="601"/>
   </bookViews>
@@ -2548,9 +2543,6 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2570,6 +2562,9 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2965,7 +2960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight"/>
@@ -3528,22 +3523,22 @@
       <c r="K3" s="65">
         <v>0</v>
       </c>
-      <c r="L3" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="M3" s="82" t="s">
+      <c r="L3" s="81" t="s">
+        <v>119</v>
+      </c>
+      <c r="M3" s="81" t="s">
         <v>119</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="O3" s="82" t="s">
+      <c r="O3" s="81" t="s">
         <v>119</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="Q3" s="82" t="s">
+      <c r="Q3" s="81" t="s">
         <v>119</v>
       </c>
       <c r="R3" s="12"/>
@@ -3585,22 +3580,22 @@
       <c r="K4" s="65">
         <v>0</v>
       </c>
-      <c r="L4" s="83" t="s">
-        <v>119</v>
-      </c>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="M4" s="81" t="s">
         <v>119</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="82" t="s">
         <v>119</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="82" t="s">
         <v>119</v>
       </c>
       <c r="R4" s="12"/>
@@ -3640,22 +3635,22 @@
       <c r="K5" s="65">
         <v>0</v>
       </c>
-      <c r="L5" s="83" t="s">
-        <v>119</v>
-      </c>
-      <c r="M5" s="82" t="s">
+      <c r="L5" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="M5" s="81" t="s">
         <v>119</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="O5" s="83" t="s">
+      <c r="O5" s="82" t="s">
         <v>119</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="Q5" s="83" t="s">
+      <c r="Q5" s="82" t="s">
         <v>119</v>
       </c>
       <c r="R5" s="12" t="s">
@@ -3697,22 +3692,22 @@
       <c r="K6" s="65">
         <v>0</v>
       </c>
-      <c r="L6" s="83" t="s">
-        <v>119</v>
-      </c>
-      <c r="M6" s="82" t="s">
+      <c r="L6" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="M6" s="81" t="s">
         <v>119</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="O6" s="83" t="s">
+      <c r="O6" s="82" t="s">
         <v>119</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="Q6" s="83" t="s">
+      <c r="Q6" s="82" t="s">
         <v>119</v>
       </c>
       <c r="R6" s="12"/>
@@ -3752,22 +3747,22 @@
       <c r="K7" s="65">
         <v>0</v>
       </c>
-      <c r="L7" s="83" t="s">
-        <v>119</v>
-      </c>
-      <c r="M7" s="82" t="s">
+      <c r="L7" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="M7" s="81" t="s">
         <v>119</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="O7" s="83" t="s">
+      <c r="O7" s="82" t="s">
         <v>119</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="Q7" s="83" t="s">
+      <c r="Q7" s="82" t="s">
         <v>119</v>
       </c>
       <c r="R7" s="12"/>
@@ -3807,22 +3802,22 @@
       <c r="K8" s="65">
         <v>0</v>
       </c>
-      <c r="L8" s="83" t="s">
-        <v>119</v>
-      </c>
-      <c r="M8" s="82" t="s">
+      <c r="L8" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="M8" s="81" t="s">
         <v>119</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="O8" s="83" t="s">
+      <c r="O8" s="82" t="s">
         <v>119</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="Q8" s="83" t="s">
+      <c r="Q8" s="82" t="s">
         <v>119</v>
       </c>
       <c r="R8" s="12"/>
@@ -3862,22 +3857,22 @@
       <c r="K9" s="65">
         <v>0</v>
       </c>
-      <c r="L9" s="83" t="s">
-        <v>119</v>
-      </c>
-      <c r="M9" s="82" t="s">
+      <c r="L9" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="M9" s="81" t="s">
         <v>119</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="O9" s="83" t="s">
+      <c r="O9" s="82" t="s">
         <v>119</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="Q9" s="83" t="s">
+      <c r="Q9" s="82" t="s">
         <v>119</v>
       </c>
       <c r="R9" s="12"/>
@@ -3917,22 +3912,22 @@
       <c r="K10" s="65">
         <v>0</v>
       </c>
-      <c r="L10" s="83" t="s">
-        <v>119</v>
-      </c>
-      <c r="M10" s="82" t="s">
+      <c r="L10" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" s="81" t="s">
         <v>119</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="O10" s="83" t="s">
+      <c r="O10" s="82" t="s">
         <v>119</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="Q10" s="83" t="s">
+      <c r="Q10" s="82" t="s">
         <v>119</v>
       </c>
       <c r="R10" s="12"/>
@@ -3972,22 +3967,22 @@
       <c r="K11" s="65">
         <v>0</v>
       </c>
-      <c r="L11" s="83" t="s">
-        <v>119</v>
-      </c>
-      <c r="M11" s="82" t="s">
+      <c r="L11" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" s="81" t="s">
         <v>119</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="O11" s="83" t="s">
+      <c r="O11" s="82" t="s">
         <v>119</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="Q11" s="83" t="s">
+      <c r="Q11" s="82" t="s">
         <v>119</v>
       </c>
       <c r="R11" s="12"/>
@@ -4027,22 +4022,22 @@
       <c r="K12" s="65">
         <v>0</v>
       </c>
-      <c r="L12" s="83" t="s">
-        <v>119</v>
-      </c>
-      <c r="M12" s="82" t="s">
+      <c r="L12" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" s="81" t="s">
         <v>119</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="O12" s="83" t="s">
+      <c r="O12" s="82" t="s">
         <v>119</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="Q12" s="83" t="s">
+      <c r="Q12" s="82" t="s">
         <v>119</v>
       </c>
       <c r="R12" s="12"/>
@@ -4082,22 +4077,22 @@
       <c r="K13" s="65">
         <v>0</v>
       </c>
-      <c r="L13" s="83" t="s">
-        <v>119</v>
-      </c>
-      <c r="M13" s="82" t="s">
+      <c r="L13" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" s="81" t="s">
         <v>119</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="O13" s="83" t="s">
+      <c r="O13" s="82" t="s">
         <v>119</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="Q13" s="83" t="s">
+      <c r="Q13" s="82" t="s">
         <v>119</v>
       </c>
       <c r="R13" s="12"/>
@@ -4137,22 +4132,22 @@
       <c r="K14" s="65">
         <v>1</v>
       </c>
-      <c r="L14" s="83" t="s">
-        <v>119</v>
-      </c>
-      <c r="M14" s="82" t="s">
+      <c r="L14" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="M14" s="81" t="s">
         <v>119</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="O14" s="83" t="s">
+      <c r="O14" s="82" t="s">
         <v>119</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="Q14" s="83" t="s">
+      <c r="Q14" s="82" t="s">
         <v>119</v>
       </c>
       <c r="R14" s="12" t="s">
@@ -4194,22 +4189,22 @@
       <c r="K15" s="65">
         <v>2</v>
       </c>
-      <c r="L15" s="83" t="s">
-        <v>119</v>
-      </c>
-      <c r="M15" s="82" t="s">
+      <c r="L15" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="M15" s="81" t="s">
         <v>119</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="O15" s="83" t="s">
+      <c r="O15" s="82" t="s">
         <v>119</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="Q15" s="83" t="s">
+      <c r="Q15" s="82" t="s">
         <v>119</v>
       </c>
       <c r="R15" s="12" t="s">
@@ -4253,22 +4248,22 @@
       <c r="K16" s="65">
         <v>0</v>
       </c>
-      <c r="L16" s="83" t="s">
-        <v>119</v>
-      </c>
-      <c r="M16" s="82" t="s">
+      <c r="L16" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="M16" s="81" t="s">
         <v>119</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="O16" s="83" t="s">
+      <c r="O16" s="82" t="s">
         <v>119</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="Q16" s="83" t="s">
+      <c r="Q16" s="82" t="s">
         <v>119</v>
       </c>
       <c r="R16" s="12"/>
@@ -4278,7 +4273,7 @@
       <c r="A17" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="86">
+      <c r="B17" s="85">
         <v>15</v>
       </c>
       <c r="C17" s="30" t="s">
@@ -4308,7 +4303,7 @@
       <c r="K17" s="65">
         <v>0</v>
       </c>
-      <c r="L17" s="83">
+      <c r="L17" s="82">
         <v>3</v>
       </c>
       <c r="M17" s="78">
@@ -4317,13 +4312,13 @@
       <c r="N17" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="O17" s="83">
+      <c r="O17" s="82">
         <v>1</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="Q17" s="83">
+      <c r="Q17" s="82">
         <v>1</v>
       </c>
       <c r="R17" s="12"/>
@@ -4333,7 +4328,7 @@
       <c r="A18" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="86">
+      <c r="B18" s="85">
         <v>16</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -4363,7 +4358,7 @@
       <c r="K18" s="65">
         <v>0</v>
       </c>
-      <c r="L18" s="83">
+      <c r="L18" s="82">
         <v>3</v>
       </c>
       <c r="M18" s="78">
@@ -4372,13 +4367,13 @@
       <c r="N18" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="O18" s="83">
+      <c r="O18" s="82">
         <v>2</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="Q18" s="83">
+      <c r="Q18" s="82">
         <v>2</v>
       </c>
       <c r="R18" s="12"/>
@@ -4388,7 +4383,7 @@
       <c r="A19" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="86">
+      <c r="B19" s="85">
         <v>17</v>
       </c>
       <c r="C19" s="30" t="s">
@@ -4418,7 +4413,7 @@
       <c r="K19" s="65">
         <v>0</v>
       </c>
-      <c r="L19" s="83">
+      <c r="L19" s="82">
         <v>1</v>
       </c>
       <c r="M19" s="78">
@@ -4427,13 +4422,13 @@
       <c r="N19" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="O19" s="83">
+      <c r="O19" s="82">
         <v>3</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="Q19" s="83">
+      <c r="Q19" s="82">
         <v>1</v>
       </c>
       <c r="R19" s="12"/>
@@ -4443,7 +4438,7 @@
       <c r="A20" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="85">
+      <c r="B20" s="84">
         <v>18</v>
       </c>
       <c r="C20" s="30" t="s">
@@ -4473,7 +4468,7 @@
       <c r="K20" s="65">
         <v>0</v>
       </c>
-      <c r="L20" s="83">
+      <c r="L20" s="82">
         <v>1</v>
       </c>
       <c r="M20" s="78">
@@ -4482,13 +4477,13 @@
       <c r="N20" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="O20" s="83">
+      <c r="O20" s="82">
         <v>4</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="Q20" s="83">
+      <c r="Q20" s="82">
         <v>2</v>
       </c>
       <c r="R20" s="12"/>
@@ -4506,12 +4501,12 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="84"/>
+      <c r="L21" s="83"/>
       <c r="M21" s="79"/>
       <c r="N21" s="4"/>
-      <c r="O21" s="84"/>
+      <c r="O21" s="83"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="84"/>
+      <c r="Q21" s="83"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
     </row>
@@ -4537,14 +4532,14 @@
       <c r="G23" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="H23" s="81" t="s">
+      <c r="H23" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
       <c r="N23" s="87" t="s">
         <v>136</v>
       </c>

--- a/oase-root/libs/commonlibs/template.xlsx
+++ b/oase-root/libs/commonlibs/template.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="134">
   <si>
     <t>RuleSet</t>
   </si>
@@ -1014,10 +1014,6 @@
       <t>Define serial number from "1"</t>
     </r>
     <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>The maximum number of rules that can be written is XXX.</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2896,7 +2892,7 @@
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B12" sqref="B12"/>
+      <selection pane="topRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="9.75" x14ac:dyDescent="0.2"/>
@@ -3141,7 +3137,7 @@
         <v>91</v>
       </c>
       <c r="K11" s="76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L11" s="76" t="s">
         <v>92</v>
@@ -3314,9 +3310,7 @@
       </c>
     </row>
     <row r="20" spans="2:19" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="72" t="s">
-        <v>98</v>
-      </c>
+      <c r="B20" s="72"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="53"/>
@@ -3372,52 +3366,52 @@
     <row r="1" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>103</v>
-      </c>
       <c r="F2" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="H2" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="73" t="s">
+      <c r="I2" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="73" t="s">
+      <c r="J2" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="K2" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="76" t="s">
+      <c r="L2" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="76" t="s">
+      <c r="M2" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="M2" s="76" t="s">
+      <c r="N2" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="N2" s="76" t="s">
+      <c r="O2" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="O2" s="76" t="s">
+      <c r="P2" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="P2" s="76" t="s">
+      <c r="Q2" s="76" t="s">
         <v>116</v>
-      </c>
-      <c r="Q2" s="76" t="s">
-        <v>117</v>
       </c>
       <c r="R2" s="77" t="s">
         <v>82</v>
@@ -3428,13 +3422,13 @@
     </row>
     <row r="3" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="58">
         <v>1</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>23</v>
@@ -3485,13 +3479,13 @@
     </row>
     <row r="4" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="58">
         <v>2</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>56</v>
@@ -3540,13 +3534,13 @@
     </row>
     <row r="5" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="58">
         <v>3</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>37</v>
@@ -3597,13 +3591,13 @@
     </row>
     <row r="6" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="58">
         <v>4</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>43</v>
@@ -3652,13 +3646,13 @@
     </row>
     <row r="7" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="58">
         <v>5</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>44</v>
@@ -3707,13 +3701,13 @@
     </row>
     <row r="8" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" s="58">
         <v>6</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>45</v>
@@ -3762,13 +3756,13 @@
     </row>
     <row r="9" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" s="58">
         <v>7</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>46</v>
@@ -3817,13 +3811,13 @@
     </row>
     <row r="10" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" s="58">
         <v>8</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>47</v>
@@ -3872,13 +3866,13 @@
     </row>
     <row r="11" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" s="58">
         <v>9</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>48</v>
@@ -3927,13 +3921,13 @@
     </row>
     <row r="12" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" s="58">
         <v>10</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>49</v>
@@ -3982,13 +3976,13 @@
     </row>
     <row r="13" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="58">
         <v>11</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>57</v>
@@ -4037,13 +4031,13 @@
     </row>
     <row r="14" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="58">
         <v>12</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>58</v>
@@ -4094,13 +4088,13 @@
     </row>
     <row r="15" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" s="58">
         <v>13</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>59</v>
@@ -4153,13 +4147,13 @@
     </row>
     <row r="16" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="58">
         <v>14</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>61</v>
@@ -4208,19 +4202,19 @@
     </row>
     <row r="17" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B17" s="70">
         <v>15</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E17" s="78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F17" s="57" t="s">
         <v>71</v>
@@ -4263,13 +4257,13 @@
     </row>
     <row r="18" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B18" s="70">
         <v>16</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>75</v>
@@ -4318,19 +4312,19 @@
     </row>
     <row r="19" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" s="70">
         <v>17</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F19" s="57" t="s">
         <v>71</v>
@@ -4373,13 +4367,13 @@
     </row>
     <row r="20" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="69">
         <v>18</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>79</v>
@@ -4428,7 +4422,7 @@
     </row>
     <row r="21" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="23"/>
@@ -4454,25 +4448,25 @@
     </row>
     <row r="23" spans="1:19" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="D23" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="71" t="s">
+      <c r="E23" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="E23" s="71" t="s">
+      <c r="F23" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="G23" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23" s="80" t="s">
         <v>123</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="H23" s="80" t="s">
-        <v>124</v>
       </c>
       <c r="I23" s="80"/>
       <c r="J23" s="80"/>
@@ -4480,44 +4474,44 @@
       <c r="L23" s="80"/>
       <c r="M23" s="80"/>
       <c r="N23" s="81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O23" s="81"/>
       <c r="P23" s="81" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q23" s="81"/>
       <c r="R23" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S23" s="71" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="175.5" x14ac:dyDescent="0.2">
       <c r="C24" s="79" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G24" s="27"/>
     </row>
     <row r="25" spans="1:19" ht="165.75" x14ac:dyDescent="0.2">
       <c r="F25" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G25" s="27"/>
     </row>
     <row r="26" spans="1:19" ht="87.75" x14ac:dyDescent="0.2">
       <c r="F26" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G26" s="27"/>
     </row>
     <row r="27" spans="1:19" ht="19.5" x14ac:dyDescent="0.2">
       <c r="F27" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G27" s="27"/>
     </row>

--- a/oase-root/libs/commonlibs/template.xlsx
+++ b/oase-root/libs/commonlibs/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="7170" tabRatio="601"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="7176" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="139">
   <si>
     <t>RuleSet</t>
   </si>
@@ -1722,6 +1722,114 @@
     <t>[ServiceNow Driver]
 SERVICE_NAME is required. It is linked to the ServiceNow_driver name in the OASE System screen -&gt;Action settings.</t>
     <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>m.getActs().addPostInfo("$param");</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アクション実行後パラメータ情報（必須）
+※ダブルクオーテーションは使用不可
+※不要の場合は「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」を定義</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>【ServiceNowドライバー】
+SERVICENOW_NAMEは必須です。OASE画面のシステム-アクション設定-ServiceNow_driverの名前と紐づけます。</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アクション実行後パラメータ情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（必須）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※ダブルクオーテーションは使用不可
+※不要の場合は「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」を定義</t>
+    </r>
+    <rPh sb="7" eb="8">
+      <t>ご</t>
+    </rPh>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2887,24 +2995,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S36"/>
+  <dimension ref="B1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B13" sqref="B13"/>
+      <selection pane="topRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="9.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="9.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="31" customWidth="1"/>
-    <col min="3" max="23" width="9.140625" style="31" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="31" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="31"/>
+    <col min="1" max="1" width="3.5546875" style="31" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="31" customWidth="1"/>
+    <col min="3" max="24" width="9.109375" style="31" customWidth="1"/>
+    <col min="25" max="25" width="11.6640625" style="31" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1" s="29"/>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -2912,8 +3020,9 @@
       <c r="F1" s="30"/>
       <c r="G1" s="30"/>
       <c r="H1" s="30"/>
-    </row>
-    <row r="2" spans="2:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="30"/>
+    </row>
+    <row r="2" spans="2:20" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="32"/>
       <c r="C2" s="33" t="s">
         <v>0</v>
@@ -2925,8 +3034,9 @@
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
       <c r="J2" s="34"/>
-    </row>
-    <row r="3" spans="2:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="34"/>
+    </row>
+    <row r="3" spans="2:20" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="32"/>
       <c r="C3" s="33" t="s">
         <v>12</v>
@@ -2938,8 +3048,9 @@
       <c r="H3" s="34"/>
       <c r="I3" s="34"/>
       <c r="J3" s="34"/>
-    </row>
-    <row r="4" spans="2:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="34"/>
+    </row>
+    <row r="4" spans="2:20" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="32"/>
       <c r="C4" s="33" t="s">
         <v>13</v>
@@ -2951,8 +3062,9 @@
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
-    </row>
-    <row r="5" spans="2:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K4" s="34"/>
+    </row>
+    <row r="5" spans="2:20" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="32"/>
       <c r="C5" s="33" t="s">
         <v>25</v>
@@ -2964,11 +3076,12 @@
       <c r="H5" s="34"/>
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
-    </row>
-    <row r="6" spans="2:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="34"/>
+    </row>
+    <row r="6" spans="2:20" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="2:19" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" s="35" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B7" s="36"/>
       <c r="C7" s="37"/>
       <c r="D7" s="38"/>
@@ -2987,8 +3100,9 @@
       <c r="Q7" s="39"/>
       <c r="R7" s="39"/>
       <c r="S7" s="39"/>
-    </row>
-    <row r="8" spans="2:19" s="10" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="T7" s="39"/>
+    </row>
+    <row r="8" spans="2:20" s="10" customFormat="1" ht="19.2" x14ac:dyDescent="0.2">
       <c r="B8" s="40"/>
       <c r="C8" s="41" t="s">
         <v>11</v>
@@ -3011,10 +3125,10 @@
       <c r="I8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="17" t="s">
+      <c r="J8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="16" t="s">
         <v>1</v>
       </c>
       <c r="L8" s="17" t="s">
@@ -3027,22 +3141,25 @@
         <v>1</v>
       </c>
       <c r="O8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="P8" s="17" t="s">
-        <v>1</v>
-      </c>
       <c r="Q8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="R8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="R8" s="9" t="s">
+      <c r="S8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="S8" s="9" t="s">
+      <c r="T8" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="42"/>
       <c r="C9" s="43"/>
       <c r="D9" s="44"/>
@@ -3051,8 +3168,8 @@
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="9"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="45"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -3061,8 +3178,9 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
-    </row>
-    <row r="10" spans="2:19" s="10" customFormat="1" ht="39" x14ac:dyDescent="0.2">
+      <c r="T9" s="9"/>
+    </row>
+    <row r="10" spans="2:20" s="10" customFormat="1" ht="38.4" x14ac:dyDescent="0.2">
       <c r="B10" s="46"/>
       <c r="C10" s="47"/>
       <c r="D10" s="7" t="s">
@@ -3078,39 +3196,42 @@
         <v>27</v>
       </c>
       <c r="H10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="K10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="L10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="M10" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="N10" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="O10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="P10" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="Q10" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="Q10" s="9" t="s">
+      <c r="R10" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="R10" s="9"/>
       <c r="S10" s="9"/>
-    </row>
-    <row r="11" spans="2:19" s="49" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T10" s="9"/>
+    </row>
+    <row r="11" spans="2:20" s="49" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="54" t="s">
         <v>81</v>
       </c>
@@ -3128,43 +3249,46 @@
         <v>85</v>
       </c>
       <c r="H11" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="73" t="s">
+      <c r="J11" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="J11" s="75" t="s">
+      <c r="K11" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="K11" s="76" t="s">
+      <c r="L11" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="L11" s="76" t="s">
+      <c r="M11" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="M11" s="76" t="s">
+      <c r="N11" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="N11" s="76" t="s">
+      <c r="O11" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="O11" s="76" t="s">
+      <c r="P11" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="P11" s="76" t="s">
+      <c r="Q11" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="Q11" s="76" t="s">
+      <c r="R11" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="R11" s="77" t="s">
+      <c r="S11" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="S11" s="77" t="s">
+      <c r="T11" s="77" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="2:19" s="52" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11"/>
       <c r="C12" s="50"/>
       <c r="D12" s="5"/>
@@ -3175,16 +3299,17 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="60"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="59"/>
       <c r="N12" s="60"/>
       <c r="O12" s="60"/>
       <c r="P12" s="60"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="51"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="62"/>
       <c r="S12" s="51"/>
-    </row>
-    <row r="13" spans="2:19" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T12" s="51"/>
+    </row>
+    <row r="13" spans="2:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
       <c r="C13" s="50"/>
       <c r="D13" s="5"/>
@@ -3195,16 +3320,17 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="61"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="59"/>
       <c r="N13" s="61"/>
       <c r="O13" s="61"/>
       <c r="P13" s="61"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="51"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="63"/>
       <c r="S13" s="51"/>
-    </row>
-    <row r="14" spans="2:19" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T13" s="51"/>
+    </row>
+    <row r="14" spans="2:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="11"/>
       <c r="C14" s="50"/>
       <c r="D14" s="5"/>
@@ -3215,16 +3341,17 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="61"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="59"/>
       <c r="N14" s="61"/>
       <c r="O14" s="61"/>
       <c r="P14" s="61"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="51"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="63"/>
       <c r="S14" s="51"/>
-    </row>
-    <row r="15" spans="2:19" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T14" s="51"/>
+    </row>
+    <row r="15" spans="2:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="11"/>
       <c r="C15" s="50"/>
       <c r="D15" s="5"/>
@@ -3235,16 +3362,17 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="61"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="59"/>
       <c r="N15" s="61"/>
       <c r="O15" s="61"/>
       <c r="P15" s="61"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="51"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="63"/>
       <c r="S15" s="51"/>
-    </row>
-    <row r="16" spans="2:19" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T15" s="51"/>
+    </row>
+    <row r="16" spans="2:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
       <c r="C16" s="50"/>
       <c r="D16" s="5"/>
@@ -3255,16 +3383,17 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="61"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="59"/>
       <c r="N16" s="61"/>
       <c r="O16" s="61"/>
       <c r="P16" s="61"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="51"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="63"/>
       <c r="S16" s="51"/>
-    </row>
-    <row r="17" spans="2:19" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T16" s="51"/>
+    </row>
+    <row r="17" spans="2:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="11"/>
       <c r="C17" s="50"/>
       <c r="D17" s="5"/>
@@ -3275,16 +3404,17 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="61"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="59"/>
       <c r="N17" s="61"/>
       <c r="O17" s="61"/>
       <c r="P17" s="61"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="51"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="63"/>
       <c r="S17" s="51"/>
-    </row>
-    <row r="18" spans="2:19" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T17" s="51"/>
+    </row>
+    <row r="18" spans="2:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="11"/>
       <c r="C18" s="50"/>
       <c r="D18" s="5"/>
@@ -3295,21 +3425,22 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="61"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="59"/>
       <c r="N18" s="61"/>
       <c r="O18" s="61"/>
       <c r="P18" s="61"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="51"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="63"/>
       <c r="S18" s="51"/>
-    </row>
-    <row r="19" spans="2:19" ht="10.5" x14ac:dyDescent="0.2">
+      <c r="T18" s="51"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="72" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="2:19" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" s="72"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
@@ -3338,33 +3469,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="103.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="103.5703125" customWidth="1"/>
-    <col min="8" max="13" width="2.85546875" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="2.85546875" customWidth="1"/>
-    <col min="16" max="16" width="14" customWidth="1"/>
-    <col min="17" max="17" width="2.85546875" customWidth="1"/>
-    <col min="18" max="18" width="12" style="6"/>
-    <col min="19" max="19" width="12" style="6" customWidth="1"/>
-    <col min="20" max="16384" width="12" style="6"/>
+    <col min="6" max="6" width="103.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="103.5546875" customWidth="1"/>
+    <col min="9" max="14" width="2.88671875" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="2.88671875" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="18" max="18" width="2.88671875" customWidth="1"/>
+    <col min="19" max="19" width="12" style="6"/>
+    <col min="20" max="20" width="12" style="6" customWidth="1"/>
+    <col min="21" max="16384" width="12" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:20" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="55" t="s">
         <v>99</v>
       </c>
@@ -3384,43 +3515,46 @@
         <v>106</v>
       </c>
       <c r="H2" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="73" t="s">
+      <c r="J2" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="K2" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="K2" s="76" t="s">
+      <c r="L2" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="L2" s="76" t="s">
+      <c r="M2" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="M2" s="76" t="s">
+      <c r="N2" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="N2" s="76" t="s">
+      <c r="O2" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="O2" s="76" t="s">
+      <c r="P2" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="P2" s="76" t="s">
+      <c r="Q2" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="Q2" s="76" t="s">
+      <c r="R2" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="R2" s="77" t="s">
+      <c r="S2" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="S2" s="77" t="s">
+      <c r="T2" s="77" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>100</v>
       </c>
@@ -3442,42 +3576,45 @@
       <c r="G3" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="56">
-        <v>1</v>
+      <c r="H3" s="57" t="s">
+        <v>136</v>
       </c>
       <c r="I3" s="56">
         <v>1</v>
       </c>
       <c r="J3" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="56">
         <v>0</v>
       </c>
-      <c r="L3" s="66" t="s">
-        <v>71</v>
+      <c r="L3" s="56">
+        <v>0</v>
       </c>
       <c r="M3" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O3" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q3" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12" t="s">
+      <c r="N3" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P3" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R3" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>100</v>
       </c>
@@ -3499,40 +3636,43 @@
       <c r="G4" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="56">
-        <v>1</v>
+      <c r="H4" s="57" t="s">
+        <v>136</v>
       </c>
       <c r="I4" s="56">
         <v>1</v>
       </c>
       <c r="J4" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="56">
         <v>0</v>
       </c>
-      <c r="L4" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q4" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="R4" s="12"/>
+      <c r="L4" s="56">
+        <v>0</v>
+      </c>
+      <c r="M4" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R4" s="67" t="s">
+        <v>71</v>
+      </c>
       <c r="S4" s="12"/>
-    </row>
-    <row r="5" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T4" s="12"/>
+    </row>
+    <row r="5" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>100</v>
       </c>
@@ -3554,42 +3694,45 @@
       <c r="G5" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="56">
-        <v>1</v>
+      <c r="H5" s="57" t="s">
+        <v>136</v>
       </c>
       <c r="I5" s="56">
         <v>1</v>
       </c>
       <c r="J5" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="56">
         <v>0</v>
       </c>
-      <c r="L5" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O5" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q5" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="R5" s="12" t="s">
+      <c r="L5" s="56">
+        <v>0</v>
+      </c>
+      <c r="M5" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R5" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="S5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="12"/>
-    </row>
-    <row r="6" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T5" s="12"/>
+    </row>
+    <row r="6" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>100</v>
       </c>
@@ -3611,40 +3754,43 @@
       <c r="G6" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="56">
-        <v>1</v>
+      <c r="H6" s="57" t="s">
+        <v>136</v>
       </c>
       <c r="I6" s="56">
         <v>1</v>
       </c>
       <c r="J6" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="56">
         <v>0</v>
       </c>
-      <c r="L6" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="M6" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O6" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q6" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="R6" s="12"/>
+      <c r="L6" s="56">
+        <v>0</v>
+      </c>
+      <c r="M6" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>71</v>
+      </c>
       <c r="S6" s="12"/>
-    </row>
-    <row r="7" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T6" s="12"/>
+    </row>
+    <row r="7" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>100</v>
       </c>
@@ -3666,40 +3812,43 @@
       <c r="G7" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="56">
-        <v>1</v>
+      <c r="H7" s="57" t="s">
+        <v>136</v>
       </c>
       <c r="I7" s="56">
         <v>1</v>
       </c>
       <c r="J7" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="56">
         <v>0</v>
       </c>
-      <c r="L7" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="M7" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O7" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q7" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="R7" s="12"/>
+      <c r="L7" s="56">
+        <v>0</v>
+      </c>
+      <c r="M7" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R7" s="67" t="s">
+        <v>71</v>
+      </c>
       <c r="S7" s="12"/>
-    </row>
-    <row r="8" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T7" s="12"/>
+    </row>
+    <row r="8" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>100</v>
       </c>
@@ -3721,40 +3870,43 @@
       <c r="G8" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="56">
-        <v>1</v>
+      <c r="H8" s="57" t="s">
+        <v>136</v>
       </c>
       <c r="I8" s="56">
         <v>1</v>
       </c>
       <c r="J8" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="56">
         <v>0</v>
       </c>
-      <c r="L8" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="M8" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O8" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q8" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="R8" s="12"/>
+      <c r="L8" s="56">
+        <v>0</v>
+      </c>
+      <c r="M8" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R8" s="67" t="s">
+        <v>71</v>
+      </c>
       <c r="S8" s="12"/>
-    </row>
-    <row r="9" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T8" s="12"/>
+    </row>
+    <row r="9" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>100</v>
       </c>
@@ -3776,40 +3928,43 @@
       <c r="G9" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="56">
-        <v>1</v>
+      <c r="H9" s="57" t="s">
+        <v>136</v>
       </c>
       <c r="I9" s="56">
         <v>1</v>
       </c>
       <c r="J9" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="56">
         <v>0</v>
       </c>
-      <c r="L9" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="M9" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O9" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q9" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="R9" s="12"/>
+      <c r="L9" s="56">
+        <v>0</v>
+      </c>
+      <c r="M9" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R9" s="67" t="s">
+        <v>71</v>
+      </c>
       <c r="S9" s="12"/>
-    </row>
-    <row r="10" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T9" s="12"/>
+    </row>
+    <row r="10" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>100</v>
       </c>
@@ -3831,40 +3986,43 @@
       <c r="G10" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="56">
-        <v>1</v>
+      <c r="H10" s="57" t="s">
+        <v>136</v>
       </c>
       <c r="I10" s="56">
         <v>1</v>
       </c>
       <c r="J10" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="56">
         <v>0</v>
       </c>
-      <c r="L10" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="M10" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O10" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q10" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="R10" s="12"/>
+      <c r="L10" s="56">
+        <v>0</v>
+      </c>
+      <c r="M10" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R10" s="67" t="s">
+        <v>71</v>
+      </c>
       <c r="S10" s="12"/>
-    </row>
-    <row r="11" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T10" s="12"/>
+    </row>
+    <row r="11" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>100</v>
       </c>
@@ -3886,40 +4044,43 @@
       <c r="G11" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="56">
-        <v>1</v>
+      <c r="H11" s="57" t="s">
+        <v>136</v>
       </c>
       <c r="I11" s="56">
         <v>1</v>
       </c>
       <c r="J11" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="56">
         <v>0</v>
       </c>
-      <c r="L11" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="M11" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O11" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q11" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="R11" s="12"/>
+      <c r="L11" s="56">
+        <v>0</v>
+      </c>
+      <c r="M11" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="N11" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R11" s="67" t="s">
+        <v>71</v>
+      </c>
       <c r="S11" s="12"/>
-    </row>
-    <row r="12" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T11" s="12"/>
+    </row>
+    <row r="12" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>100</v>
       </c>
@@ -3941,40 +4102,43 @@
       <c r="G12" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="56">
-        <v>1</v>
+      <c r="H12" s="57" t="s">
+        <v>136</v>
       </c>
       <c r="I12" s="56">
         <v>1</v>
       </c>
       <c r="J12" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="56">
         <v>0</v>
       </c>
-      <c r="L12" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="M12" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O12" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q12" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="R12" s="12"/>
+      <c r="L12" s="56">
+        <v>0</v>
+      </c>
+      <c r="M12" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R12" s="67" t="s">
+        <v>71</v>
+      </c>
       <c r="S12" s="12"/>
-    </row>
-    <row r="13" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T12" s="12"/>
+    </row>
+    <row r="13" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
         <v>100</v>
       </c>
@@ -3996,40 +4160,43 @@
       <c r="G13" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="56">
-        <v>1</v>
+      <c r="H13" s="57" t="s">
+        <v>136</v>
       </c>
       <c r="I13" s="56">
         <v>1</v>
       </c>
       <c r="J13" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="56">
         <v>0</v>
       </c>
-      <c r="L13" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="M13" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O13" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q13" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="R13" s="12"/>
+      <c r="L13" s="56">
+        <v>0</v>
+      </c>
+      <c r="M13" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="N13" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R13" s="67" t="s">
+        <v>71</v>
+      </c>
       <c r="S13" s="12"/>
-    </row>
-    <row r="14" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T13" s="12"/>
+    </row>
+    <row r="14" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>100</v>
       </c>
@@ -4051,8 +4218,8 @@
       <c r="G14" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="56">
-        <v>1</v>
+      <c r="H14" s="57" t="s">
+        <v>136</v>
       </c>
       <c r="I14" s="56">
         <v>1</v>
@@ -4063,30 +4230,33 @@
       <c r="K14" s="56">
         <v>1</v>
       </c>
-      <c r="L14" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="M14" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O14" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q14" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="R14" s="12" t="s">
+      <c r="L14" s="56">
+        <v>1</v>
+      </c>
+      <c r="M14" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="N14" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R14" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="S14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="S14" s="12"/>
-    </row>
-    <row r="15" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T14" s="12"/>
+    </row>
+    <row r="15" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>100</v>
       </c>
@@ -4108,44 +4278,47 @@
       <c r="G15" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="56">
-        <v>1</v>
+      <c r="H15" s="57" t="s">
+        <v>136</v>
       </c>
       <c r="I15" s="56">
         <v>1</v>
       </c>
       <c r="J15" s="56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" s="56">
         <v>2</v>
       </c>
-      <c r="L15" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="M15" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O15" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q15" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="R15" s="12" t="s">
+      <c r="L15" s="56">
+        <v>2</v>
+      </c>
+      <c r="M15" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R15" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="S15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="S15" s="12" t="s">
+      <c r="T15" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>100</v>
       </c>
@@ -4167,40 +4340,43 @@
       <c r="G16" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="56">
-        <v>1</v>
+      <c r="H16" s="57" t="s">
+        <v>63</v>
       </c>
       <c r="I16" s="56">
         <v>1</v>
       </c>
       <c r="J16" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="56">
         <v>0</v>
       </c>
-      <c r="L16" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="M16" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O16" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q16" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="R16" s="12"/>
+      <c r="L16" s="56">
+        <v>0</v>
+      </c>
+      <c r="M16" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R16" s="67" t="s">
+        <v>71</v>
+      </c>
       <c r="S16" s="12"/>
-    </row>
-    <row r="17" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T16" s="12"/>
+    </row>
+    <row r="17" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>100</v>
       </c>
@@ -4222,40 +4398,43 @@
       <c r="G17" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="56">
-        <v>1</v>
+      <c r="H17" s="57" t="s">
+        <v>136</v>
       </c>
       <c r="I17" s="56">
         <v>1</v>
       </c>
       <c r="J17" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="56">
         <v>0</v>
       </c>
-      <c r="L17" s="67">
+      <c r="L17" s="56">
+        <v>0</v>
+      </c>
+      <c r="M17" s="67">
         <v>3</v>
       </c>
-      <c r="M17" s="64">
+      <c r="N17" s="64">
         <v>300</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="O17" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="O17" s="67">
-        <v>1</v>
-      </c>
-      <c r="P17" s="4" t="s">
+      <c r="P17" s="67">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Q17" s="67">
-        <v>1</v>
-      </c>
-      <c r="R17" s="12"/>
+      <c r="R17" s="67">
+        <v>1</v>
+      </c>
       <c r="S17" s="12"/>
-    </row>
-    <row r="18" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T17" s="12"/>
+    </row>
+    <row r="18" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
         <v>100</v>
       </c>
@@ -4277,40 +4456,43 @@
       <c r="G18" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="56">
-        <v>1</v>
+      <c r="H18" s="57" t="s">
+        <v>136</v>
       </c>
       <c r="I18" s="56">
         <v>1</v>
       </c>
       <c r="J18" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="56">
         <v>0</v>
       </c>
-      <c r="L18" s="67">
+      <c r="L18" s="56">
+        <v>0</v>
+      </c>
+      <c r="M18" s="67">
         <v>3</v>
       </c>
-      <c r="M18" s="64">
+      <c r="N18" s="64">
         <v>300</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="O18" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="O18" s="67">
+      <c r="P18" s="67">
         <v>2</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="Q18" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Q18" s="67">
+      <c r="R18" s="67">
         <v>2</v>
       </c>
-      <c r="R18" s="12"/>
       <c r="S18" s="12"/>
-    </row>
-    <row r="19" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T18" s="12"/>
+    </row>
+    <row r="19" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
         <v>100</v>
       </c>
@@ -4332,40 +4514,43 @@
       <c r="G19" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="56">
-        <v>1</v>
+      <c r="H19" s="57" t="s">
+        <v>136</v>
       </c>
       <c r="I19" s="56">
         <v>1</v>
       </c>
       <c r="J19" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="56">
         <v>0</v>
       </c>
-      <c r="L19" s="67">
-        <v>1</v>
-      </c>
-      <c r="M19" s="64">
+      <c r="L19" s="56">
+        <v>0</v>
+      </c>
+      <c r="M19" s="67">
+        <v>1</v>
+      </c>
+      <c r="N19" s="64">
         <v>600</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="O19" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="O19" s="67">
+      <c r="P19" s="67">
         <v>3</v>
       </c>
-      <c r="P19" s="4" t="s">
+      <c r="Q19" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="Q19" s="67">
-        <v>1</v>
-      </c>
-      <c r="R19" s="12"/>
+      <c r="R19" s="67">
+        <v>1</v>
+      </c>
       <c r="S19" s="12"/>
-    </row>
-    <row r="20" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T19" s="12"/>
+    </row>
+    <row r="20" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
         <v>100</v>
       </c>
@@ -4387,40 +4572,43 @@
       <c r="G20" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="56">
-        <v>1</v>
+      <c r="H20" s="57" t="s">
+        <v>136</v>
       </c>
       <c r="I20" s="56">
         <v>1</v>
       </c>
       <c r="J20" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="56">
         <v>0</v>
       </c>
-      <c r="L20" s="67">
-        <v>1</v>
-      </c>
-      <c r="M20" s="64">
+      <c r="L20" s="56">
+        <v>0</v>
+      </c>
+      <c r="M20" s="67">
+        <v>1</v>
+      </c>
+      <c r="N20" s="64">
         <v>600</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="O20" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="O20" s="67">
+      <c r="P20" s="67">
         <v>4</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="Q20" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="Q20" s="67">
+      <c r="R20" s="67">
         <v>2</v>
       </c>
-      <c r="R20" s="12"/>
       <c r="S20" s="12"/>
-    </row>
-    <row r="21" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T20" s="12"/>
+    </row>
+    <row r="21" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
         <v>100</v>
       </c>
@@ -4430,23 +4618,26 @@
       <c r="E21" s="4"/>
       <c r="F21" s="57"/>
       <c r="G21" s="57"/>
-      <c r="H21" s="4"/>
+      <c r="H21" s="57" t="s">
+        <v>136</v>
+      </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="12"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="68"/>
       <c r="S21" s="12"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="12"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
     </row>
-    <row r="23" spans="1:19" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="26" t="s">
         <v>118</v>
       </c>
@@ -4465,30 +4656,33 @@
       <c r="G23" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="H23" s="80" t="s">
+      <c r="H23" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="I23" s="80"/>
       <c r="J23" s="80"/>
       <c r="K23" s="80"/>
       <c r="L23" s="80"/>
       <c r="M23" s="80"/>
-      <c r="N23" s="81" t="s">
+      <c r="N23" s="80"/>
+      <c r="O23" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="O23" s="81"/>
-      <c r="P23" s="81" t="s">
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="28" t="s">
+      <c r="R23" s="81"/>
+      <c r="S23" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="S23" s="71" t="s">
+      <c r="T23" s="71" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="175.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="162" x14ac:dyDescent="0.25">
       <c r="C24" s="79" t="s">
         <v>128</v>
       </c>
@@ -4496,55 +4690,65 @@
         <v>130</v>
       </c>
       <c r="G24" s="27"/>
-    </row>
-    <row r="25" spans="1:19" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="H24" s="27"/>
+    </row>
+    <row r="25" spans="1:20" ht="153" x14ac:dyDescent="0.25">
       <c r="F25" s="27" t="s">
         <v>131</v>
       </c>
       <c r="G25" s="27"/>
-    </row>
-    <row r="26" spans="1:19" ht="87.75" x14ac:dyDescent="0.2">
+      <c r="H25" s="27"/>
+    </row>
+    <row r="26" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="F26" s="27" t="s">
         <v>132</v>
       </c>
       <c r="G26" s="27"/>
-    </row>
-    <row r="27" spans="1:19" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="H26" s="27"/>
+    </row>
+    <row r="27" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="F27" s="27" t="s">
         <v>133</v>
       </c>
       <c r="G27" s="27"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H27" s="27"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H29" s="25"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H31" s="25"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="H32" s="25"/>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="3">
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="4">
@@ -4574,14 +4778,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4592,7 +4796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4603,7 +4807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -4615,7 +4819,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>

--- a/oase-root/libs/commonlibs/template.xlsx
+++ b/oase-root/libs/commonlibs/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="7176" tabRatio="601"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="7170" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="134">
   <si>
     <t>RuleSet</t>
   </si>
@@ -1722,114 +1722,6 @@
     <t>[ServiceNow Driver]
 SERVICE_NAME is required. It is linked to the ServiceNow_driver name in the OASE System screen -&gt;Action settings.</t>
     <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>m.getActs().addPostInfo("$param");</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>アクション実行後パラメータ情報（必須）
-※ダブルクオーテーションは使用不可
-※不要の場合は「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」を定義</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>【ServiceNowドライバー】
-SERVICENOW_NAMEは必須です。OASE画面のシステム-アクション設定-ServiceNow_driverの名前と紐づけます。</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>アクション実行後パラメータ情報</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>（必須）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>※ダブルクオーテーションは使用不可
-※不要の場合は「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」を定義</t>
-    </r>
-    <rPh sb="7" eb="8">
-      <t>ご</t>
-    </rPh>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2995,24 +2887,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T36"/>
+  <dimension ref="B1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="G11" sqref="G11"/>
+      <selection pane="topRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="9.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="9.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="31" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="31" customWidth="1"/>
-    <col min="3" max="24" width="9.109375" style="31" customWidth="1"/>
-    <col min="25" max="25" width="11.6640625" style="31" customWidth="1"/>
-    <col min="26" max="16384" width="9.109375" style="31"/>
+    <col min="1" max="1" width="3.5703125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="31" customWidth="1"/>
+    <col min="3" max="23" width="9.140625" style="31" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="31" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1" s="29"/>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -3020,9 +2912,8 @@
       <c r="F1" s="30"/>
       <c r="G1" s="30"/>
       <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-    </row>
-    <row r="2" spans="2:20" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="2:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="32"/>
       <c r="C2" s="33" t="s">
         <v>0</v>
@@ -3034,9 +2925,8 @@
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
       <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-    </row>
-    <row r="3" spans="2:20" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="32"/>
       <c r="C3" s="33" t="s">
         <v>12</v>
@@ -3048,9 +2938,8 @@
       <c r="H3" s="34"/>
       <c r="I3" s="34"/>
       <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-    </row>
-    <row r="4" spans="2:20" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="32"/>
       <c r="C4" s="33" t="s">
         <v>13</v>
@@ -3062,9 +2951,8 @@
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-    </row>
-    <row r="5" spans="2:20" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="32"/>
       <c r="C5" s="33" t="s">
         <v>25</v>
@@ -3076,12 +2964,11 @@
       <c r="H5" s="34"/>
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-    </row>
-    <row r="6" spans="2:20" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="2:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="2:20" s="35" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="36"/>
       <c r="C7" s="37"/>
       <c r="D7" s="38"/>
@@ -3100,9 +2987,8 @@
       <c r="Q7" s="39"/>
       <c r="R7" s="39"/>
       <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-    </row>
-    <row r="8" spans="2:20" s="10" customFormat="1" ht="19.2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="2:19" s="10" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B8" s="40"/>
       <c r="C8" s="41" t="s">
         <v>11</v>
@@ -3125,10 +3011,10 @@
       <c r="I8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="16" t="s">
+      <c r="J8" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="17" t="s">
         <v>1</v>
       </c>
       <c r="L8" s="17" t="s">
@@ -3141,25 +3027,22 @@
         <v>1</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="P8" s="17" t="s">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="R8" s="17" t="s">
         <v>26</v>
       </c>
+      <c r="R8" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="S8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="T8" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="42"/>
       <c r="C9" s="43"/>
       <c r="D9" s="44"/>
@@ -3168,8 +3051,8 @@
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -3178,9 +3061,8 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-    </row>
-    <row r="10" spans="2:20" s="10" customFormat="1" ht="38.4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="2:19" s="10" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="B10" s="46"/>
       <c r="C10" s="47"/>
       <c r="D10" s="7" t="s">
@@ -3196,42 +3078,39 @@
         <v>27</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="J10" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="K10" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="L10" s="9" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="R10" s="9" t="s">
         <v>70</v>
       </c>
+      <c r="R10" s="9"/>
       <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-    </row>
-    <row r="11" spans="2:20" s="49" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="2:19" s="49" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="54" t="s">
         <v>81</v>
       </c>
@@ -3249,46 +3128,43 @@
         <v>85</v>
       </c>
       <c r="H11" s="73" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="I11" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="J11" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="K11" s="75" t="s">
+      <c r="J11" s="75" t="s">
         <v>91</v>
       </c>
+      <c r="K11" s="76" t="s">
+        <v>98</v>
+      </c>
       <c r="L11" s="76" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M11" s="76" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N11" s="76" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O11" s="76" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P11" s="76" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="76" t="s">
-        <v>96</v>
-      </c>
-      <c r="R11" s="76" t="s">
         <v>97</v>
       </c>
+      <c r="R11" s="77" t="s">
+        <v>82</v>
+      </c>
       <c r="S11" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="T11" s="77" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="2:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:19" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11"/>
       <c r="C12" s="50"/>
       <c r="D12" s="5"/>
@@ -3299,17 +3175,16 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="60"/>
       <c r="N12" s="60"/>
       <c r="O12" s="60"/>
       <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="51"/>
       <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-    </row>
-    <row r="13" spans="2:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="2:19" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
       <c r="C13" s="50"/>
       <c r="D13" s="5"/>
@@ -3320,17 +3195,16 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="61"/>
       <c r="N13" s="61"/>
       <c r="O13" s="61"/>
       <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="51"/>
       <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-    </row>
-    <row r="14" spans="2:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="2:19" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="11"/>
       <c r="C14" s="50"/>
       <c r="D14" s="5"/>
@@ -3341,17 +3215,16 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="61"/>
       <c r="N14" s="61"/>
       <c r="O14" s="61"/>
       <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="51"/>
       <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-    </row>
-    <row r="15" spans="2:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="2:19" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="11"/>
       <c r="C15" s="50"/>
       <c r="D15" s="5"/>
@@ -3362,17 +3235,16 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="61"/>
       <c r="N15" s="61"/>
       <c r="O15" s="61"/>
       <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="51"/>
       <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-    </row>
-    <row r="16" spans="2:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="2:19" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
       <c r="C16" s="50"/>
       <c r="D16" s="5"/>
@@ -3383,17 +3255,16 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="61"/>
       <c r="N16" s="61"/>
       <c r="O16" s="61"/>
       <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="51"/>
       <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-    </row>
-    <row r="17" spans="2:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:19" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="11"/>
       <c r="C17" s="50"/>
       <c r="D17" s="5"/>
@@ -3404,17 +3275,16 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="61"/>
       <c r="N17" s="61"/>
       <c r="O17" s="61"/>
       <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="51"/>
       <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
-    </row>
-    <row r="18" spans="2:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:19" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="11"/>
       <c r="C18" s="50"/>
       <c r="D18" s="5"/>
@@ -3425,22 +3295,21 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="61"/>
       <c r="N18" s="61"/>
       <c r="O18" s="61"/>
       <c r="P18" s="61"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="51"/>
       <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:19" ht="10.5" x14ac:dyDescent="0.2">
       <c r="B19" s="72" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:19" ht="10.5" x14ac:dyDescent="0.2">
       <c r="B20" s="72"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
@@ -3469,33 +3338,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="103.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="103.5546875" customWidth="1"/>
-    <col min="9" max="14" width="2.88671875" customWidth="1"/>
-    <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="16" width="2.88671875" customWidth="1"/>
-    <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="2.88671875" customWidth="1"/>
-    <col min="19" max="19" width="12" style="6"/>
-    <col min="20" max="20" width="12" style="6" customWidth="1"/>
-    <col min="21" max="16384" width="12" style="6"/>
+    <col min="6" max="6" width="103.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="103.5703125" customWidth="1"/>
+    <col min="8" max="13" width="2.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="2.85546875" customWidth="1"/>
+    <col min="16" max="16" width="14" customWidth="1"/>
+    <col min="17" max="17" width="2.85546875" customWidth="1"/>
+    <col min="18" max="18" width="12" style="6"/>
+    <col min="19" max="19" width="12" style="6" customWidth="1"/>
+    <col min="20" max="16384" width="12" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:20" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="55" t="s">
         <v>99</v>
       </c>
@@ -3515,46 +3384,43 @@
         <v>106</v>
       </c>
       <c r="H2" s="73" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="I2" s="73" t="s">
-        <v>107</v>
-      </c>
-      <c r="J2" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="K2" s="75" t="s">
+      <c r="J2" s="75" t="s">
         <v>109</v>
       </c>
+      <c r="K2" s="76" t="s">
+        <v>110</v>
+      </c>
       <c r="L2" s="76" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M2" s="76" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N2" s="76" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O2" s="76" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P2" s="76" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q2" s="76" t="s">
-        <v>115</v>
-      </c>
-      <c r="R2" s="76" t="s">
         <v>116</v>
       </c>
+      <c r="R2" s="77" t="s">
+        <v>82</v>
+      </c>
       <c r="S2" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="T2" s="77" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>100</v>
       </c>
@@ -3576,45 +3442,42 @@
       <c r="G3" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="57" t="s">
-        <v>136</v>
+      <c r="H3" s="56">
+        <v>1</v>
       </c>
       <c r="I3" s="56">
         <v>1</v>
       </c>
       <c r="J3" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="56">
         <v>0</v>
       </c>
-      <c r="L3" s="56">
-        <v>0</v>
+      <c r="L3" s="66" t="s">
+        <v>71</v>
       </c>
       <c r="M3" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="N3" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="P3" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="R3" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12" t="s">
+      <c r="N3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>100</v>
       </c>
@@ -3636,43 +3499,40 @@
       <c r="G4" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="57" t="s">
-        <v>136</v>
+      <c r="H4" s="56">
+        <v>1</v>
       </c>
       <c r="I4" s="56">
         <v>1</v>
       </c>
       <c r="J4" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="56">
         <v>0</v>
       </c>
-      <c r="L4" s="56">
-        <v>0</v>
-      </c>
-      <c r="M4" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="P4" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="R4" s="67" t="s">
-        <v>71</v>
-      </c>
+      <c r="L4" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="R4" s="12"/>
       <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-    </row>
-    <row r="5" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>100</v>
       </c>
@@ -3694,45 +3554,42 @@
       <c r="G5" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="57" t="s">
-        <v>136</v>
+      <c r="H5" s="56">
+        <v>1</v>
       </c>
       <c r="I5" s="56">
         <v>1</v>
       </c>
       <c r="J5" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="56">
         <v>0</v>
       </c>
-      <c r="L5" s="56">
-        <v>0</v>
-      </c>
-      <c r="M5" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="P5" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="R5" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="S5" s="12" t="s">
+      <c r="L5" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q5" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="R5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="T5" s="12"/>
-    </row>
-    <row r="6" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+      <c r="S5" s="12"/>
+    </row>
+    <row r="6" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>100</v>
       </c>
@@ -3754,43 +3611,40 @@
       <c r="G6" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="57" t="s">
-        <v>136</v>
+      <c r="H6" s="56">
+        <v>1</v>
       </c>
       <c r="I6" s="56">
         <v>1</v>
       </c>
       <c r="J6" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="56">
         <v>0</v>
       </c>
-      <c r="L6" s="56">
-        <v>0</v>
-      </c>
-      <c r="M6" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="N6" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="P6" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="R6" s="67" t="s">
-        <v>71</v>
-      </c>
+      <c r="L6" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="R6" s="12"/>
       <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-    </row>
-    <row r="7" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>100</v>
       </c>
@@ -3812,43 +3666,40 @@
       <c r="G7" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="57" t="s">
-        <v>136</v>
+      <c r="H7" s="56">
+        <v>1</v>
       </c>
       <c r="I7" s="56">
         <v>1</v>
       </c>
       <c r="J7" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="56">
         <v>0</v>
       </c>
-      <c r="L7" s="56">
-        <v>0</v>
-      </c>
-      <c r="M7" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="N7" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="P7" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="R7" s="67" t="s">
-        <v>71</v>
-      </c>
+      <c r="L7" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="R7" s="12"/>
       <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-    </row>
-    <row r="8" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>100</v>
       </c>
@@ -3870,43 +3721,40 @@
       <c r="G8" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="57" t="s">
-        <v>136</v>
+      <c r="H8" s="56">
+        <v>1</v>
       </c>
       <c r="I8" s="56">
         <v>1</v>
       </c>
       <c r="J8" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="56">
         <v>0</v>
       </c>
-      <c r="L8" s="56">
-        <v>0</v>
-      </c>
-      <c r="M8" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="N8" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="P8" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="R8" s="67" t="s">
-        <v>71</v>
-      </c>
+      <c r="L8" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O8" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="R8" s="12"/>
       <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-    </row>
-    <row r="9" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>100</v>
       </c>
@@ -3928,43 +3776,40 @@
       <c r="G9" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="57" t="s">
-        <v>136</v>
+      <c r="H9" s="56">
+        <v>1</v>
       </c>
       <c r="I9" s="56">
         <v>1</v>
       </c>
       <c r="J9" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="56">
         <v>0</v>
       </c>
-      <c r="L9" s="56">
-        <v>0</v>
-      </c>
-      <c r="M9" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="N9" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="P9" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="R9" s="67" t="s">
-        <v>71</v>
-      </c>
+      <c r="L9" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="R9" s="12"/>
       <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-    </row>
-    <row r="10" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>100</v>
       </c>
@@ -3986,43 +3831,40 @@
       <c r="G10" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="57" t="s">
-        <v>136</v>
+      <c r="H10" s="56">
+        <v>1</v>
       </c>
       <c r="I10" s="56">
         <v>1</v>
       </c>
       <c r="J10" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="56">
         <v>0</v>
       </c>
-      <c r="L10" s="56">
-        <v>0</v>
-      </c>
-      <c r="M10" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="N10" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="P10" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="R10" s="67" t="s">
-        <v>71</v>
-      </c>
+      <c r="L10" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="R10" s="12"/>
       <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-    </row>
-    <row r="11" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>100</v>
       </c>
@@ -4044,43 +3886,40 @@
       <c r="G11" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="57" t="s">
-        <v>136</v>
+      <c r="H11" s="56">
+        <v>1</v>
       </c>
       <c r="I11" s="56">
         <v>1</v>
       </c>
       <c r="J11" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="56">
         <v>0</v>
       </c>
-      <c r="L11" s="56">
-        <v>0</v>
-      </c>
-      <c r="M11" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="N11" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="P11" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="R11" s="67" t="s">
-        <v>71</v>
-      </c>
+      <c r="L11" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O11" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="R11" s="12"/>
       <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-    </row>
-    <row r="12" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>100</v>
       </c>
@@ -4102,43 +3941,40 @@
       <c r="G12" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="57" t="s">
-        <v>136</v>
+      <c r="H12" s="56">
+        <v>1</v>
       </c>
       <c r="I12" s="56">
         <v>1</v>
       </c>
       <c r="J12" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="56">
         <v>0</v>
       </c>
-      <c r="L12" s="56">
-        <v>0</v>
-      </c>
-      <c r="M12" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="N12" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="P12" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="R12" s="67" t="s">
-        <v>71</v>
-      </c>
+      <c r="L12" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O12" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="R12" s="12"/>
       <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-    </row>
-    <row r="13" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
         <v>100</v>
       </c>
@@ -4160,43 +3996,40 @@
       <c r="G13" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="57" t="s">
-        <v>136</v>
+      <c r="H13" s="56">
+        <v>1</v>
       </c>
       <c r="I13" s="56">
         <v>1</v>
       </c>
       <c r="J13" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="56">
         <v>0</v>
       </c>
-      <c r="L13" s="56">
-        <v>0</v>
-      </c>
-      <c r="M13" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="N13" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="P13" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="R13" s="67" t="s">
-        <v>71</v>
-      </c>
+      <c r="L13" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q13" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="R13" s="12"/>
       <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-    </row>
-    <row r="14" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>100</v>
       </c>
@@ -4218,8 +4051,8 @@
       <c r="G14" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="57" t="s">
-        <v>136</v>
+      <c r="H14" s="56">
+        <v>1</v>
       </c>
       <c r="I14" s="56">
         <v>1</v>
@@ -4230,33 +4063,30 @@
       <c r="K14" s="56">
         <v>1</v>
       </c>
-      <c r="L14" s="56">
-        <v>1</v>
-      </c>
-      <c r="M14" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="N14" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="P14" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="R14" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="S14" s="12" t="s">
+      <c r="L14" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="M14" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q14" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="R14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="T14" s="12"/>
-    </row>
-    <row r="15" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+      <c r="S14" s="12"/>
+    </row>
+    <row r="15" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>100</v>
       </c>
@@ -4278,47 +4108,44 @@
       <c r="G15" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="57" t="s">
-        <v>136</v>
+      <c r="H15" s="56">
+        <v>1</v>
       </c>
       <c r="I15" s="56">
         <v>1</v>
       </c>
       <c r="J15" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15" s="56">
         <v>2</v>
       </c>
-      <c r="L15" s="56">
-        <v>2</v>
-      </c>
-      <c r="M15" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="N15" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="P15" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="R15" s="67" t="s">
-        <v>71</v>
+      <c r="L15" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="M15" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O15" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q15" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="S15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="T15" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>100</v>
       </c>
@@ -4340,43 +4167,40 @@
       <c r="G16" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="57" t="s">
-        <v>63</v>
+      <c r="H16" s="56">
+        <v>1</v>
       </c>
       <c r="I16" s="56">
         <v>1</v>
       </c>
       <c r="J16" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="56">
         <v>0</v>
       </c>
-      <c r="L16" s="56">
-        <v>0</v>
-      </c>
-      <c r="M16" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="N16" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="P16" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="R16" s="67" t="s">
-        <v>71</v>
-      </c>
+      <c r="L16" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="M16" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O16" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q16" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="R16" s="12"/>
       <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-    </row>
-    <row r="17" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>100</v>
       </c>
@@ -4398,43 +4222,40 @@
       <c r="G17" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="57" t="s">
-        <v>136</v>
+      <c r="H17" s="56">
+        <v>1</v>
       </c>
       <c r="I17" s="56">
         <v>1</v>
       </c>
       <c r="J17" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="56">
         <v>0</v>
       </c>
-      <c r="L17" s="56">
-        <v>0</v>
-      </c>
-      <c r="M17" s="67">
+      <c r="L17" s="67">
         <v>3</v>
       </c>
-      <c r="N17" s="64">
+      <c r="M17" s="64">
         <v>300</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="N17" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P17" s="67">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="4" t="s">
+      <c r="O17" s="67">
+        <v>1</v>
+      </c>
+      <c r="P17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="R17" s="67">
-        <v>1</v>
-      </c>
+      <c r="Q17" s="67">
+        <v>1</v>
+      </c>
+      <c r="R17" s="12"/>
       <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-    </row>
-    <row r="18" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
         <v>100</v>
       </c>
@@ -4456,43 +4277,40 @@
       <c r="G18" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="57" t="s">
-        <v>136</v>
+      <c r="H18" s="56">
+        <v>1</v>
       </c>
       <c r="I18" s="56">
         <v>1</v>
       </c>
       <c r="J18" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="56">
         <v>0</v>
       </c>
-      <c r="L18" s="56">
-        <v>0</v>
-      </c>
-      <c r="M18" s="67">
+      <c r="L18" s="67">
         <v>3</v>
       </c>
-      <c r="N18" s="64">
+      <c r="M18" s="64">
         <v>300</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="N18" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P18" s="67">
+      <c r="O18" s="67">
         <v>2</v>
       </c>
-      <c r="Q18" s="4" t="s">
+      <c r="P18" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="R18" s="67">
+      <c r="Q18" s="67">
         <v>2</v>
       </c>
+      <c r="R18" s="12"/>
       <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-    </row>
-    <row r="19" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
         <v>100</v>
       </c>
@@ -4514,43 +4332,40 @@
       <c r="G19" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="57" t="s">
-        <v>136</v>
+      <c r="H19" s="56">
+        <v>1</v>
       </c>
       <c r="I19" s="56">
         <v>1</v>
       </c>
       <c r="J19" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="56">
         <v>0</v>
       </c>
-      <c r="L19" s="56">
-        <v>0</v>
-      </c>
-      <c r="M19" s="67">
-        <v>1</v>
-      </c>
-      <c r="N19" s="64">
+      <c r="L19" s="67">
+        <v>1</v>
+      </c>
+      <c r="M19" s="64">
         <v>600</v>
       </c>
-      <c r="O19" s="4" t="s">
+      <c r="N19" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P19" s="67">
+      <c r="O19" s="67">
         <v>3</v>
       </c>
-      <c r="Q19" s="4" t="s">
+      <c r="P19" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="R19" s="67">
-        <v>1</v>
-      </c>
+      <c r="Q19" s="67">
+        <v>1</v>
+      </c>
+      <c r="R19" s="12"/>
       <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-    </row>
-    <row r="20" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
         <v>100</v>
       </c>
@@ -4572,43 +4387,40 @@
       <c r="G20" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="57" t="s">
-        <v>136</v>
+      <c r="H20" s="56">
+        <v>1</v>
       </c>
       <c r="I20" s="56">
         <v>1</v>
       </c>
       <c r="J20" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="56">
         <v>0</v>
       </c>
-      <c r="L20" s="56">
-        <v>0</v>
-      </c>
-      <c r="M20" s="67">
-        <v>1</v>
-      </c>
-      <c r="N20" s="64">
+      <c r="L20" s="67">
+        <v>1</v>
+      </c>
+      <c r="M20" s="64">
         <v>600</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="N20" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P20" s="67">
+      <c r="O20" s="67">
         <v>4</v>
       </c>
-      <c r="Q20" s="4" t="s">
+      <c r="P20" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="R20" s="67">
+      <c r="Q20" s="67">
         <v>2</v>
       </c>
+      <c r="R20" s="12"/>
       <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-    </row>
-    <row r="21" spans="1:20" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
         <v>100</v>
       </c>
@@ -4618,26 +4430,23 @@
       <c r="E21" s="4"/>
       <c r="F21" s="57"/>
       <c r="G21" s="57"/>
-      <c r="H21" s="57" t="s">
-        <v>136</v>
-      </c>
+      <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="12"/>
       <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B22" s="14"/>
     </row>
-    <row r="23" spans="1:20" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="26" t="s">
         <v>118</v>
       </c>
@@ -4656,33 +4465,30 @@
       <c r="G23" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="H23" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="I23" s="80" t="s">
+      <c r="H23" s="80" t="s">
         <v>123</v>
       </c>
+      <c r="I23" s="80"/>
       <c r="J23" s="80"/>
       <c r="K23" s="80"/>
       <c r="L23" s="80"/>
       <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="81" t="s">
+      <c r="N23" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="81" t="s">
+      <c r="O23" s="81"/>
+      <c r="P23" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="R23" s="81"/>
-      <c r="S23" s="28" t="s">
+      <c r="Q23" s="81"/>
+      <c r="R23" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="T23" s="71" t="s">
+      <c r="S23" s="71" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="162" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="175.5" x14ac:dyDescent="0.2">
       <c r="C24" s="79" t="s">
         <v>128</v>
       </c>
@@ -4690,65 +4496,55 @@
         <v>130</v>
       </c>
       <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-    </row>
-    <row r="25" spans="1:20" ht="153" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:19" ht="165.75" x14ac:dyDescent="0.2">
       <c r="F25" s="27" t="s">
         <v>131</v>
       </c>
       <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-    </row>
-    <row r="26" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:19" ht="87.75" x14ac:dyDescent="0.2">
       <c r="F26" s="27" t="s">
         <v>132</v>
       </c>
       <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-    </row>
-    <row r="27" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:19" ht="19.5" x14ac:dyDescent="0.2">
       <c r="F27" s="27" t="s">
         <v>133</v>
       </c>
       <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-    </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="3">
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="4">
@@ -4778,14 +4574,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4796,7 +4592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4807,7 +4603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -4819,7 +4615,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>

--- a/oase-root/libs/commonlibs/template.xlsx
+++ b/oase-root/libs/commonlibs/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="7170" tabRatio="601"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="7176" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -248,10 +248,6 @@
     <t>ServiceNow(ver1)</t>
   </si>
   <si>
-    <t>SERVICENOW_NAME=ServiceNowTest</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>m.getActs().addCondCount("$param");</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1719,8 +1715,13 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
+    <t>SERVICENOW_NAME=ServiceNowTest,INCIDENT_STATUS=OPEN</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
     <t>[ServiceNow Driver]
-SERVICE_NAME is required. It is linked to the ServiceNow_driver name in the OASE System screen -&gt;Action settings.</t>
+SERVICE_NAME is required. It is linked to the ServiceNow_driver name in the OASE System screen -&gt;Action settings.
+INCIDENT_STATUSは必須です。ServiceNowに設定するStateの「OPEN」or「CLOSE」を記述します。</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -2889,22 +2890,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B13" sqref="B13"/>
+      <selection pane="topRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="9.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="9.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="31" customWidth="1"/>
-    <col min="3" max="23" width="9.140625" style="31" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="31" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="31"/>
+    <col min="1" max="1" width="3.5546875" style="31" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="31" customWidth="1"/>
+    <col min="3" max="23" width="9.109375" style="31" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" style="31" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1" s="29"/>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -2968,7 +2969,7 @@
     <row r="6" spans="2:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="2:19" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:19" s="35" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B7" s="36"/>
       <c r="C7" s="37"/>
       <c r="D7" s="38"/>
@@ -2988,7 +2989,7 @@
       <c r="R7" s="39"/>
       <c r="S7" s="39"/>
     </row>
-    <row r="8" spans="2:19" s="10" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:19" s="10" customFormat="1" ht="19.2" x14ac:dyDescent="0.2">
       <c r="B8" s="40"/>
       <c r="C8" s="41" t="s">
         <v>11</v>
@@ -3027,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P8" s="17" t="s">
         <v>1</v>
@@ -3062,7 +3063,7 @@
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
     </row>
-    <row r="10" spans="2:19" s="10" customFormat="1" ht="39" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:19" s="10" customFormat="1" ht="38.4" x14ac:dyDescent="0.2">
       <c r="B10" s="46"/>
       <c r="C10" s="47"/>
       <c r="D10" s="7" t="s">
@@ -3090,78 +3091,78 @@
         <v>20</v>
       </c>
       <c r="L10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="M10" s="9" t="s">
-        <v>65</v>
-      </c>
       <c r="N10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="P10" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="Q10" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
     </row>
     <row r="11" spans="2:19" s="49" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="48"/>
       <c r="D11" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="73" t="s">
+      <c r="F11" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="G11" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="73" t="s">
+      <c r="I11" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="73" t="s">
+      <c r="J11" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="J11" s="75" t="s">
+      <c r="K11" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="K11" s="76" t="s">
-        <v>98</v>
-      </c>
-      <c r="L11" s="76" t="s">
+      <c r="M11" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="M11" s="76" t="s">
+      <c r="N11" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="N11" s="76" t="s">
+      <c r="O11" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="O11" s="76" t="s">
+      <c r="P11" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="P11" s="76" t="s">
+      <c r="Q11" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="Q11" s="76" t="s">
-        <v>97</v>
-      </c>
       <c r="R11" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="S11" s="77" t="s">
         <v>82</v>
-      </c>
-      <c r="S11" s="77" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="12" spans="2:19" s="52" customFormat="1" x14ac:dyDescent="0.2">
@@ -3304,12 +3305,12 @@
       <c r="R18" s="51"/>
       <c r="S18" s="51"/>
     </row>
-    <row r="19" spans="2:19" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="72" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" ht="10.5" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="72"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
@@ -3341,94 +3342,94 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="103.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="103.5703125" customWidth="1"/>
-    <col min="8" max="13" width="2.85546875" customWidth="1"/>
+    <col min="6" max="6" width="103.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="103.5546875" customWidth="1"/>
+    <col min="8" max="13" width="2.88671875" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="2.85546875" customWidth="1"/>
+    <col min="15" max="15" width="2.88671875" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
-    <col min="17" max="17" width="2.85546875" customWidth="1"/>
+    <col min="17" max="17" width="2.88671875" customWidth="1"/>
     <col min="18" max="18" width="12" style="6"/>
     <col min="19" max="19" width="12" style="6" customWidth="1"/>
     <col min="20" max="16384" width="12" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="N2" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="O2" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="P2" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q2" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="R2" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="77" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="B3" s="58">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>103</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="73" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="73" t="s">
-        <v>106</v>
-      </c>
-      <c r="H2" s="73" t="s">
-        <v>107</v>
-      </c>
-      <c r="I2" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="J2" s="75" t="s">
-        <v>109</v>
-      </c>
-      <c r="K2" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="L2" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="M2" s="76" t="s">
-        <v>112</v>
-      </c>
-      <c r="N2" s="76" t="s">
-        <v>113</v>
-      </c>
-      <c r="O2" s="76" t="s">
-        <v>114</v>
-      </c>
-      <c r="P2" s="76" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q2" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="R2" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="S2" s="77" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="58">
-        <v>1</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>104</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>23</v>
@@ -3455,37 +3456,37 @@
         <v>0</v>
       </c>
       <c r="L3" s="66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M3" s="66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O3" s="66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q3" s="66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" s="58">
         <v>2</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>56</v>
@@ -3512,35 +3513,35 @@
         <v>0</v>
       </c>
       <c r="L4" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M4" s="66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O4" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q4" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="58">
         <v>3</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>37</v>
@@ -3567,37 +3568,37 @@
         <v>0</v>
       </c>
       <c r="L5" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M5" s="66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O5" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q5" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R5" s="12" t="s">
         <v>34</v>
       </c>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="58">
         <v>4</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>43</v>
@@ -3624,35 +3625,35 @@
         <v>0</v>
       </c>
       <c r="L6" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M6" s="66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O6" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q6" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="58">
         <v>5</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>44</v>
@@ -3679,35 +3680,35 @@
         <v>0</v>
       </c>
       <c r="L7" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M7" s="66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O7" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q7" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="58">
         <v>6</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>45</v>
@@ -3734,35 +3735,35 @@
         <v>0</v>
       </c>
       <c r="L8" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M8" s="66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O8" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q8" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="58">
         <v>7</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>46</v>
@@ -3789,35 +3790,35 @@
         <v>0</v>
       </c>
       <c r="L9" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M9" s="66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O9" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q9" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" s="58">
         <v>8</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>47</v>
@@ -3844,35 +3845,35 @@
         <v>0</v>
       </c>
       <c r="L10" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M10" s="66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O10" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="58">
         <v>9</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>48</v>
@@ -3899,35 +3900,35 @@
         <v>0</v>
       </c>
       <c r="L11" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M11" s="66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O11" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" s="58">
         <v>10</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>49</v>
@@ -3954,35 +3955,35 @@
         <v>0</v>
       </c>
       <c r="L12" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M12" s="66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O12" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q12" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="58">
         <v>11</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>57</v>
@@ -4009,35 +4010,35 @@
         <v>0</v>
       </c>
       <c r="L13" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M13" s="66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O13" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" s="58">
         <v>12</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>58</v>
@@ -4064,37 +4065,37 @@
         <v>1</v>
       </c>
       <c r="L14" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M14" s="66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O14" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q14" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R14" s="12" t="s">
         <v>34</v>
       </c>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" s="58">
         <v>13</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>59</v>
@@ -4121,22 +4122,22 @@
         <v>2</v>
       </c>
       <c r="L15" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M15" s="66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O15" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q15" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R15" s="12" t="s">
         <v>35</v>
@@ -4145,15 +4146,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="58">
         <v>14</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>61</v>
@@ -4162,7 +4163,7 @@
         <v>62</v>
       </c>
       <c r="F16" s="57" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="G16" s="57" t="s">
         <v>28</v>
@@ -4180,47 +4181,47 @@
         <v>0</v>
       </c>
       <c r="L16" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M16" s="66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O16" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q16" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" s="70">
         <v>15</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="78" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F17" s="57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G17" s="57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H17" s="56">
         <v>1</v>
@@ -4241,13 +4242,13 @@
         <v>300</v>
       </c>
       <c r="N17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17" s="67">
+        <v>1</v>
+      </c>
+      <c r="P17" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="O17" s="67">
-        <v>1</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="Q17" s="67">
         <v>1</v>
@@ -4255,27 +4256,27 @@
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B18" s="70">
         <v>16</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F18" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G18" s="57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H18" s="56">
         <v>1</v>
@@ -4296,13 +4297,13 @@
         <v>300</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O18" s="67">
         <v>2</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q18" s="67">
         <v>2</v>
@@ -4310,27 +4311,27 @@
       <c r="R18" s="12"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" s="70">
         <v>17</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F19" s="57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G19" s="57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H19" s="56">
         <v>1</v>
@@ -4351,13 +4352,13 @@
         <v>600</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O19" s="67">
         <v>3</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q19" s="67">
         <v>1</v>
@@ -4365,27 +4366,27 @@
       <c r="R19" s="12"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" s="69">
         <v>18</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F20" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G20" s="57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H20" s="56">
         <v>1</v>
@@ -4406,13 +4407,13 @@
         <v>600</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O20" s="67">
         <v>4</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q20" s="67">
         <v>2</v>
@@ -4420,9 +4421,9 @@
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="23"/>
@@ -4443,30 +4444,30 @@
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
     </row>
     <row r="23" spans="1:19" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="D23" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="71" t="s">
+      <c r="E23" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="E23" s="71" t="s">
+      <c r="F23" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="G23" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23" s="80" t="s">
         <v>122</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="H23" s="80" t="s">
-        <v>123</v>
       </c>
       <c r="I23" s="80"/>
       <c r="J23" s="80"/>
@@ -4474,68 +4475,68 @@
       <c r="L23" s="80"/>
       <c r="M23" s="80"/>
       <c r="N23" s="81" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O23" s="81"/>
       <c r="P23" s="81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q23" s="81"/>
       <c r="R23" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="S23" s="71" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="162" x14ac:dyDescent="0.25">
+      <c r="C24" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="S23" s="71" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="175.5" x14ac:dyDescent="0.2">
-      <c r="C24" s="79" t="s">
-        <v>128</v>
-      </c>
       <c r="F24" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" s="27"/>
+    </row>
+    <row r="25" spans="1:19" ht="153" x14ac:dyDescent="0.25">
+      <c r="F25" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="G24" s="27"/>
-    </row>
-    <row r="25" spans="1:19" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="F25" s="27" t="s">
+      <c r="G25" s="27"/>
+    </row>
+    <row r="26" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+      <c r="F26" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="G25" s="27"/>
-    </row>
-    <row r="26" spans="1:19" ht="87.75" x14ac:dyDescent="0.2">
-      <c r="F26" s="27" t="s">
-        <v>132</v>
-      </c>
       <c r="G26" s="27"/>
     </row>
-    <row r="27" spans="1:19" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="F27" s="27" t="s">
         <v>133</v>
       </c>
       <c r="G27" s="27"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
     </row>
@@ -4574,14 +4575,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4592,7 +4593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4603,7 +4604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -4615,7 +4616,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>

--- a/oase-root/libs/commonlibs/template.xlsx
+++ b/oase-root/libs/commonlibs/template.xlsx
@@ -2890,10 +2890,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C12" sqref="C12"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="9.6" x14ac:dyDescent="0.2"/>
@@ -3341,9 +3341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>

--- a/oase-root/libs/commonlibs/template.xlsx
+++ b/oase-root/libs/commonlibs/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="7176" tabRatio="601"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="7170" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -15,14 +15,14 @@
     <definedName name="ClaimTypes">Lists!$A$5:$A$7</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_1">Tables!#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">Lists!$A$5:$A$7</definedName>
-    <definedName name="None">example!$E$17</definedName>
+    <definedName name="None">example!$E$18</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcOnSave="0"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="138">
   <si>
     <t>RuleSet</t>
   </si>
@@ -277,10 +277,6 @@
   </si>
   <si>
     <t>X</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>rule15</t>
     <phoneticPr fontId="11"/>
   </si>
   <si>
@@ -1722,6 +1718,25 @@
     <t>[ServiceNow Driver]
 SERVICE_NAME is required. It is linked to the ServiceNow_driver name in the OASE System screen -&gt;Action settings.
 INCIDENT_STATUSは必須です。ServiceNowに設定するStateの「OPEN」or「CLOSE」を記述します。</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>^.*An error has occured.*$</t>
+  </si>
+  <si>
+    <t>rule15</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>rule19</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>SERVICENOW_NAME=ServiceNowTest,WORKFLOW_ID=abcdef1234567890</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -1943,7 +1958,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -2211,11 +2226,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2498,6 +2524,10 @@
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2896,16 +2926,16 @@
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="9.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="9.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="31" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="31" customWidth="1"/>
-    <col min="3" max="23" width="9.109375" style="31" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" style="31" customWidth="1"/>
-    <col min="25" max="16384" width="9.109375" style="31"/>
+    <col min="1" max="1" width="3.5703125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="31" customWidth="1"/>
+    <col min="3" max="23" width="9.140625" style="31" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="31" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1" s="29"/>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -2969,7 +2999,7 @@
     <row r="6" spans="2:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="2:19" s="35" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="36"/>
       <c r="C7" s="37"/>
       <c r="D7" s="38"/>
@@ -2989,7 +3019,7 @@
       <c r="R7" s="39"/>
       <c r="S7" s="39"/>
     </row>
-    <row r="8" spans="2:19" s="10" customFormat="1" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:19" s="10" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B8" s="40"/>
       <c r="C8" s="41" t="s">
         <v>11</v>
@@ -3063,7 +3093,7 @@
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
     </row>
-    <row r="10" spans="2:19" s="10" customFormat="1" ht="38.4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:19" s="10" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="B10" s="46"/>
       <c r="C10" s="47"/>
       <c r="D10" s="7" t="s">
@@ -3113,56 +3143,56 @@
     </row>
     <row r="11" spans="2:19" s="49" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="48"/>
       <c r="D11" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="73" t="s">
+      <c r="F11" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="G11" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="73" t="s">
+      <c r="I11" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="73" t="s">
+      <c r="J11" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="J11" s="75" t="s">
+      <c r="K11" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="K11" s="76" t="s">
-        <v>97</v>
-      </c>
-      <c r="L11" s="76" t="s">
+      <c r="M11" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="M11" s="76" t="s">
+      <c r="N11" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="N11" s="76" t="s">
+      <c r="O11" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="O11" s="76" t="s">
+      <c r="P11" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="P11" s="76" t="s">
+      <c r="Q11" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="Q11" s="76" t="s">
-        <v>96</v>
-      </c>
       <c r="R11" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="S11" s="77" t="s">
         <v>81</v>
-      </c>
-      <c r="S11" s="77" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="12" spans="2:19" s="52" customFormat="1" x14ac:dyDescent="0.2">
@@ -3305,12 +3335,12 @@
       <c r="R18" s="51"/>
       <c r="S18" s="51"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:19" ht="10.5" x14ac:dyDescent="0.2">
       <c r="B19" s="72" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" ht="10.5" x14ac:dyDescent="0.2">
       <c r="B20" s="72"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
@@ -3339,95 +3369,95 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="103.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="103.5546875" customWidth="1"/>
-    <col min="8" max="13" width="2.88671875" customWidth="1"/>
+    <col min="6" max="6" width="103.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="103.5703125" customWidth="1"/>
+    <col min="8" max="13" width="2.85546875" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="2.88671875" customWidth="1"/>
+    <col min="15" max="15" width="2.85546875" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
-    <col min="17" max="17" width="2.88671875" customWidth="1"/>
+    <col min="17" max="17" width="2.85546875" customWidth="1"/>
     <col min="18" max="18" width="12" style="6"/>
     <col min="19" max="19" width="12" style="6" customWidth="1"/>
     <col min="20" max="16384" width="12" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" s="76" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="O2" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="P2" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q2" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="R2" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="S2" s="77" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="B3" s="58">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="73" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" s="73" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" s="73" t="s">
-        <v>106</v>
-      </c>
-      <c r="I2" s="73" t="s">
-        <v>107</v>
-      </c>
-      <c r="J2" s="75" t="s">
-        <v>108</v>
-      </c>
-      <c r="K2" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="L2" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="M2" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="N2" s="76" t="s">
-        <v>112</v>
-      </c>
-      <c r="O2" s="76" t="s">
-        <v>113</v>
-      </c>
-      <c r="P2" s="76" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q2" s="76" t="s">
-        <v>115</v>
-      </c>
-      <c r="R2" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="S2" s="77" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="58">
-        <v>1</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>23</v>
@@ -3476,15 +3506,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="58">
         <v>2</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>56</v>
@@ -3531,15 +3561,15 @@
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="58">
         <v>3</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>37</v>
@@ -3588,15 +3618,15 @@
       </c>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="58">
         <v>4</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>43</v>
@@ -3643,15 +3673,15 @@
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="58">
         <v>5</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>44</v>
@@ -3698,15 +3728,15 @@
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="58">
         <v>6</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>45</v>
@@ -3753,15 +3783,15 @@
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" s="58">
         <v>7</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>46</v>
@@ -3808,15 +3838,15 @@
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" s="58">
         <v>8</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>47</v>
@@ -3863,15 +3893,15 @@
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" s="58">
         <v>9</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>48</v>
@@ -3918,15 +3948,15 @@
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="58">
         <v>10</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>49</v>
@@ -3973,15 +4003,15 @@
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" s="58">
         <v>11</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>57</v>
@@ -4028,15 +4058,15 @@
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B14" s="58">
         <v>12</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>58</v>
@@ -4085,15 +4115,15 @@
       </c>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" s="58">
         <v>13</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>59</v>
@@ -4144,15 +4174,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="58">
         <v>14</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>61</v>
@@ -4161,7 +4191,7 @@
         <v>62</v>
       </c>
       <c r="F16" s="57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G16" s="57" t="s">
         <v>28</v>
@@ -4199,27 +4229,27 @@
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="70">
+        <v>98</v>
+      </c>
+      <c r="B17" s="82">
         <v>15</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="78" t="s">
-        <v>116</v>
+        <v>134</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="F17" s="57" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="G17" s="57" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="H17" s="56">
         <v>1</v>
@@ -4233,45 +4263,45 @@
       <c r="K17" s="56">
         <v>0</v>
       </c>
-      <c r="L17" s="67">
-        <v>3</v>
-      </c>
-      <c r="M17" s="64">
-        <v>300</v>
+      <c r="L17" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="M17" s="64" t="s">
+        <v>136</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O17" s="67">
-        <v>1</v>
+        <v>136</v>
+      </c>
+      <c r="O17" s="67" t="s">
+        <v>136</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q17" s="67">
-        <v>1</v>
+        <v>136</v>
+      </c>
+      <c r="Q17" s="67" t="s">
+        <v>136</v>
       </c>
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18" s="70">
         <v>16</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>39</v>
+        <v>73</v>
+      </c>
+      <c r="E18" s="78" t="s">
+        <v>115</v>
       </c>
       <c r="F18" s="57" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G18" s="57" t="s">
         <v>70</v>
@@ -4295,38 +4325,38 @@
         <v>300</v>
       </c>
       <c r="N18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O18" s="67">
+        <v>1</v>
+      </c>
+      <c r="P18" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="O18" s="67">
-        <v>2</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="Q18" s="67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R18" s="12"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B19" s="70">
         <v>17</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="F19" s="57" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G19" s="57" t="s">
         <v>70</v>
@@ -4344,44 +4374,44 @@
         <v>0</v>
       </c>
       <c r="L19" s="67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M19" s="64">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O19" s="67">
+        <v>2</v>
+      </c>
+      <c r="P19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="O19" s="67">
-        <v>3</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="Q19" s="67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="69">
+        <v>98</v>
+      </c>
+      <c r="B20" s="70">
         <v>18</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="F20" s="57" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G20" s="57" t="s">
         <v>70</v>
@@ -4405,158 +4435,213 @@
         <v>600</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O20" s="67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" s="18" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="68"/>
+        <v>98</v>
+      </c>
+      <c r="B21" s="69">
+        <v>19</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="56">
+        <v>1</v>
+      </c>
+      <c r="I21" s="56">
+        <v>1</v>
+      </c>
+      <c r="J21" s="56">
+        <v>0</v>
+      </c>
+      <c r="K21" s="56">
+        <v>0</v>
+      </c>
+      <c r="L21" s="67">
+        <v>1</v>
+      </c>
+      <c r="M21" s="64">
+        <v>600</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O21" s="67">
+        <v>4</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q21" s="67">
+        <v>2</v>
+      </c>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-    </row>
-    <row r="23" spans="1:19" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="26" t="s">
+    <row r="22" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B23" s="14"/>
+    </row>
+    <row r="24" spans="1:19" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="D24" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="71" t="s">
+      <c r="E24" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="E23" s="71" t="s">
+      <c r="F24" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="G24" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="H24" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="S24" s="71" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="175.5" x14ac:dyDescent="0.2">
+      <c r="C25" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="H23" s="80" t="s">
-        <v>122</v>
-      </c>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="81" t="s">
-        <v>123</v>
-      </c>
-      <c r="O23" s="81"/>
-      <c r="P23" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="S23" s="71" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="162" x14ac:dyDescent="0.25">
-      <c r="C24" s="79" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24" s="27" t="s">
+      <c r="G25" s="27"/>
+    </row>
+    <row r="26" spans="1:19" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="F26" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="G24" s="27"/>
-    </row>
-    <row r="25" spans="1:19" ht="153" x14ac:dyDescent="0.25">
-      <c r="F25" s="27" t="s">
+      <c r="G26" s="27"/>
+    </row>
+    <row r="27" spans="1:19" ht="87.75" x14ac:dyDescent="0.2">
+      <c r="F27" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="G25" s="27"/>
-    </row>
-    <row r="26" spans="1:19" ht="81" x14ac:dyDescent="0.25">
-      <c r="F26" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="G26" s="27"/>
-    </row>
-    <row r="27" spans="1:19" ht="27" x14ac:dyDescent="0.25">
-      <c r="F27" s="27" t="s">
-        <v>133</v>
-      </c>
       <c r="G27" s="27"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="29.25" x14ac:dyDescent="0.2">
+      <c r="F28" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="27"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="3">
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E21">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E22">
       <formula1>"ITA,mail"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E18 E20">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E19 E21">
       <formula1>"ITA(ver1),mail(ver1),ServiceNow(ver1)"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E3:E16">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E3:E17">
       <formula1>"なし,ITA(ver1),mail(ver1),ServiceNow(ver1)"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E17 E19">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E18 E20">
       <formula1>"None,ITA(ver1),mail(ver1),ServiceNow(ver1)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4573,14 +4658,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4591,7 +4676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4602,7 +4687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -4614,7 +4699,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>

--- a/oase-root/libs/commonlibs/template.xlsx
+++ b/oase-root/libs/commonlibs/template.xlsx
@@ -1715,12 +1715,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>[ServiceNow Driver]
-SERVICE_NAME is required. It is linked to the ServiceNow_driver name in the OASE System screen -&gt;Action settings.
-INCIDENT_STATUSは必須です。ServiceNowに設定するStateの「OPEN」or「CLOSE」を記述します。</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>^.*An error has occured.*$</t>
   </si>
   <si>
@@ -1738,6 +1732,12 @@
   <si>
     <t>SERVICENOW_NAME=ServiceNowTest,WORKFLOW_ID=abcdef1234567890</t>
     <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>【ServiceNowドライバー】
+SERVICENOW_NAMEは必須です。OASE画面のシステム-アクション設定-ServiceNow_driverの名前と紐づけます。
+INCIDENT_STATUSはインシデント管理の際に必要です。ServiceNowインシデント管理のレコードを新規登録する「OPEN」、インシデント対処中となる「IN PROGRESS」、インシデント解決済みとなる「RESOLVED」またはインシデントを閉じる「CLOSE」を記述します。
+WORKFLOW_IDはワークフローの実行に必要です。ServiceNowのワークフロースケジュール編集画面から、sys_idを取得してください。</t>
   </si>
 </sst>
 </file>
@@ -2519,15 +2519,15 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4233,23 +4233,23 @@
       <c r="A17" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="82">
+      <c r="B17" s="80">
         <v>15</v>
       </c>
       <c r="C17" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F17" s="57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G17" s="57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H17" s="56">
         <v>1</v>
@@ -4264,22 +4264,22 @@
         <v>0</v>
       </c>
       <c r="L17" s="67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M17" s="64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O17" s="67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q17" s="67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
@@ -4460,7 +4460,7 @@
         <v>102</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>39</v>
@@ -4549,22 +4549,22 @@
       <c r="G24" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="H24" s="80" t="s">
+      <c r="H24" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="81" t="s">
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="O24" s="81"/>
-      <c r="P24" s="81" t="s">
+      <c r="O24" s="82"/>
+      <c r="P24" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="Q24" s="81"/>
+      <c r="Q24" s="82"/>
       <c r="R24" s="28" t="s">
         <v>125</v>
       </c>
@@ -4593,9 +4593,9 @@
       </c>
       <c r="G27" s="27"/>
     </row>
-    <row r="28" spans="1:19" ht="29.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="48.75" x14ac:dyDescent="0.2">
       <c r="F28" s="27" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G28" s="27"/>
     </row>

--- a/oase-root/libs/commonlibs/template.xlsx
+++ b/oase-root/libs/commonlibs/template.xlsx
@@ -15,14 +15,14 @@
     <definedName name="ClaimTypes">Lists!$A$5:$A$7</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_1">Tables!#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">Lists!$A$5:$A$7</definedName>
-    <definedName name="None">example!$E$18</definedName>
+    <definedName name="None">example!$E$19</definedName>
   </definedNames>
   <calcPr calcId="162913" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="140">
   <si>
     <t>RuleSet</t>
   </si>
@@ -288,23 +288,11 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>rule16</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>ITA_NAME=action43,CONDUCTOR_CLASS_ID=2,OPERATION_ID=2</t>
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>rule17</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>group20</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>rule18</t>
     <phoneticPr fontId="11"/>
   </si>
   <si>
@@ -1722,22 +1710,40 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
+    <t>X</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>SERVICENOW_NAME=ServiceNowTest,WORKFLOW_ID=abcdef1234567890</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>rule16</t>
+  </si>
+  <si>
+    <t>rule17</t>
+  </si>
+  <si>
+    <t>rule18</t>
+  </si>
+  <si>
     <t>rule19</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>SERVICENOW_NAME=ServiceNowTest,WORKFLOW_ID=abcdef1234567890</t>
+  </si>
+  <si>
+    <t>rule20</t>
+  </si>
+  <si>
+    <t>SERVICENOW_NAME=ServiceNowTest,INCIDENT_STATUS=IN PROGRESS,WORK_NOTES=APPROVED</t>
     <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>【ServiceNowドライバー】
 SERVICENOW_NAMEは必須です。OASE画面のシステム-アクション設定-ServiceNow_driverの名前と紐づけます。
 INCIDENT_STATUSはインシデント管理の際に必要です。ServiceNowインシデント管理のレコードを新規登録する「OPEN」、インシデント対処中となる「IN PROGRESS」、インシデント解決済みとなる「RESOLVED」またはインシデントを閉じる「CLOSE」を記述します。
-WORKFLOW_IDはワークフローの実行に必要です。ServiceNowのワークフロースケジュール編集画面から、sys_idを取得してください。</t>
+WORKFLOW_IDはワークフローの実行に必要です。ServiceNowのワークフロースケジュール編集画面から、sys_idを取得してください。
+WORK_NOTESはSerivceNowに実装されているFlow Designer等を利用してOASEのアクション実行前に承認アクションを追加したい場合に必要です。
+ServiceNowのIncidentの作業メモに記載されている情報と紐づけます。</t>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
@@ -1958,7 +1964,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -2215,21 +2221,6 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -2241,7 +2232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2485,14 +2476,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2519,7 +2502,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3143,56 +3126,56 @@
     </row>
     <row r="11" spans="2:19" s="49" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="54" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C11" s="48"/>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="73" t="s">
+      <c r="I11" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="J11" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="73" t="s">
+      <c r="K11" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="73" t="s">
+      <c r="M11" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="J11" s="75" t="s">
+      <c r="N11" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="K11" s="76" t="s">
-        <v>96</v>
-      </c>
-      <c r="L11" s="76" t="s">
+      <c r="O11" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="M11" s="76" t="s">
+      <c r="P11" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="N11" s="76" t="s">
+      <c r="Q11" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="O11" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="P11" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q11" s="76" t="s">
-        <v>95</v>
-      </c>
-      <c r="R11" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="S11" s="77" t="s">
-        <v>81</v>
+      <c r="R11" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="S11" s="75" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="2:19" s="52" customFormat="1" x14ac:dyDescent="0.2">
@@ -3336,12 +3319,12 @@
       <c r="S18" s="51"/>
     </row>
     <row r="19" spans="2:19" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="72" t="s">
-        <v>82</v>
+      <c r="B19" s="70" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="2:19" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="72"/>
+      <c r="B20" s="70"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="53"/>
@@ -3369,7 +3352,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
@@ -3395,69 +3378,69 @@
     <row r="1" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="F2" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="73" t="s">
+      <c r="H2" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="J2" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="73" t="s">
+      <c r="K2" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="73" t="s">
+      <c r="L2" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="M2" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="76" t="s">
+      <c r="N2" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="L2" s="76" t="s">
+      <c r="O2" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="M2" s="76" t="s">
+      <c r="P2" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="N2" s="76" t="s">
+      <c r="Q2" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="O2" s="76" t="s">
-        <v>112</v>
-      </c>
-      <c r="P2" s="76" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q2" s="76" t="s">
-        <v>114</v>
-      </c>
-      <c r="R2" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="S2" s="77" t="s">
-        <v>81</v>
+      <c r="R2" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="S2" s="75" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B3" s="58">
         <v>1</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>23</v>
@@ -3508,13 +3491,13 @@
     </row>
     <row r="4" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B4" s="58">
         <v>2</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>56</v>
@@ -3563,13 +3546,13 @@
     </row>
     <row r="5" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B5" s="58">
         <v>3</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>37</v>
@@ -3620,13 +3603,13 @@
     </row>
     <row r="6" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B6" s="58">
         <v>4</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>43</v>
@@ -3675,13 +3658,13 @@
     </row>
     <row r="7" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B7" s="58">
         <v>5</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>44</v>
@@ -3730,13 +3713,13 @@
     </row>
     <row r="8" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B8" s="58">
         <v>6</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>45</v>
@@ -3785,13 +3768,13 @@
     </row>
     <row r="9" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B9" s="58">
         <v>7</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>46</v>
@@ -3840,13 +3823,13 @@
     </row>
     <row r="10" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B10" s="58">
         <v>8</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>47</v>
@@ -3895,13 +3878,13 @@
     </row>
     <row r="11" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B11" s="58">
         <v>9</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>48</v>
@@ -3950,13 +3933,13 @@
     </row>
     <row r="12" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B12" s="58">
         <v>10</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>49</v>
@@ -4005,13 +3988,13 @@
     </row>
     <row r="13" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B13" s="58">
         <v>11</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>57</v>
@@ -4060,13 +4043,13 @@
     </row>
     <row r="14" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B14" s="58">
         <v>12</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>58</v>
@@ -4117,13 +4100,13 @@
     </row>
     <row r="15" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B15" s="58">
         <v>13</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>59</v>
@@ -4176,13 +4159,13 @@
     </row>
     <row r="16" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B16" s="58">
         <v>14</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>61</v>
@@ -4191,7 +4174,7 @@
         <v>62</v>
       </c>
       <c r="F16" s="57" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G16" s="57" t="s">
         <v>28</v>
@@ -4231,25 +4214,25 @@
     </row>
     <row r="17" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="80">
+        <v>95</v>
+      </c>
+      <c r="B17" s="78">
         <v>15</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F17" s="57" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G17" s="57" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H17" s="56">
         <v>1</v>
@@ -4264,47 +4247,47 @@
         <v>0</v>
       </c>
       <c r="L17" s="67" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M17" s="64" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O17" s="67" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Q17" s="67" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
     </row>
     <row r="18" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="70">
+        <v>95</v>
+      </c>
+      <c r="B18" s="78">
         <v>16</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="78" t="s">
-        <v>115</v>
+        <v>133</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="F18" s="57" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="G18" s="57" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="H18" s="56">
         <v>1</v>
@@ -4318,45 +4301,45 @@
       <c r="K18" s="56">
         <v>0</v>
       </c>
-      <c r="L18" s="67">
-        <v>3</v>
-      </c>
-      <c r="M18" s="64">
-        <v>300</v>
+      <c r="L18" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="64" t="s">
+        <v>28</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O18" s="67">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="O18" s="67" t="s">
+        <v>28</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q18" s="67">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="Q18" s="67" t="s">
+        <v>28</v>
       </c>
       <c r="R18" s="12"/>
       <c r="S18" s="12"/>
     </row>
     <row r="19" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="70">
+        <v>95</v>
+      </c>
+      <c r="B19" s="78">
         <v>17</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>39</v>
+        <v>134</v>
+      </c>
+      <c r="E19" s="76" t="s">
+        <v>112</v>
       </c>
       <c r="F19" s="57" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G19" s="57" t="s">
         <v>70</v>
@@ -4383,35 +4366,35 @@
         <v>71</v>
       </c>
       <c r="O19" s="67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>72</v>
       </c>
       <c r="Q19" s="67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="12"/>
     </row>
     <row r="20" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="70">
+        <v>95</v>
+      </c>
+      <c r="B20" s="78">
         <v>18</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="F20" s="57" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G20" s="57" t="s">
         <v>70</v>
@@ -4429,44 +4412,44 @@
         <v>0</v>
       </c>
       <c r="L20" s="67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M20" s="64">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>71</v>
       </c>
       <c r="O20" s="67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q20" s="67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
     </row>
     <row r="21" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="69">
+        <v>95</v>
+      </c>
+      <c r="B21" s="78">
         <v>19</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="F21" s="57" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G21" s="57" t="s">
         <v>70</v>
@@ -4493,115 +4476,166 @@
         <v>71</v>
       </c>
       <c r="O21" s="67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q21" s="67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
     </row>
     <row r="22" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="68"/>
+        <v>95</v>
+      </c>
+      <c r="B22" s="78">
+        <v>20</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="56">
+        <v>1</v>
+      </c>
+      <c r="I22" s="56">
+        <v>1</v>
+      </c>
+      <c r="J22" s="56">
+        <v>0</v>
+      </c>
+      <c r="K22" s="56">
+        <v>0</v>
+      </c>
+      <c r="L22" s="67">
+        <v>1</v>
+      </c>
+      <c r="M22" s="64">
+        <v>600</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O22" s="67">
+        <v>4</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q22" s="67">
+        <v>2</v>
+      </c>
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B23" s="14"/>
-    </row>
-    <row r="24" spans="1:19" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="26" t="s">
+    <row r="23" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B24" s="14"/>
+    </row>
+    <row r="25" spans="1:19" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="F25" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D24" s="71" t="s">
+      <c r="G25" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="71" t="s">
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="O25" s="80"/>
+      <c r="P25" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="Q25" s="80"/>
+      <c r="R25" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="S25" s="69" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="175.5" x14ac:dyDescent="0.2">
+      <c r="C26" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="27"/>
+    </row>
+    <row r="27" spans="1:19" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="F27" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" s="27"/>
+    </row>
+    <row r="28" spans="1:19" ht="87.75" x14ac:dyDescent="0.2">
+      <c r="F28" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="H24" s="81" t="s">
-        <v>121</v>
-      </c>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="82" t="s">
-        <v>122</v>
-      </c>
-      <c r="O24" s="82"/>
-      <c r="P24" s="82" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q24" s="82"/>
-      <c r="R24" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="S24" s="71" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="175.5" x14ac:dyDescent="0.2">
-      <c r="C25" s="79" t="s">
-        <v>126</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="G25" s="27"/>
-    </row>
-    <row r="26" spans="1:19" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="F26" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="G26" s="27"/>
-    </row>
-    <row r="27" spans="1:19" ht="87.75" x14ac:dyDescent="0.2">
-      <c r="F27" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="G27" s="27"/>
-    </row>
-    <row r="28" spans="1:19" ht="48.75" x14ac:dyDescent="0.2">
-      <c r="F28" s="27" t="s">
-        <v>137</v>
-      </c>
       <c r="G28" s="27"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
+    <row r="29" spans="1:19" ht="68.25" x14ac:dyDescent="0.2">
+      <c r="F29" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F30" s="25"/>
@@ -4623,25 +4657,29 @@
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
     </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="3">
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E22">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E23">
       <formula1>"ITA,mail"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E19 E21">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E20 E22">
       <formula1>"ITA(ver1),mail(ver1),ServiceNow(ver1)"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E3:E17">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E3:E18">
       <formula1>"なし,ITA(ver1),mail(ver1),ServiceNow(ver1)"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E18 E20">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E19 E21">
       <formula1>"None,ITA(ver1),mail(ver1),ServiceNow(ver1)"</formula1>
     </dataValidation>
   </dataValidations>

--- a/oase-root/libs/commonlibs/template.xlsx
+++ b/oase-root/libs/commonlibs/template.xlsx
@@ -15,14 +15,14 @@
     <definedName name="ClaimTypes">Lists!$A$5:$A$7</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_1">Tables!#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">Lists!$A$5:$A$7</definedName>
-    <definedName name="None">example!$E$19</definedName>
+    <definedName name="None">example!$G$19</definedName>
   </definedNames>
   <calcPr calcId="162913" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="155">
   <si>
     <t>RuleSet</t>
   </si>
@@ -1597,9 +1597,6 @@
   </si>
   <si>
     <t>Enter a unique name.</t>
-  </si>
-  <si>
-    <t>Choose the action type you want to execute from the pulldown menu.</t>
   </si>
   <si>
     <t xml:space="preserve">This item's input method changes depending on the driver.
@@ -1699,10 +1696,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>SERVICENOW_NAME=ServiceNowTest,INCIDENT_STATUS=OPEN</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>^.*An error has occured.*$</t>
   </si>
   <si>
@@ -1731,18 +1724,315 @@
   </si>
   <si>
     <t>rule20</t>
-  </si>
-  <si>
-    <t>SERVICENOW_NAME=ServiceNowTest,INCIDENT_STATUS=IN PROGRESS,WORK_NOTES=APPROVED</t>
-    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>【ServiceNowドライバー】
 SERVICENOW_NAMEは必須です。OASE画面のシステム-アクション設定-ServiceNow_driverの名前と紐づけます。
-INCIDENT_STATUSはインシデント管理の際に必要です。ServiceNowインシデント管理のレコードを新規登録する「OPEN」、インシデント対処中となる「IN PROGRESS」、インシデント解決済みとなる「RESOLVED」またはインシデントを閉じる「CLOSE」を記述します。
+INCIDENT_STATUSはインシデント管理の際に必要です。ServiceNowインシデント管理のレコードを新規登録する「NEW」、インシデント対処中となる「IN_PROGRESS」、インシデント解決済みとなる「RESOLVED」またはインシデントを閉じる「CLOSED」を記述します。
 WORKFLOW_IDはワークフローの実行に必要です。ServiceNowのワークフロースケジュール編集画面から、sys_idを取得してください。
 WORK_NOTESはSerivceNowに実装されているFlow Designer等を利用してOASEのアクション実行前に承認アクションを追加したい場合に必要です。
 ServiceNowのIncidentの作業メモに記載されている情報と紐づけます。</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>m.getActs().addIncidentHappened("$param");</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.getActs().addHandlingSummary("$param");</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Incident happened</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color indexed="17"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color indexed="30"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color indexed="30"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Define with "X" if not needed</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Handling summary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color indexed="17"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color indexed="30"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color indexed="30"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Define with "X" if not needed</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incident happened
+（Required）</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Handling summary
+（Required）</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>メール通知</t>
+    <rPh sb="3" eb="5">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ハードウェアの故障</t>
+    <rPh sb="7" eb="9">
+      <t>コショウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <t>ITA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>による対処</t>
+    </r>
+    <rPh sb="6" eb="8">
+      <t>タイショ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <t>ServiceNow</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に記票</t>
+    </r>
+    <rPh sb="11" eb="13">
+      <t>キヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ServiceNowのワークフローの実行</t>
+    <rPh sb="18" eb="20">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <t>ServiceNow</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>のインシデントステータスの更新(承認付)</t>
+    </r>
+    <rPh sb="23" eb="25">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>発生した事象の内容を記入してください。記入したい内容がない場合は「X」を記入してください。</t>
+    <rPh sb="0" eb="2">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>対処方法を記入してください。記入内容がない場合は「X」を記入してください。</t>
+    <rPh sb="0" eb="2">
+      <t>タイショ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>SERVICENOW_NAME=ServiceNowTest,INCIDENT_STATUS=NEW</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>SERVICENOW_NAME=ServiceNowTest,INCIDENT_STATUS=IN_PROGRESS,WORK_NOTES=APPROVED</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Choose the action type you want to execute from the pulldown menu.</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -1750,7 +2040,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1905,6 +2195,13 @@
     <font>
       <sz val="7"/>
       <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color theme="4"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2232,7 +2529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2503,6 +2800,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2901,7 +3205,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S36"/>
+  <dimension ref="B1:U36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -2913,12 +3217,12 @@
   <cols>
     <col min="1" max="1" width="3.5703125" style="31" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="31" customWidth="1"/>
-    <col min="3" max="23" width="9.140625" style="31" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="31" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="31"/>
+    <col min="3" max="25" width="9.140625" style="31" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" style="31" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1" s="29"/>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -2926,8 +3230,10 @@
       <c r="F1" s="30"/>
       <c r="G1" s="30"/>
       <c r="H1" s="30"/>
-    </row>
-    <row r="2" spans="2:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+    </row>
+    <row r="2" spans="2:21" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="32"/>
       <c r="C2" s="33" t="s">
         <v>0</v>
@@ -2939,8 +3245,10 @@
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
       <c r="J2" s="34"/>
-    </row>
-    <row r="3" spans="2:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+    </row>
+    <row r="3" spans="2:21" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="32"/>
       <c r="C3" s="33" t="s">
         <v>12</v>
@@ -2952,8 +3260,10 @@
       <c r="H3" s="34"/>
       <c r="I3" s="34"/>
       <c r="J3" s="34"/>
-    </row>
-    <row r="4" spans="2:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+    </row>
+    <row r="4" spans="2:21" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="32"/>
       <c r="C4" s="33" t="s">
         <v>13</v>
@@ -2965,8 +3275,10 @@
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
-    </row>
-    <row r="5" spans="2:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+    </row>
+    <row r="5" spans="2:21" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="32"/>
       <c r="C5" s="33" t="s">
         <v>25</v>
@@ -2978,16 +3290,18 @@
       <c r="H5" s="34"/>
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
-    </row>
-    <row r="6" spans="2:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+    </row>
+    <row r="6" spans="2:21" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="2:19" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:21" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="36"/>
       <c r="C7" s="37"/>
       <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
       <c r="I7" s="39"/>
@@ -3001,8 +3315,10 @@
       <c r="Q7" s="39"/>
       <c r="R7" s="39"/>
       <c r="S7" s="39"/>
-    </row>
-    <row r="8" spans="2:19" s="10" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+    </row>
+    <row r="8" spans="2:21" s="10" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B8" s="40"/>
       <c r="C8" s="41" t="s">
         <v>11</v>
@@ -3017,21 +3333,21 @@
         <v>1</v>
       </c>
       <c r="G8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="17" t="s">
+      <c r="J8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="16" t="s">
         <v>1</v>
       </c>
       <c r="M8" s="17" t="s">
@@ -3041,22 +3357,28 @@
         <v>1</v>
       </c>
       <c r="O8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="P8" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="17" t="s">
+      <c r="R8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="R8" s="9" t="s">
+      <c r="T8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="S8" s="9" t="s">
+      <c r="U8" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="42"/>
       <c r="C9" s="43"/>
       <c r="D9" s="44"/>
@@ -3065,9 +3387,9 @@
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="45"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
@@ -3075,56 +3397,64 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
-    </row>
-    <row r="10" spans="2:19" s="10" customFormat="1" ht="39" x14ac:dyDescent="0.2">
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+    </row>
+    <row r="10" spans="2:21" s="10" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="B10" s="46"/>
       <c r="C10" s="47"/>
       <c r="D10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="L10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="M10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="N10" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="O10" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="P10" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="Q10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="R10" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="Q10" s="9" t="s">
+      <c r="S10" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-    </row>
-    <row r="11" spans="2:19" s="49" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+    </row>
+    <row r="11" spans="2:21" s="49" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="54" t="s">
         <v>76</v>
       </c>
@@ -3133,52 +3463,58 @@
         <v>81</v>
       </c>
       <c r="E11" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="H11" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="71" t="s">
+      <c r="I11" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="71" t="s">
+      <c r="J11" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="71" t="s">
+      <c r="K11" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="J11" s="73" t="s">
+      <c r="L11" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="K11" s="74" t="s">
+      <c r="M11" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="L11" s="74" t="s">
+      <c r="N11" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="M11" s="74" t="s">
+      <c r="O11" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="N11" s="74" t="s">
+      <c r="P11" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="O11" s="74" t="s">
+      <c r="Q11" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="P11" s="74" t="s">
+      <c r="R11" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="Q11" s="74" t="s">
+      <c r="S11" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="R11" s="75" t="s">
+      <c r="T11" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="S11" s="75" t="s">
+      <c r="U11" s="75" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="2:19" s="52" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:21" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11"/>
       <c r="C12" s="50"/>
       <c r="D12" s="5"/>
@@ -3189,36 +3525,40 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="59"/>
       <c r="O12" s="60"/>
       <c r="P12" s="60"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-    </row>
-    <row r="13" spans="2:19" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+    </row>
+    <row r="13" spans="2:21" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
       <c r="C13" s="50"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="80"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="59"/>
       <c r="O13" s="61"/>
       <c r="P13" s="61"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-    </row>
-    <row r="14" spans="2:19" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+    </row>
+    <row r="14" spans="2:21" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="11"/>
       <c r="C14" s="50"/>
       <c r="D14" s="5"/>
@@ -3229,16 +3569,18 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="59"/>
       <c r="O14" s="61"/>
       <c r="P14" s="61"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-    </row>
-    <row r="15" spans="2:19" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+    </row>
+    <row r="15" spans="2:21" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="11"/>
       <c r="C15" s="50"/>
       <c r="D15" s="5"/>
@@ -3249,16 +3591,18 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="59"/>
       <c r="O15" s="61"/>
       <c r="P15" s="61"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-    </row>
-    <row r="16" spans="2:19" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+    </row>
+    <row r="16" spans="2:21" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
       <c r="C16" s="50"/>
       <c r="D16" s="5"/>
@@ -3269,16 +3613,18 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="59"/>
       <c r="O16" s="61"/>
       <c r="P16" s="61"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-    </row>
-    <row r="17" spans="2:19" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+    </row>
+    <row r="17" spans="2:21" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="11"/>
       <c r="C17" s="50"/>
       <c r="D17" s="5"/>
@@ -3289,16 +3635,18 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="59"/>
       <c r="O17" s="61"/>
       <c r="P17" s="61"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-    </row>
-    <row r="18" spans="2:19" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
+    </row>
+    <row r="18" spans="2:21" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="11"/>
       <c r="C18" s="50"/>
       <c r="D18" s="5"/>
@@ -3309,21 +3657,23 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="59"/>
       <c r="O18" s="61"/>
       <c r="P18" s="61"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-    </row>
-    <row r="19" spans="2:19" ht="10.5" x14ac:dyDescent="0.2">
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+    </row>
+    <row r="19" spans="2:21" ht="10.5" x14ac:dyDescent="0.2">
       <c r="B19" s="70" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="2:19" ht="10.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:21" ht="10.5" x14ac:dyDescent="0.2">
       <c r="B20" s="70"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
@@ -3342,7 +3692,7 @@
           <x14:formula1>
             <xm:f>Lists!$G$5:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E12:E18</xm:sqref>
+          <xm:sqref>G12:G18</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3352,7 +3702,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
@@ -3361,22 +3711,22 @@
     <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="103.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="103.5703125" customWidth="1"/>
-    <col min="8" max="13" width="2.85546875" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="2.85546875" customWidth="1"/>
+    <col min="4" max="6" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="103.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="103.5703125" customWidth="1"/>
+    <col min="10" max="15" width="2.85546875" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
     <col min="17" max="17" width="2.85546875" customWidth="1"/>
-    <col min="18" max="18" width="12" style="6"/>
-    <col min="19" max="19" width="12" style="6" customWidth="1"/>
-    <col min="20" max="16384" width="12" style="6"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" customWidth="1"/>
+    <col min="20" max="20" width="12" style="6"/>
+    <col min="21" max="21" width="12" style="6" customWidth="1"/>
+    <col min="22" max="16384" width="12" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="55" t="s">
         <v>94</v>
       </c>
@@ -3387,52 +3737,58 @@
         <v>96</v>
       </c>
       <c r="E2" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="H2" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="I2" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="J2" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="K2" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="J2" s="73" t="s">
+      <c r="L2" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="74" t="s">
+      <c r="M2" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="L2" s="74" t="s">
+      <c r="N2" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="74" t="s">
+      <c r="O2" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="N2" s="74" t="s">
+      <c r="P2" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="O2" s="74" t="s">
+      <c r="Q2" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="P2" s="74" t="s">
+      <c r="R2" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="Q2" s="74" t="s">
+      <c r="S2" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="R2" s="75" t="s">
+      <c r="T2" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="S2" s="75" t="s">
+      <c r="U2" s="75" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>95</v>
       </c>
@@ -3445,34 +3801,34 @@
       <c r="D3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="H3" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="I3" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="56">
-        <v>1</v>
-      </c>
-      <c r="I3" s="56">
-        <v>1</v>
-      </c>
       <c r="J3" s="56">
+        <v>1</v>
+      </c>
+      <c r="K3" s="56">
+        <v>1</v>
+      </c>
+      <c r="L3" s="56">
         <v>0</v>
       </c>
-      <c r="K3" s="56">
+      <c r="M3" s="56">
         <v>0</v>
       </c>
-      <c r="L3" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="M3" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="66" t="s">
         <v>70</v>
       </c>
       <c r="O3" s="66" t="s">
@@ -3484,12 +3840,18 @@
       <c r="Q3" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12" t="s">
+      <c r="R3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S3" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>95</v>
       </c>
@@ -3502,37 +3864,37 @@
       <c r="D4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="H4" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="I4" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="56">
-        <v>1</v>
-      </c>
-      <c r="I4" s="56">
-        <v>1</v>
-      </c>
       <c r="J4" s="56">
+        <v>1</v>
+      </c>
+      <c r="K4" s="56">
+        <v>1</v>
+      </c>
+      <c r="L4" s="56">
         <v>0</v>
       </c>
-      <c r="K4" s="56">
+      <c r="M4" s="56">
         <v>0</v>
       </c>
-      <c r="L4" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" s="67" t="s">
+      <c r="N4" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="66" t="s">
         <v>70</v>
       </c>
       <c r="P4" s="4" t="s">
@@ -3541,10 +3903,16 @@
       <c r="Q4" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-    </row>
-    <row r="5" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S4" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+    </row>
+    <row r="5" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>95</v>
       </c>
@@ -3557,37 +3925,37 @@
       <c r="D5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="H5" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="I5" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="56">
-        <v>1</v>
-      </c>
-      <c r="I5" s="56">
-        <v>1</v>
-      </c>
       <c r="J5" s="56">
+        <v>1</v>
+      </c>
+      <c r="K5" s="56">
+        <v>1</v>
+      </c>
+      <c r="L5" s="56">
         <v>0</v>
       </c>
-      <c r="K5" s="56">
+      <c r="M5" s="56">
         <v>0</v>
       </c>
-      <c r="L5" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O5" s="67" t="s">
+      <c r="N5" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="66" t="s">
         <v>70</v>
       </c>
       <c r="P5" s="4" t="s">
@@ -3596,12 +3964,18 @@
       <c r="Q5" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="R5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S5" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="T5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="12"/>
-    </row>
-    <row r="6" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U5" s="12"/>
+    </row>
+    <row r="6" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>95</v>
       </c>
@@ -3614,37 +3988,37 @@
       <c r="D6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="H6" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="I6" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="56">
-        <v>1</v>
-      </c>
-      <c r="I6" s="56">
-        <v>1</v>
-      </c>
       <c r="J6" s="56">
+        <v>1</v>
+      </c>
+      <c r="K6" s="56">
+        <v>1</v>
+      </c>
+      <c r="L6" s="56">
         <v>0</v>
       </c>
-      <c r="K6" s="56">
+      <c r="M6" s="56">
         <v>0</v>
       </c>
-      <c r="L6" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O6" s="67" t="s">
+      <c r="N6" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" s="66" t="s">
         <v>70</v>
       </c>
       <c r="P6" s="4" t="s">
@@ -3653,10 +4027,16 @@
       <c r="Q6" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-    </row>
-    <row r="7" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S6" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+    </row>
+    <row r="7" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>95</v>
       </c>
@@ -3669,37 +4049,37 @@
       <c r="D7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="H7" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="I7" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="56">
-        <v>1</v>
-      </c>
-      <c r="I7" s="56">
-        <v>1</v>
-      </c>
       <c r="J7" s="56">
+        <v>1</v>
+      </c>
+      <c r="K7" s="56">
+        <v>1</v>
+      </c>
+      <c r="L7" s="56">
         <v>0</v>
       </c>
-      <c r="K7" s="56">
+      <c r="M7" s="56">
         <v>0</v>
       </c>
-      <c r="L7" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="M7" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O7" s="67" t="s">
+      <c r="N7" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" s="66" t="s">
         <v>70</v>
       </c>
       <c r="P7" s="4" t="s">
@@ -3708,10 +4088,16 @@
       <c r="Q7" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-    </row>
-    <row r="8" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S7" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+    </row>
+    <row r="8" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>95</v>
       </c>
@@ -3724,37 +4110,37 @@
       <c r="D8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="H8" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="57" t="s">
+      <c r="I8" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="56">
-        <v>1</v>
-      </c>
-      <c r="I8" s="56">
-        <v>1</v>
-      </c>
       <c r="J8" s="56">
+        <v>1</v>
+      </c>
+      <c r="K8" s="56">
+        <v>1</v>
+      </c>
+      <c r="L8" s="56">
         <v>0</v>
       </c>
-      <c r="K8" s="56">
+      <c r="M8" s="56">
         <v>0</v>
       </c>
-      <c r="L8" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="M8" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O8" s="67" t="s">
+      <c r="N8" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="66" t="s">
         <v>70</v>
       </c>
       <c r="P8" s="4" t="s">
@@ -3763,10 +4149,16 @@
       <c r="Q8" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-    </row>
-    <row r="9" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S8" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+    </row>
+    <row r="9" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>95</v>
       </c>
@@ -3779,37 +4171,37 @@
       <c r="D9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="H9" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="I9" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="56">
-        <v>1</v>
-      </c>
-      <c r="I9" s="56">
-        <v>1</v>
-      </c>
       <c r="J9" s="56">
+        <v>1</v>
+      </c>
+      <c r="K9" s="56">
+        <v>1</v>
+      </c>
+      <c r="L9" s="56">
         <v>0</v>
       </c>
-      <c r="K9" s="56">
+      <c r="M9" s="56">
         <v>0</v>
       </c>
-      <c r="L9" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="M9" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O9" s="67" t="s">
+      <c r="N9" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9" s="66" t="s">
         <v>70</v>
       </c>
       <c r="P9" s="4" t="s">
@@ -3818,10 +4210,16 @@
       <c r="Q9" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-    </row>
-    <row r="10" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S9" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+    </row>
+    <row r="10" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>95</v>
       </c>
@@ -3834,37 +4232,37 @@
       <c r="D10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="H10" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="57" t="s">
+      <c r="I10" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="56">
-        <v>1</v>
-      </c>
-      <c r="I10" s="56">
-        <v>1</v>
-      </c>
       <c r="J10" s="56">
+        <v>1</v>
+      </c>
+      <c r="K10" s="56">
+        <v>1</v>
+      </c>
+      <c r="L10" s="56">
         <v>0</v>
       </c>
-      <c r="K10" s="56">
+      <c r="M10" s="56">
         <v>0</v>
       </c>
-      <c r="L10" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="M10" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O10" s="67" t="s">
+      <c r="N10" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="O10" s="66" t="s">
         <v>70</v>
       </c>
       <c r="P10" s="4" t="s">
@@ -3873,10 +4271,16 @@
       <c r="Q10" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-    </row>
-    <row r="11" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S10" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+    </row>
+    <row r="11" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>95</v>
       </c>
@@ -3889,37 +4293,37 @@
       <c r="D11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="H11" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="57" t="s">
+      <c r="I11" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="56">
-        <v>1</v>
-      </c>
-      <c r="I11" s="56">
-        <v>1</v>
-      </c>
       <c r="J11" s="56">
+        <v>1</v>
+      </c>
+      <c r="K11" s="56">
+        <v>1</v>
+      </c>
+      <c r="L11" s="56">
         <v>0</v>
       </c>
-      <c r="K11" s="56">
+      <c r="M11" s="56">
         <v>0</v>
       </c>
-      <c r="L11" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="M11" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O11" s="67" t="s">
+      <c r="N11" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11" s="66" t="s">
         <v>70</v>
       </c>
       <c r="P11" s="4" t="s">
@@ -3928,10 +4332,16 @@
       <c r="Q11" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-    </row>
-    <row r="12" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S11" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+    </row>
+    <row r="12" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>95</v>
       </c>
@@ -3944,37 +4354,37 @@
       <c r="D12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="H12" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="I12" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="56">
-        <v>1</v>
-      </c>
-      <c r="I12" s="56">
-        <v>1</v>
-      </c>
       <c r="J12" s="56">
+        <v>1</v>
+      </c>
+      <c r="K12" s="56">
+        <v>1</v>
+      </c>
+      <c r="L12" s="56">
         <v>0</v>
       </c>
-      <c r="K12" s="56">
+      <c r="M12" s="56">
         <v>0</v>
       </c>
-      <c r="L12" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="M12" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O12" s="67" t="s">
+      <c r="N12" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" s="66" t="s">
         <v>70</v>
       </c>
       <c r="P12" s="4" t="s">
@@ -3983,10 +4393,16 @@
       <c r="Q12" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-    </row>
-    <row r="13" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S12" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+    </row>
+    <row r="13" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
         <v>95</v>
       </c>
@@ -3999,37 +4415,37 @@
       <c r="D13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="H13" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="57" t="s">
+      <c r="I13" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="56">
-        <v>1</v>
-      </c>
-      <c r="I13" s="56">
-        <v>1</v>
-      </c>
       <c r="J13" s="56">
+        <v>1</v>
+      </c>
+      <c r="K13" s="56">
+        <v>1</v>
+      </c>
+      <c r="L13" s="56">
         <v>0</v>
       </c>
-      <c r="K13" s="56">
+      <c r="M13" s="56">
         <v>0</v>
       </c>
-      <c r="L13" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="M13" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O13" s="67" t="s">
+      <c r="N13" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="O13" s="66" t="s">
         <v>70</v>
       </c>
       <c r="P13" s="4" t="s">
@@ -4038,10 +4454,16 @@
       <c r="Q13" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-    </row>
-    <row r="14" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S13" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+    </row>
+    <row r="14" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>95</v>
       </c>
@@ -4054,37 +4476,37 @@
       <c r="D14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="H14" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="57" t="s">
+      <c r="I14" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="56">
-        <v>1</v>
-      </c>
-      <c r="I14" s="56">
-        <v>1</v>
-      </c>
       <c r="J14" s="56">
         <v>1</v>
       </c>
       <c r="K14" s="56">
         <v>1</v>
       </c>
-      <c r="L14" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="M14" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O14" s="67" t="s">
+      <c r="L14" s="56">
+        <v>1</v>
+      </c>
+      <c r="M14" s="56">
+        <v>1</v>
+      </c>
+      <c r="N14" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="O14" s="66" t="s">
         <v>70</v>
       </c>
       <c r="P14" s="4" t="s">
@@ -4093,12 +4515,18 @@
       <c r="Q14" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="R14" s="12" t="s">
+      <c r="R14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S14" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="T14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="S14" s="12"/>
-    </row>
-    <row r="15" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U14" s="12"/>
+    </row>
+    <row r="15" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>95</v>
       </c>
@@ -4111,37 +4539,37 @@
       <c r="D15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="H15" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="57" t="s">
+      <c r="I15" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="56">
-        <v>1</v>
-      </c>
-      <c r="I15" s="56">
-        <v>1</v>
-      </c>
       <c r="J15" s="56">
+        <v>1</v>
+      </c>
+      <c r="K15" s="56">
+        <v>1</v>
+      </c>
+      <c r="L15" s="56">
         <v>2</v>
       </c>
-      <c r="K15" s="56">
+      <c r="M15" s="56">
         <v>2</v>
       </c>
-      <c r="L15" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="M15" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O15" s="67" t="s">
+      <c r="N15" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" s="66" t="s">
         <v>70</v>
       </c>
       <c r="P15" s="4" t="s">
@@ -4150,14 +4578,20 @@
       <c r="Q15" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="R15" s="12" t="s">
+      <c r="R15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S15" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="T15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="S15" s="12" t="s">
+      <c r="U15" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>95</v>
       </c>
@@ -4170,37 +4604,37 @@
       <c r="D16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="G16" s="57" t="s">
+      <c r="H16" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="I16" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="56">
-        <v>1</v>
-      </c>
-      <c r="I16" s="56">
-        <v>1</v>
-      </c>
       <c r="J16" s="56">
+        <v>1</v>
+      </c>
+      <c r="K16" s="56">
+        <v>1</v>
+      </c>
+      <c r="L16" s="56">
         <v>0</v>
       </c>
-      <c r="K16" s="56">
+      <c r="M16" s="56">
         <v>0</v>
       </c>
-      <c r="L16" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="M16" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O16" s="67" t="s">
+      <c r="N16" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="O16" s="66" t="s">
         <v>70</v>
       </c>
       <c r="P16" s="4" t="s">
@@ -4209,10 +4643,16 @@
       <c r="Q16" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-    </row>
-    <row r="17" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S16" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+    </row>
+    <row r="17" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>95</v>
       </c>
@@ -4220,54 +4660,60 @@
         <v>15</v>
       </c>
       <c r="C17" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="G17" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="H17" s="56">
-        <v>1</v>
-      </c>
-      <c r="I17" s="56">
-        <v>1</v>
-      </c>
       <c r="J17" s="56">
+        <v>1</v>
+      </c>
+      <c r="K17" s="56">
+        <v>1</v>
+      </c>
+      <c r="L17" s="56">
         <v>0</v>
       </c>
-      <c r="K17" s="56">
+      <c r="M17" s="56">
         <v>0</v>
       </c>
-      <c r="L17" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="M17" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="O17" s="67" t="s">
-        <v>131</v>
+      <c r="N17" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="O17" s="64" t="s">
+        <v>129</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q17" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-    </row>
-    <row r="18" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="S17" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+    </row>
+    <row r="18" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
         <v>95</v>
       </c>
@@ -4275,42 +4721,42 @@
         <v>16</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="G18" s="57" t="s">
+      <c r="H18" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="I18" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="56">
-        <v>1</v>
-      </c>
-      <c r="I18" s="56">
-        <v>1</v>
-      </c>
       <c r="J18" s="56">
+        <v>1</v>
+      </c>
+      <c r="K18" s="56">
+        <v>1</v>
+      </c>
+      <c r="L18" s="56">
         <v>0</v>
       </c>
-      <c r="K18" s="56">
+      <c r="M18" s="56">
         <v>0</v>
       </c>
-      <c r="L18" s="67" t="s">
+      <c r="N18" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="M18" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O18" s="67" t="s">
+      <c r="O18" s="64" t="s">
         <v>28</v>
       </c>
       <c r="P18" s="4" t="s">
@@ -4319,10 +4765,16 @@
       <c r="Q18" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-    </row>
-    <row r="19" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S18" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+    </row>
+    <row r="19" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
         <v>95</v>
       </c>
@@ -4333,51 +4785,57 @@
         <v>99</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="56">
-        <v>1</v>
-      </c>
-      <c r="I19" s="56">
-        <v>1</v>
+      <c r="H19" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="57" t="s">
+        <v>70</v>
       </c>
       <c r="J19" s="56">
+        <v>1</v>
+      </c>
+      <c r="K19" s="56">
+        <v>1</v>
+      </c>
+      <c r="L19" s="56">
         <v>0</v>
       </c>
-      <c r="K19" s="56">
+      <c r="M19" s="56">
         <v>0</v>
       </c>
-      <c r="L19" s="67">
+      <c r="N19" s="67">
         <v>3</v>
       </c>
-      <c r="M19" s="64">
+      <c r="O19" s="64">
         <v>300</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="P19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="O19" s="67">
-        <v>1</v>
-      </c>
-      <c r="P19" s="4" t="s">
+      <c r="Q19" s="67">
+        <v>1</v>
+      </c>
+      <c r="R19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Q19" s="67">
-        <v>1</v>
-      </c>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-    </row>
-    <row r="20" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S19" s="67">
+        <v>1</v>
+      </c>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+    </row>
+    <row r="20" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
         <v>95</v>
       </c>
@@ -4388,51 +4846,57 @@
         <v>99</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="57" t="s">
+      <c r="H20" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="56">
-        <v>1</v>
-      </c>
-      <c r="I20" s="56">
-        <v>1</v>
+      <c r="I20" s="57" t="s">
+        <v>70</v>
       </c>
       <c r="J20" s="56">
+        <v>1</v>
+      </c>
+      <c r="K20" s="56">
+        <v>1</v>
+      </c>
+      <c r="L20" s="56">
         <v>0</v>
       </c>
-      <c r="K20" s="56">
+      <c r="M20" s="56">
         <v>0</v>
       </c>
-      <c r="L20" s="67">
+      <c r="N20" s="67">
         <v>3</v>
       </c>
-      <c r="M20" s="64">
+      <c r="O20" s="64">
         <v>300</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="P20" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="O20" s="67">
-        <v>2</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="Q20" s="67">
         <v>2</v>
       </c>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-    </row>
-    <row r="21" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S20" s="67">
+        <v>2</v>
+      </c>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+    </row>
+    <row r="21" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
         <v>95</v>
       </c>
@@ -4443,51 +4907,57 @@
         <v>99</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="56">
-        <v>1</v>
-      </c>
-      <c r="I21" s="56">
-        <v>1</v>
+      <c r="H21" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="57" t="s">
+        <v>70</v>
       </c>
       <c r="J21" s="56">
+        <v>1</v>
+      </c>
+      <c r="K21" s="56">
+        <v>1</v>
+      </c>
+      <c r="L21" s="56">
         <v>0</v>
       </c>
-      <c r="K21" s="56">
+      <c r="M21" s="56">
         <v>0</v>
       </c>
-      <c r="L21" s="67">
-        <v>1</v>
-      </c>
-      <c r="M21" s="64">
+      <c r="N21" s="67">
+        <v>1</v>
+      </c>
+      <c r="O21" s="64">
         <v>600</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="P21" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="O21" s="67">
+      <c r="Q21" s="67">
         <v>3</v>
       </c>
-      <c r="P21" s="4" t="s">
+      <c r="R21" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Q21" s="67">
-        <v>1</v>
-      </c>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-    </row>
-    <row r="22" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S21" s="67">
+        <v>1</v>
+      </c>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+    </row>
+    <row r="22" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
         <v>95</v>
       </c>
@@ -4498,51 +4968,57 @@
         <v>99</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E22" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="H22" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="G22" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="56">
-        <v>1</v>
-      </c>
-      <c r="I22" s="56">
-        <v>1</v>
+      <c r="I22" s="57" t="s">
+        <v>70</v>
       </c>
       <c r="J22" s="56">
+        <v>1</v>
+      </c>
+      <c r="K22" s="56">
+        <v>1</v>
+      </c>
+      <c r="L22" s="56">
         <v>0</v>
       </c>
-      <c r="K22" s="56">
+      <c r="M22" s="56">
         <v>0</v>
       </c>
-      <c r="L22" s="67">
-        <v>1</v>
-      </c>
-      <c r="M22" s="64">
+      <c r="N22" s="67">
+        <v>1</v>
+      </c>
+      <c r="O22" s="64">
         <v>600</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="P22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="O22" s="67">
+      <c r="Q22" s="67">
         <v>4</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="R22" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Q22" s="67">
+      <c r="S22" s="67">
         <v>2</v>
       </c>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-    </row>
-    <row r="23" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+    </row>
+    <row r="23" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
         <v>95</v>
       </c>
@@ -4550,25 +5026,27 @@
       <c r="C23" s="23"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="68"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="65"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="68"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R23" s="4"/>
+      <c r="S23" s="68"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B24" s="14"/>
     </row>
-    <row r="25" spans="1:19" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="26" t="s">
         <v>113</v>
       </c>
@@ -4578,108 +5056,114 @@
       <c r="D25" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="69" t="s">
+      <c r="E25" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="I25" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="J25" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="K25" s="81"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q25" s="82"/>
+      <c r="R25" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="S25" s="82"/>
+      <c r="T25" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="U25" s="69" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="175.5" x14ac:dyDescent="0.2">
+      <c r="C26" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="H25" s="79" t="s">
-        <v>118</v>
-      </c>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="80" t="s">
-        <v>119</v>
-      </c>
-      <c r="O25" s="80"/>
-      <c r="P25" s="80" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q25" s="80"/>
-      <c r="R25" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="S25" s="69" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="175.5" x14ac:dyDescent="0.2">
-      <c r="C26" s="77" t="s">
-        <v>123</v>
-      </c>
-      <c r="F26" s="27" t="s">
+      <c r="I26" s="27"/>
+    </row>
+    <row r="27" spans="1:21" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="H27" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="G26" s="27"/>
-    </row>
-    <row r="27" spans="1:19" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="F27" s="27" t="s">
+      <c r="I27" s="27"/>
+    </row>
+    <row r="28" spans="1:21" ht="87.75" x14ac:dyDescent="0.2">
+      <c r="H28" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="G27" s="27"/>
-    </row>
-    <row r="28" spans="1:19" ht="87.75" x14ac:dyDescent="0.2">
-      <c r="F28" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="G28" s="27"/>
-    </row>
-    <row r="29" spans="1:19" ht="68.25" x14ac:dyDescent="0.2">
-      <c r="F29" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="G29" s="27"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
+      <c r="I28" s="27"/>
+    </row>
+    <row r="29" spans="1:21" ht="68.25" x14ac:dyDescent="0.2">
+      <c r="H29" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" s="27"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="3">
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="J25:O25"/>
     <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:S25"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E23">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G23">
       <formula1>"ITA,mail"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E20 E22">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G20 G22">
       <formula1>"ITA(ver1),mail(ver1),ServiceNow(ver1)"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E3:E18">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G18">
       <formula1>"なし,ITA(ver1),mail(ver1),ServiceNow(ver1)"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E19 E21">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G19 G21">
       <formula1>"None,ITA(ver1),mail(ver1),ServiceNow(ver1)"</formula1>
     </dataValidation>
   </dataValidations>

--- a/oase-root/libs/commonlibs/template.xlsx
+++ b/oase-root/libs/commonlibs/template.xlsx
@@ -1726,15 +1726,6 @@
     <t>rule20</t>
   </si>
   <si>
-    <t>【ServiceNowドライバー】
-SERVICENOW_NAMEは必須です。OASE画面のシステム-アクション設定-ServiceNow_driverの名前と紐づけます。
-INCIDENT_STATUSはインシデント管理の際に必要です。ServiceNowインシデント管理のレコードを新規登録する「NEW」、インシデント対処中となる「IN_PROGRESS」、インシデント解決済みとなる「RESOLVED」またはインシデントを閉じる「CLOSED」を記述します。
-WORKFLOW_IDはワークフローの実行に必要です。ServiceNowのワークフロースケジュール編集画面から、sys_idを取得してください。
-WORK_NOTESはSerivceNowに実装されているFlow Designer等を利用してOASEのアクション実行前に承認アクションを追加したい場合に必要です。
-ServiceNowのIncidentの作業メモに記載されている情報と紐づけます。</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>m.getActs().addIncidentHappened("$param");</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -1871,16 +1862,6 @@
       <t>Define with "X" if not needed</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Incident happened
-（Required）</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Handling summary
-（Required）</t>
-    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>X</t>
@@ -2028,11 +2009,41 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>SERVICENOW_NAME=ServiceNowTest,INCIDENT_STATUS=IN_PROGRESS,WORK_NOTES=APPROVED</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>Choose the action type you want to execute from the pulldown menu.</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>SERVICENOW_NAME=ServiceNowTest,INCIDENT_STATUS=IN_PROGRESS,WORK_NOTES_APPROVAL=APPROVED,WORK_NOTES_REJECTED=REJECTED</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>【ServiceNowドライバー】
+SERVICENOW_NAMEは必須です。OASE画面のシステム-アクション設定-ServiceNow_driverの名前と紐づけます。
+INCIDENT_STATUSはインシデント管理の際に必要です。ServiceNowインシデント管理のレコードを新規登録する「NEW」、インシデント対処中となる「IN_PROGRESS」、インシデント解決済みとなる「RESOLVED」またはインシデントを閉じる「CLOSED」を記述します。
+WORKFLOW_IDはワークフローの実行に必要です。ServiceNowのワークフロースケジュール編集画面から、sys_idを取得してください。
+WORK_NOTES_APPROVALはSerivceNowに実装されているFlow Designer等を利用してOASEのアクション実行前に承認アクションを追加したい場合に必要です。
+ServiceNowのIncidentの作業メモに記載されている承認文言と紐づけます。
+WORK_NOTES_REJECTEDはSerivceNowに実装されているFlow Designer等を利用してOASEのアクション実行前に承認アクションを追加したい場合に必要です。
+ServiceNowのIncidentの作業メモに記載されている却下文言と紐づけます。</t>
+    <rPh sb="432" eb="434">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="434" eb="436">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="569" eb="571">
+      <t>キャッカ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Incident happened（Required）
+※Define with "X" if not needed</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Handling summary（Required）
+※Define with "X" if not needed</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -3407,10 +3418,10 @@
         <v>14</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>15</v>
@@ -3463,10 +3474,10 @@
         <v>81</v>
       </c>
       <c r="E11" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="F11" s="71" t="s">
-        <v>140</v>
       </c>
       <c r="G11" s="71" t="s">
         <v>82</v>
@@ -3711,7 +3722,8 @@
     <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22.85546875" style="6" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="103.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="103.5703125" customWidth="1"/>
@@ -3737,10 +3749,10 @@
         <v>96</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>97</v>
@@ -3802,10 +3814,10 @@
         <v>23</v>
       </c>
       <c r="E3" s="76" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>30</v>
@@ -3865,10 +3877,10 @@
         <v>56</v>
       </c>
       <c r="E4" s="76" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>30</v>
@@ -3926,10 +3938,10 @@
         <v>37</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>30</v>
@@ -3989,10 +4001,10 @@
         <v>43</v>
       </c>
       <c r="E6" s="76" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>30</v>
@@ -4050,10 +4062,10 @@
         <v>44</v>
       </c>
       <c r="E7" s="76" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>30</v>
@@ -4111,10 +4123,10 @@
         <v>45</v>
       </c>
       <c r="E8" s="76" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>30</v>
@@ -4172,10 +4184,10 @@
         <v>46</v>
       </c>
       <c r="E9" s="76" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>30</v>
@@ -4233,10 +4245,10 @@
         <v>47</v>
       </c>
       <c r="E10" s="76" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>30</v>
@@ -4294,10 +4306,10 @@
         <v>48</v>
       </c>
       <c r="E11" s="76" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>30</v>
@@ -4355,10 +4367,10 @@
         <v>49</v>
       </c>
       <c r="E12" s="76" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>30</v>
@@ -4416,10 +4428,10 @@
         <v>57</v>
       </c>
       <c r="E13" s="76" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>30</v>
@@ -4477,10 +4489,10 @@
         <v>58</v>
       </c>
       <c r="E14" s="76" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F14" s="76" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>29</v>
@@ -4540,10 +4552,10 @@
         <v>59</v>
       </c>
       <c r="E15" s="76" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F15" s="76" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>29</v>
@@ -4605,16 +4617,16 @@
         <v>61</v>
       </c>
       <c r="E16" s="76" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>62</v>
       </c>
       <c r="H16" s="57" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I16" s="57" t="s">
         <v>28</v>
@@ -4666,10 +4678,10 @@
         <v>128</v>
       </c>
       <c r="E17" s="76" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="76" t="s">
         <v>145</v>
-      </c>
-      <c r="F17" s="76" t="s">
-        <v>148</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>62</v>
@@ -4727,16 +4739,16 @@
         <v>131</v>
       </c>
       <c r="E18" s="76" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>62</v>
       </c>
       <c r="H18" s="57" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I18" s="57" t="s">
         <v>28</v>
@@ -4788,10 +4800,10 @@
         <v>132</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G19" s="76" t="s">
         <v>112</v>
@@ -4849,10 +4861,10 @@
         <v>133</v>
       </c>
       <c r="E20" s="76" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>39</v>
@@ -4910,10 +4922,10 @@
         <v>134</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>112</v>
@@ -4971,10 +4983,10 @@
         <v>135</v>
       </c>
       <c r="E22" s="76" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>39</v>
@@ -5057,13 +5069,13 @@
         <v>115</v>
       </c>
       <c r="E25" s="79" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25" s="69" t="s">
         <v>150</v>
-      </c>
-      <c r="F25" s="79" t="s">
-        <v>151</v>
-      </c>
-      <c r="G25" s="69" t="s">
-        <v>154</v>
       </c>
       <c r="H25" s="27" t="s">
         <v>116</v>
@@ -5115,9 +5127,9 @@
       </c>
       <c r="I28" s="27"/>
     </row>
-    <row r="29" spans="1:21" ht="68.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" ht="87.75" x14ac:dyDescent="0.2">
       <c r="H29" s="27" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="I29" s="27"/>
     </row>

--- a/oase-root/libs/commonlibs/template.xlsx
+++ b/oase-root/libs/commonlibs/template.xlsx
@@ -1901,25 +1901,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <r>
-      <t>ServiceNow</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>に記票</t>
-    </r>
-    <rPh sb="11" eb="13">
-      <t>キヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>ServiceNowのワークフローの実行</t>
     <rPh sb="18" eb="20">
       <t>ジッコウ</t>
@@ -2044,6 +2025,25 @@
   <si>
     <t>Handling summary（Required）
 ※Define with "X" if not needed</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <t>ServiceNow</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に起票</t>
+    </r>
+    <rPh sb="11" eb="13">
+      <t>キヒョウ</t>
+    </rPh>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -2540,7 +2540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2574,17 +2574,6 @@
       <alignment wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2613,13 +2602,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2726,23 +2708,8 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2764,26 +2731,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2810,10 +2757,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2821,11 +2764,81 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3226,160 +3239,160 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="9.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="31" customWidth="1"/>
-    <col min="3" max="25" width="9.140625" style="31" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" style="31" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="31"/>
+    <col min="1" max="1" width="3.5703125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="26" customWidth="1"/>
+    <col min="3" max="25" width="9.140625" style="26" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" style="26" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="29"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-    </row>
-    <row r="2" spans="2:21" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="32"/>
-      <c r="C2" s="33" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="2" spans="2:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="27"/>
+      <c r="C2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-    </row>
-    <row r="3" spans="2:21" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="32"/>
-      <c r="C3" s="33" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+    </row>
+    <row r="3" spans="2:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="27"/>
+      <c r="C3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-    </row>
-    <row r="4" spans="2:21" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="32"/>
-      <c r="C4" s="33" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+    </row>
+    <row r="4" spans="2:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="27"/>
+      <c r="C4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-    </row>
-    <row r="5" spans="2:21" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="32"/>
-      <c r="C5" s="33" t="s">
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+    </row>
+    <row r="5" spans="2:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="27"/>
+      <c r="C5" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-    </row>
-    <row r="6" spans="2:21" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+    </row>
+    <row r="6" spans="2:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="2:21" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
+    <row r="7" spans="2:21" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
     </row>
     <row r="8" spans="2:21" s="10" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="40"/>
-      <c r="C8" s="41" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="15" t="s">
+      <c r="D8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="O8" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="P8" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="17" t="s">
+      <c r="J8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="R8" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="S8" s="17" t="s">
+      <c r="R8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" s="14" t="s">
         <v>26</v>
       </c>
       <c r="T8" s="9" t="s">
@@ -3390,17 +3403,17 @@
       </c>
     </row>
     <row r="9" spans="2:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="45"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="40"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
@@ -3412,8 +3425,8 @@
       <c r="U9" s="9"/>
     </row>
     <row r="10" spans="2:21" s="10" customFormat="1" ht="39" x14ac:dyDescent="0.2">
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="7" t="s">
         <v>14</v>
       </c>
@@ -3465,69 +3478,69 @@
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
     </row>
-    <row r="11" spans="2:21" s="49" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="54" t="s">
+    <row r="11" spans="2:21" s="44" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="72" t="s">
+      <c r="C11" s="43"/>
+      <c r="D11" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="71" t="s">
+      <c r="H11" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="71" t="s">
+      <c r="I11" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="71" t="s">
+      <c r="J11" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="K11" s="71" t="s">
+      <c r="K11" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="L11" s="73" t="s">
+      <c r="L11" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="M11" s="74" t="s">
+      <c r="M11" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="N11" s="74" t="s">
+      <c r="N11" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="O11" s="74" t="s">
+      <c r="O11" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="P11" s="74" t="s">
+      <c r="P11" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="Q11" s="74" t="s">
+      <c r="Q11" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="R11" s="74" t="s">
+      <c r="R11" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="S11" s="74" t="s">
+      <c r="S11" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="T11" s="75" t="s">
+      <c r="T11" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="U11" s="75" t="s">
+      <c r="U11" s="61" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="2:21" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="11"/>
-      <c r="C12" s="50"/>
+    <row r="12" spans="2:21" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="66"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -3538,20 +3551,20 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-    </row>
-    <row r="13" spans="2:21" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="11"/>
-      <c r="C13" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+    </row>
+    <row r="13" spans="2:21" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="66"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="80"/>
+      <c r="E13" s="65"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -3560,18 +3573,18 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="63"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-    </row>
-    <row r="14" spans="2:21" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="11"/>
-      <c r="C14" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+    </row>
+    <row r="14" spans="2:21" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="66"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -3582,18 +3595,18 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="63"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
-    </row>
-    <row r="15" spans="2:21" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="11"/>
-      <c r="C15" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+    </row>
+    <row r="15" spans="2:21" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="66"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -3604,18 +3617,18 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-    </row>
-    <row r="16" spans="2:21" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="11"/>
-      <c r="C16" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+    </row>
+    <row r="16" spans="2:21" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="66"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -3626,18 +3639,18 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
-    </row>
-    <row r="17" spans="2:21" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="11"/>
-      <c r="C17" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+    </row>
+    <row r="17" spans="2:21" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="66"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -3648,18 +3661,18 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="51"/>
-    </row>
-    <row r="18" spans="2:21" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="11"/>
-      <c r="C18" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+    </row>
+    <row r="18" spans="2:21" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="66"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -3670,25 +3683,25 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="61"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
     </row>
     <row r="19" spans="2:21" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="56" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="20" spans="2:21" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="70"/>
+      <c r="B20" s="56"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="53"/>
+      <c r="B36" s="48"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" deleteRows="0"/>
@@ -3715,7 +3728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3723,7 +3736,8 @@
     <col min="2" max="2" width="18.85546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="22.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" style="6" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="103.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="103.5703125" customWidth="1"/>
@@ -3739,1423 +3753,1423 @@
   <sheetData>
     <row r="1" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="71" t="s">
+      <c r="J2" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="L2" s="73" t="s">
+      <c r="L2" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="M2" s="74" t="s">
+      <c r="M2" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="N2" s="74" t="s">
+      <c r="N2" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="O2" s="74" t="s">
+      <c r="O2" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="P2" s="74" t="s">
+      <c r="P2" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="Q2" s="74" t="s">
+      <c r="Q2" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="R2" s="74" t="s">
+      <c r="R2" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="S2" s="74" t="s">
+      <c r="S2" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="T2" s="75" t="s">
+      <c r="T2" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="75" t="s">
+      <c r="U2" s="61" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="58">
-        <v>1</v>
-      </c>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="68">
+        <v>1</v>
+      </c>
+      <c r="C3" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="69" t="s">
         <v>143</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="57" t="s">
+      <c r="I3" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="56">
-        <v>1</v>
-      </c>
-      <c r="K3" s="56">
-        <v>1</v>
-      </c>
-      <c r="L3" s="56">
+      <c r="J3" s="78">
+        <v>1</v>
+      </c>
+      <c r="K3" s="78">
+        <v>1</v>
+      </c>
+      <c r="L3" s="78">
         <v>0</v>
       </c>
-      <c r="M3" s="56">
+      <c r="M3" s="78">
         <v>0</v>
       </c>
-      <c r="N3" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="O3" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q3" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="S3" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12" t="s">
+      <c r="N3" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="P3" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="R3" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="S3" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="58">
+      <c r="B4" s="68">
         <v>2</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="69" t="s">
         <v>143</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="56">
-        <v>1</v>
-      </c>
-      <c r="K4" s="56">
-        <v>1</v>
-      </c>
-      <c r="L4" s="56">
+      <c r="J4" s="78">
+        <v>1</v>
+      </c>
+      <c r="K4" s="78">
+        <v>1</v>
+      </c>
+      <c r="L4" s="78">
         <v>0</v>
       </c>
-      <c r="M4" s="56">
+      <c r="M4" s="78">
         <v>0</v>
       </c>
-      <c r="N4" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q4" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="S4" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-    </row>
-    <row r="5" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="N4" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="R4" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="S4" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="T4" s="81"/>
+      <c r="U4" s="81"/>
+    </row>
+    <row r="5" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="58">
+      <c r="B5" s="68">
         <v>3</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="69" t="s">
         <v>143</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="56">
-        <v>1</v>
-      </c>
-      <c r="K5" s="56">
-        <v>1</v>
-      </c>
-      <c r="L5" s="56">
+      <c r="J5" s="78">
+        <v>1</v>
+      </c>
+      <c r="K5" s="78">
+        <v>1</v>
+      </c>
+      <c r="L5" s="78">
         <v>0</v>
       </c>
-      <c r="M5" s="56">
+      <c r="M5" s="78">
         <v>0</v>
       </c>
-      <c r="N5" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="O5" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q5" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="S5" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="T5" s="12" t="s">
+      <c r="N5" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="R5" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="S5" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="T5" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="U5" s="12"/>
-    </row>
-    <row r="6" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="U5" s="81"/>
+    </row>
+    <row r="6" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="58">
+      <c r="B6" s="68">
         <v>4</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="76" t="s">
+      <c r="E6" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="69" t="s">
         <v>143</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="57" t="s">
+      <c r="I6" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="56">
-        <v>1</v>
-      </c>
-      <c r="K6" s="56">
-        <v>1</v>
-      </c>
-      <c r="L6" s="56">
+      <c r="J6" s="78">
+        <v>1</v>
+      </c>
+      <c r="K6" s="78">
+        <v>1</v>
+      </c>
+      <c r="L6" s="78">
         <v>0</v>
       </c>
-      <c r="M6" s="56">
+      <c r="M6" s="78">
         <v>0</v>
       </c>
-      <c r="N6" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="O6" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q6" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="S6" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-    </row>
-    <row r="7" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="N6" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="R6" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="S6" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="T6" s="81"/>
+      <c r="U6" s="81"/>
+    </row>
+    <row r="7" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="58">
+      <c r="B7" s="68">
         <v>5</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="76" t="s">
+      <c r="E7" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="69" t="s">
         <v>143</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="57" t="s">
+      <c r="H7" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="57" t="s">
+      <c r="I7" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="56">
-        <v>1</v>
-      </c>
-      <c r="K7" s="56">
-        <v>1</v>
-      </c>
-      <c r="L7" s="56">
+      <c r="J7" s="78">
+        <v>1</v>
+      </c>
+      <c r="K7" s="78">
+        <v>1</v>
+      </c>
+      <c r="L7" s="78">
         <v>0</v>
       </c>
-      <c r="M7" s="56">
+      <c r="M7" s="78">
         <v>0</v>
       </c>
-      <c r="N7" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="O7" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q7" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="S7" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-    </row>
-    <row r="8" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="N7" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="R7" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="S7" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="T7" s="81"/>
+      <c r="U7" s="81"/>
+    </row>
+    <row r="8" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="58">
+      <c r="B8" s="68">
         <v>6</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="76" t="s">
+      <c r="E8" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="69" t="s">
         <v>143</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="57" t="s">
+      <c r="H8" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="56">
-        <v>1</v>
-      </c>
-      <c r="K8" s="56">
-        <v>1</v>
-      </c>
-      <c r="L8" s="56">
+      <c r="J8" s="78">
+        <v>1</v>
+      </c>
+      <c r="K8" s="78">
+        <v>1</v>
+      </c>
+      <c r="L8" s="78">
         <v>0</v>
       </c>
-      <c r="M8" s="56">
+      <c r="M8" s="78">
         <v>0</v>
       </c>
-      <c r="N8" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="O8" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q8" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="S8" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-    </row>
-    <row r="9" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="N8" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="R8" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="S8" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="T8" s="81"/>
+      <c r="U8" s="81"/>
+    </row>
+    <row r="9" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="58">
+      <c r="B9" s="68">
         <v>7</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="69" t="s">
         <v>143</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="56">
-        <v>1</v>
-      </c>
-      <c r="K9" s="56">
-        <v>1</v>
-      </c>
-      <c r="L9" s="56">
+      <c r="J9" s="78">
+        <v>1</v>
+      </c>
+      <c r="K9" s="78">
+        <v>1</v>
+      </c>
+      <c r="L9" s="78">
         <v>0</v>
       </c>
-      <c r="M9" s="56">
+      <c r="M9" s="78">
         <v>0</v>
       </c>
-      <c r="N9" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="O9" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q9" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="S9" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-    </row>
-    <row r="10" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="N9" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="R9" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="S9" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="T9" s="81"/>
+      <c r="U9" s="81"/>
+    </row>
+    <row r="10" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="58">
+      <c r="B10" s="68">
         <v>8</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="76" t="s">
+      <c r="E10" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="69" t="s">
         <v>143</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="57" t="s">
+      <c r="H10" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="57" t="s">
+      <c r="I10" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="56">
-        <v>1</v>
-      </c>
-      <c r="K10" s="56">
-        <v>1</v>
-      </c>
-      <c r="L10" s="56">
+      <c r="J10" s="78">
+        <v>1</v>
+      </c>
+      <c r="K10" s="78">
+        <v>1</v>
+      </c>
+      <c r="L10" s="78">
         <v>0</v>
       </c>
-      <c r="M10" s="56">
+      <c r="M10" s="78">
         <v>0</v>
       </c>
-      <c r="N10" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="O10" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q10" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="S10" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-    </row>
-    <row r="11" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="N10" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="O10" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="R10" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="S10" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="T10" s="81"/>
+      <c r="U10" s="81"/>
+    </row>
+    <row r="11" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="58">
+      <c r="B11" s="68">
         <v>9</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="76" t="s">
+      <c r="E11" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="69" t="s">
         <v>143</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="57" t="s">
+      <c r="H11" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="57" t="s">
+      <c r="I11" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="56">
-        <v>1</v>
-      </c>
-      <c r="K11" s="56">
-        <v>1</v>
-      </c>
-      <c r="L11" s="56">
+      <c r="J11" s="78">
+        <v>1</v>
+      </c>
+      <c r="K11" s="78">
+        <v>1</v>
+      </c>
+      <c r="L11" s="78">
         <v>0</v>
       </c>
-      <c r="M11" s="56">
+      <c r="M11" s="78">
         <v>0</v>
       </c>
-      <c r="N11" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="O11" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q11" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="S11" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-    </row>
-    <row r="12" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="N11" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="R11" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="S11" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="T11" s="81"/>
+      <c r="U11" s="81"/>
+    </row>
+    <row r="12" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="58">
+      <c r="B12" s="68">
         <v>10</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="76" t="s">
+      <c r="E12" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="69" t="s">
         <v>143</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="57" t="s">
+      <c r="H12" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="57" t="s">
+      <c r="I12" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="56">
-        <v>1</v>
-      </c>
-      <c r="K12" s="56">
-        <v>1</v>
-      </c>
-      <c r="L12" s="56">
+      <c r="J12" s="78">
+        <v>1</v>
+      </c>
+      <c r="K12" s="78">
+        <v>1</v>
+      </c>
+      <c r="L12" s="78">
         <v>0</v>
       </c>
-      <c r="M12" s="56">
+      <c r="M12" s="78">
         <v>0</v>
       </c>
-      <c r="N12" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="O12" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q12" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="S12" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-    </row>
-    <row r="13" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
+      <c r="N12" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="R12" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="S12" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="T12" s="81"/>
+      <c r="U12" s="81"/>
+    </row>
+    <row r="13" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="58">
+      <c r="B13" s="68">
         <v>11</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="76" t="s">
+      <c r="E13" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="69" t="s">
         <v>143</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="57" t="s">
+      <c r="H13" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="57" t="s">
+      <c r="I13" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="56">
-        <v>1</v>
-      </c>
-      <c r="K13" s="56">
-        <v>1</v>
-      </c>
-      <c r="L13" s="56">
+      <c r="J13" s="78">
+        <v>1</v>
+      </c>
+      <c r="K13" s="78">
+        <v>1</v>
+      </c>
+      <c r="L13" s="78">
         <v>0</v>
       </c>
-      <c r="M13" s="56">
+      <c r="M13" s="78">
         <v>0</v>
       </c>
-      <c r="N13" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="O13" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q13" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="S13" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-    </row>
-    <row r="14" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="N13" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="O13" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="R13" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="S13" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="T13" s="81"/>
+      <c r="U13" s="81"/>
+    </row>
+    <row r="14" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="58">
+      <c r="B14" s="68">
         <v>12</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="76" t="s">
+      <c r="E14" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="F14" s="76" t="s">
+      <c r="F14" s="71" t="s">
         <v>141</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="57" t="s">
+      <c r="H14" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="57" t="s">
+      <c r="I14" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="56">
-        <v>1</v>
-      </c>
-      <c r="K14" s="56">
-        <v>1</v>
-      </c>
-      <c r="L14" s="56">
-        <v>1</v>
-      </c>
-      <c r="M14" s="56">
-        <v>1</v>
-      </c>
-      <c r="N14" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="O14" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q14" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="S14" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="T14" s="12" t="s">
+      <c r="J14" s="78">
+        <v>1</v>
+      </c>
+      <c r="K14" s="78">
+        <v>1</v>
+      </c>
+      <c r="L14" s="78">
+        <v>1</v>
+      </c>
+      <c r="M14" s="78">
+        <v>1</v>
+      </c>
+      <c r="N14" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="O14" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q14" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="R14" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="S14" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="T14" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="U14" s="12"/>
-    </row>
-    <row r="15" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
+      <c r="U14" s="81"/>
+    </row>
+    <row r="15" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="58">
+      <c r="B15" s="68">
         <v>13</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="76" t="s">
+      <c r="E15" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="F15" s="76" t="s">
+      <c r="F15" s="71" t="s">
         <v>141</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="57" t="s">
+      <c r="H15" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="57" t="s">
+      <c r="I15" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="56">
-        <v>1</v>
-      </c>
-      <c r="K15" s="56">
-        <v>1</v>
-      </c>
-      <c r="L15" s="56">
+      <c r="J15" s="78">
+        <v>1</v>
+      </c>
+      <c r="K15" s="78">
+        <v>1</v>
+      </c>
+      <c r="L15" s="78">
         <v>2</v>
       </c>
-      <c r="M15" s="56">
+      <c r="M15" s="78">
         <v>2</v>
       </c>
-      <c r="N15" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="O15" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q15" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="S15" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="T15" s="12" t="s">
+      <c r="N15" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q15" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="R15" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="S15" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="T15" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="U15" s="12" t="s">
+      <c r="U15" s="81" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="58">
+      <c r="B16" s="68">
         <v>14</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="76" t="s">
+      <c r="E16" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>144</v>
+      <c r="F16" s="69" t="s">
+        <v>154</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="I16" s="57" t="s">
+      <c r="H16" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="I16" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="56">
-        <v>1</v>
-      </c>
-      <c r="K16" s="56">
-        <v>1</v>
-      </c>
-      <c r="L16" s="56">
+      <c r="J16" s="78">
+        <v>1</v>
+      </c>
+      <c r="K16" s="78">
+        <v>1</v>
+      </c>
+      <c r="L16" s="78">
         <v>0</v>
       </c>
-      <c r="M16" s="56">
+      <c r="M16" s="78">
         <v>0</v>
       </c>
-      <c r="N16" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="O16" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q16" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="S16" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-    </row>
-    <row r="17" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+      <c r="N16" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="O16" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q16" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="R16" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="S16" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="T16" s="81"/>
+      <c r="U16" s="81"/>
+    </row>
+    <row r="17" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="78">
+      <c r="B17" s="72">
         <v>15</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="E17" s="76" t="s">
+      <c r="E17" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="F17" s="76" t="s">
-        <v>145</v>
+      <c r="F17" s="71" t="s">
+        <v>144</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="57" t="s">
+      <c r="H17" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="I17" s="57" t="s">
+      <c r="I17" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="J17" s="56">
-        <v>1</v>
-      </c>
-      <c r="K17" s="56">
-        <v>1</v>
-      </c>
-      <c r="L17" s="56">
+      <c r="J17" s="78">
+        <v>1</v>
+      </c>
+      <c r="K17" s="78">
+        <v>1</v>
+      </c>
+      <c r="L17" s="78">
         <v>0</v>
       </c>
-      <c r="M17" s="56">
+      <c r="M17" s="78">
         <v>0</v>
       </c>
-      <c r="N17" s="67" t="s">
+      <c r="N17" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="O17" s="64" t="s">
+      <c r="O17" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="P17" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="Q17" s="67" t="s">
+      <c r="Q17" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="R17" s="4" t="s">
+      <c r="R17" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="S17" s="67" t="s">
+      <c r="S17" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-    </row>
-    <row r="18" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
+      <c r="T17" s="81"/>
+      <c r="U17" s="81"/>
+    </row>
+    <row r="18" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="78">
+      <c r="B18" s="72">
         <v>16</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="76" t="s">
+      <c r="E18" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>146</v>
+      <c r="F18" s="69" t="s">
+        <v>145</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="57" t="s">
-        <v>151</v>
-      </c>
-      <c r="I18" s="57" t="s">
+      <c r="H18" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="I18" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="56">
-        <v>1</v>
-      </c>
-      <c r="K18" s="56">
-        <v>1</v>
-      </c>
-      <c r="L18" s="56">
+      <c r="J18" s="78">
+        <v>1</v>
+      </c>
+      <c r="K18" s="78">
+        <v>1</v>
+      </c>
+      <c r="L18" s="78">
         <v>0</v>
       </c>
-      <c r="M18" s="56">
+      <c r="M18" s="78">
         <v>0</v>
       </c>
-      <c r="N18" s="67" t="s">
+      <c r="N18" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="64" t="s">
+      <c r="O18" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="P18" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="Q18" s="67" t="s">
+      <c r="Q18" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="R18" s="4" t="s">
+      <c r="R18" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="S18" s="67" t="s">
+      <c r="S18" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-    </row>
-    <row r="19" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
+      <c r="T18" s="81"/>
+      <c r="U18" s="81"/>
+    </row>
+    <row r="19" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="78">
+      <c r="B19" s="72">
         <v>17</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="G19" s="76" t="s">
+      <c r="G19" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="H19" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="I19" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="J19" s="56">
-        <v>1</v>
-      </c>
-      <c r="K19" s="56">
-        <v>1</v>
-      </c>
-      <c r="L19" s="56">
+      <c r="H19" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="J19" s="78">
+        <v>1</v>
+      </c>
+      <c r="K19" s="78">
+        <v>1</v>
+      </c>
+      <c r="L19" s="78">
         <v>0</v>
       </c>
-      <c r="M19" s="56">
+      <c r="M19" s="78">
         <v>0</v>
       </c>
-      <c r="N19" s="67">
+      <c r="N19" s="82">
         <v>3</v>
       </c>
-      <c r="O19" s="64">
+      <c r="O19" s="83">
         <v>300</v>
       </c>
-      <c r="P19" s="4" t="s">
+      <c r="P19" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="Q19" s="67">
-        <v>1</v>
-      </c>
-      <c r="R19" s="4" t="s">
+      <c r="Q19" s="82">
+        <v>1</v>
+      </c>
+      <c r="R19" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="S19" s="67">
-        <v>1</v>
-      </c>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-    </row>
-    <row r="20" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="S19" s="82">
+        <v>1</v>
+      </c>
+      <c r="T19" s="81"/>
+      <c r="U19" s="81"/>
+    </row>
+    <row r="20" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="78">
+      <c r="B20" s="72">
         <v>18</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="76" t="s">
+      <c r="E20" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="69" t="s">
         <v>143</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="57" t="s">
+      <c r="H20" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="I20" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="J20" s="56">
-        <v>1</v>
-      </c>
-      <c r="K20" s="56">
-        <v>1</v>
-      </c>
-      <c r="L20" s="56">
+      <c r="I20" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" s="78">
+        <v>1</v>
+      </c>
+      <c r="K20" s="78">
+        <v>1</v>
+      </c>
+      <c r="L20" s="78">
         <v>0</v>
       </c>
-      <c r="M20" s="56">
+      <c r="M20" s="78">
         <v>0</v>
       </c>
-      <c r="N20" s="67">
+      <c r="N20" s="82">
         <v>3</v>
       </c>
-      <c r="O20" s="64">
+      <c r="O20" s="83">
         <v>300</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="P20" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="Q20" s="67">
+      <c r="Q20" s="82">
         <v>2</v>
       </c>
-      <c r="R20" s="4" t="s">
+      <c r="R20" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="S20" s="67">
+      <c r="S20" s="82">
         <v>2</v>
       </c>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-    </row>
-    <row r="21" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
+      <c r="T20" s="81"/>
+      <c r="U20" s="81"/>
+    </row>
+    <row r="21" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="78">
+      <c r="B21" s="72">
         <v>19</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="69" t="s">
         <v>140</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H21" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="I21" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="J21" s="56">
-        <v>1</v>
-      </c>
-      <c r="K21" s="56">
-        <v>1</v>
-      </c>
-      <c r="L21" s="56">
+      <c r="H21" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" s="78">
+        <v>1</v>
+      </c>
+      <c r="K21" s="78">
+        <v>1</v>
+      </c>
+      <c r="L21" s="78">
         <v>0</v>
       </c>
-      <c r="M21" s="56">
+      <c r="M21" s="78">
         <v>0</v>
       </c>
-      <c r="N21" s="67">
-        <v>1</v>
-      </c>
-      <c r="O21" s="64">
+      <c r="N21" s="82">
+        <v>1</v>
+      </c>
+      <c r="O21" s="83">
         <v>600</v>
       </c>
-      <c r="P21" s="4" t="s">
+      <c r="P21" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="Q21" s="67">
+      <c r="Q21" s="82">
         <v>3</v>
       </c>
-      <c r="R21" s="4" t="s">
+      <c r="R21" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="S21" s="67">
-        <v>1</v>
-      </c>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-    </row>
-    <row r="22" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+      <c r="S21" s="82">
+        <v>1</v>
+      </c>
+      <c r="T21" s="81"/>
+      <c r="U21" s="81"/>
+    </row>
+    <row r="22" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="78">
+      <c r="B22" s="72">
         <v>20</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="E22" s="76" t="s">
+      <c r="E22" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="69" t="s">
         <v>143</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="57" t="s">
+      <c r="H22" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="I22" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="J22" s="56">
-        <v>1</v>
-      </c>
-      <c r="K22" s="56">
-        <v>1</v>
-      </c>
-      <c r="L22" s="56">
+      <c r="I22" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="78">
+        <v>1</v>
+      </c>
+      <c r="K22" s="78">
+        <v>1</v>
+      </c>
+      <c r="L22" s="78">
         <v>0</v>
       </c>
-      <c r="M22" s="56">
+      <c r="M22" s="78">
         <v>0</v>
       </c>
-      <c r="N22" s="67">
-        <v>1</v>
-      </c>
-      <c r="O22" s="64">
+      <c r="N22" s="82">
+        <v>1</v>
+      </c>
+      <c r="O22" s="83">
         <v>600</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="P22" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="Q22" s="67">
+      <c r="Q22" s="82">
         <v>4</v>
       </c>
-      <c r="R22" s="4" t="s">
+      <c r="R22" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="S22" s="67">
+      <c r="S22" s="82">
         <v>2</v>
       </c>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-    </row>
-    <row r="23" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
+      <c r="T22" s="81"/>
+      <c r="U22" s="81"/>
+    </row>
+    <row r="23" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="68"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="80"/>
+      <c r="S23" s="84"/>
+      <c r="T23" s="81"/>
+      <c r="U23" s="81"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B24" s="14"/>
+      <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="D25" s="69" t="s">
+      <c r="D25" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="79" t="s">
+      <c r="E25" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="F25" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="F25" s="79" t="s">
-        <v>148</v>
-      </c>
-      <c r="G25" s="69" t="s">
-        <v>150</v>
-      </c>
-      <c r="H25" s="27" t="s">
+      <c r="G25" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="H25" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="I25" s="27" t="s">
+      <c r="I25" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="J25" s="81" t="s">
+      <c r="J25" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="K25" s="81"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="81"/>
-      <c r="N25" s="81"/>
-      <c r="O25" s="81"/>
-      <c r="P25" s="82" t="s">
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="76"/>
+      <c r="P25" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="Q25" s="82"/>
-      <c r="R25" s="82" t="s">
+      <c r="Q25" s="77"/>
+      <c r="R25" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="S25" s="82"/>
-      <c r="T25" s="28" t="s">
+      <c r="S25" s="77"/>
+      <c r="T25" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="U25" s="69" t="s">
+      <c r="U25" s="55" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="175.5" x14ac:dyDescent="0.2">
-      <c r="C26" s="77" t="s">
+      <c r="C26" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="H26" s="27" t="s">
+      <c r="H26" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I26" s="27"/>
+      <c r="I26" s="22"/>
     </row>
     <row r="27" spans="1:21" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="I27" s="27"/>
+      <c r="I27" s="22"/>
     </row>
     <row r="28" spans="1:21" ht="87.75" x14ac:dyDescent="0.2">
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="I28" s="27"/>
+      <c r="I28" s="22"/>
     </row>
     <row r="29" spans="1:21" ht="87.75" x14ac:dyDescent="0.2">
-      <c r="H29" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="I29" s="27"/>
+      <c r="H29" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="I29" s="22"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
     </row>
     <row r="33" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
     </row>
     <row r="35" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
     </row>
   </sheetData>
   <dataConsolidate/>

--- a/oase-root/libs/commonlibs/template.xlsx
+++ b/oase-root/libs/commonlibs/template.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="159">
   <si>
     <t>RuleSet</t>
   </si>
@@ -487,7 +487,7 @@
   </si>
   <si>
     <r>
-      <t>Action parameter information</t>
+      <t>Action retry interval</t>
     </r>
     <r>
       <rPr>
@@ -522,7 +522,7 @@
     <r>
       <rPr>
         <sz val="7"/>
-        <color theme="4"/>
+        <color indexed="30"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
@@ -532,17 +532,17 @@
     <r>
       <rPr>
         <sz val="7"/>
-        <color theme="4"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Can't use double quotation</t>
+        <color indexed="30"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Define over "1"</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>Action retry interval</t>
+      <t>Number of Action retries</t>
     </r>
     <r>
       <rPr>
@@ -597,7 +597,7 @@
   </si>
   <si>
     <r>
-      <t>Number of Action retries</t>
+      <t>Action deterrent interval</t>
     </r>
     <r>
       <rPr>
@@ -646,18 +646,18 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Define over "1"</t>
+      <t>Define over "0"</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>Action deterrent interval</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color indexed="10"/>
+      <t>Number of action conditions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
@@ -667,7 +667,7 @@
     <r>
       <rPr>
         <sz val="7"/>
-        <color indexed="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -676,7 +676,7 @@
     <r>
       <rPr>
         <sz val="7"/>
-        <color indexed="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
@@ -687,7 +687,7 @@
     <r>
       <rPr>
         <sz val="7"/>
-        <color indexed="30"/>
+        <color rgb="FF0070C0"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
@@ -697,17 +697,17 @@
     <r>
       <rPr>
         <sz val="7"/>
-        <color indexed="30"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Define over "0"</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Number of action conditions</t>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Define over "1"</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Action condition period(Seconds)</t>
     </r>
     <r>
       <rPr>
@@ -762,7 +762,42 @@
   </si>
   <si>
     <r>
-      <t>Action condition period(Seconds)</t>
+      <t>Big group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Big group priority</t>
     </r>
     <r>
       <rPr>
@@ -811,13 +846,13 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Define over "1"</t>
+      <t>Define serial number from "1".</t>
     </r>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>Big group</t>
+      <t>Small group</t>
     </r>
     <r>
       <rPr>
@@ -852,7 +887,7 @@
   </si>
   <si>
     <r>
-      <t>Big group priority</t>
+      <t>Small group priority</t>
     </r>
     <r>
       <rPr>
@@ -901,18 +936,18 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Define serial number from "1".</t>
+      <t>Define serial number from "1"</t>
     </r>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>Small group</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
+      <t>Number of deterrent actions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color indexed="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
@@ -922,7 +957,7 @@
     <r>
       <rPr>
         <sz val="7"/>
-        <color rgb="FFFF0000"/>
+        <color indexed="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -931,42 +966,7 @@
     <r>
       <rPr>
         <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Small group priority</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Required</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
+        <color indexed="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
@@ -977,61 +977,6 @@
     <r>
       <rPr>
         <sz val="7"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>※</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Define serial number from "1"</t>
-    </r>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Number of deterrent actions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color indexed="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color indexed="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Required</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color indexed="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
         <color indexed="30"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
@@ -1074,47 +1019,6 @@
   </si>
   <si>
     <t>^.*An error has occured.*$</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Action parameter information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Required</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）
-※</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Can't use double quotation</t>
-    </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
@@ -2045,6 +1949,138 @@
       <t>キヒョウ</t>
     </rPh>
     <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>rule21</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>No Action</t>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>情報データの取得に失敗</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <t>Action parameter information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color indexed="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color indexed="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="4"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Can't use double quotation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="4"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>If the Action Type is No Action, enter "X"</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Action parameter information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）
+※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Can't use double quotation
+If the Action Type is No Action, enter "X"</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2802,12 +2838,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
@@ -2839,6 +2869,12 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3431,10 +3467,10 @@
         <v>14</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>15</v>
@@ -3487,49 +3523,49 @@
         <v>81</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G11" s="57" t="s">
         <v>82</v>
       </c>
       <c r="H11" s="57" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="I11" s="57" t="s">
         <v>80</v>
       </c>
       <c r="J11" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="K11" s="57" t="s">
+      <c r="L11" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="L11" s="59" t="s">
+      <c r="M11" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="M11" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="N11" s="60" t="s">
+      <c r="O11" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="O11" s="60" t="s">
+      <c r="P11" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="P11" s="60" t="s">
+      <c r="Q11" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="Q11" s="60" t="s">
+      <c r="R11" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="R11" s="60" t="s">
+      <c r="S11" s="60" t="s">
         <v>91</v>
-      </c>
-      <c r="S11" s="60" t="s">
-        <v>92</v>
       </c>
       <c r="T11" s="61" t="s">
         <v>77</v>
@@ -3726,7 +3762,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
@@ -3754,58 +3790,58 @@
     <row r="1" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>97</v>
-      </c>
       <c r="H2" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="K2" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="L2" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="M2" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="N2" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="M2" s="60" t="s">
+      <c r="O2" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="N2" s="60" t="s">
+      <c r="P2" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="O2" s="60" t="s">
+      <c r="Q2" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="P2" s="60" t="s">
+      <c r="R2" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="Q2" s="60" t="s">
+      <c r="S2" s="60" t="s">
         <v>109</v>
-      </c>
-      <c r="R2" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="S2" s="60" t="s">
-        <v>111</v>
       </c>
       <c r="T2" s="61" t="s">
         <v>77</v>
@@ -3816,22 +3852,22 @@
     </row>
     <row r="3" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="68">
         <v>1</v>
       </c>
       <c r="C3" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F3" s="69" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>30</v>
@@ -3842,59 +3878,59 @@
       <c r="I3" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="78">
-        <v>1</v>
-      </c>
-      <c r="K3" s="78">
-        <v>1</v>
-      </c>
-      <c r="L3" s="78">
+      <c r="J3" s="76">
+        <v>1</v>
+      </c>
+      <c r="K3" s="76">
+        <v>1</v>
+      </c>
+      <c r="L3" s="76">
         <v>0</v>
       </c>
-      <c r="M3" s="78">
+      <c r="M3" s="76">
         <v>0</v>
       </c>
-      <c r="N3" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="O3" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="P3" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q3" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="R3" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="S3" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81" t="s">
+      <c r="N3" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="P3" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="R3" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="S3" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="68">
         <v>2</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="69" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F4" s="69" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>30</v>
@@ -3905,57 +3941,57 @@
       <c r="I4" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="78">
-        <v>1</v>
-      </c>
-      <c r="K4" s="78">
-        <v>1</v>
-      </c>
-      <c r="L4" s="78">
+      <c r="J4" s="76">
+        <v>1</v>
+      </c>
+      <c r="K4" s="76">
+        <v>1</v>
+      </c>
+      <c r="L4" s="76">
         <v>0</v>
       </c>
-      <c r="M4" s="78">
+      <c r="M4" s="76">
         <v>0</v>
       </c>
-      <c r="N4" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="P4" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q4" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="R4" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="S4" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="T4" s="81"/>
-      <c r="U4" s="81"/>
+      <c r="N4" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="R4" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="S4" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
     </row>
     <row r="5" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="68">
         <v>3</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="69" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F5" s="69" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>30</v>
@@ -3966,59 +4002,59 @@
       <c r="I5" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="78">
-        <v>1</v>
-      </c>
-      <c r="K5" s="78">
-        <v>1</v>
-      </c>
-      <c r="L5" s="78">
+      <c r="J5" s="76">
+        <v>1</v>
+      </c>
+      <c r="K5" s="76">
+        <v>1</v>
+      </c>
+      <c r="L5" s="76">
         <v>0</v>
       </c>
-      <c r="M5" s="78">
+      <c r="M5" s="76">
         <v>0</v>
       </c>
-      <c r="N5" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="O5" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="P5" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q5" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="R5" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="S5" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="T5" s="81" t="s">
+      <c r="N5" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="R5" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="S5" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="T5" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="U5" s="81"/>
+      <c r="U5" s="79"/>
     </row>
     <row r="6" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="68">
         <v>4</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="69" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F6" s="69" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>30</v>
@@ -4029,57 +4065,57 @@
       <c r="I6" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="78">
-        <v>1</v>
-      </c>
-      <c r="K6" s="78">
-        <v>1</v>
-      </c>
-      <c r="L6" s="78">
+      <c r="J6" s="76">
+        <v>1</v>
+      </c>
+      <c r="K6" s="76">
+        <v>1</v>
+      </c>
+      <c r="L6" s="76">
         <v>0</v>
       </c>
-      <c r="M6" s="78">
+      <c r="M6" s="76">
         <v>0</v>
       </c>
-      <c r="N6" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="O6" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="P6" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q6" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="R6" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="S6" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="T6" s="81"/>
-      <c r="U6" s="81"/>
+      <c r="N6" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="R6" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="S6" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
     </row>
     <row r="7" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="68">
         <v>5</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="69" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F7" s="69" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>30</v>
@@ -4090,57 +4126,57 @@
       <c r="I7" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="78">
-        <v>1</v>
-      </c>
-      <c r="K7" s="78">
-        <v>1</v>
-      </c>
-      <c r="L7" s="78">
+      <c r="J7" s="76">
+        <v>1</v>
+      </c>
+      <c r="K7" s="76">
+        <v>1</v>
+      </c>
+      <c r="L7" s="76">
         <v>0</v>
       </c>
-      <c r="M7" s="78">
+      <c r="M7" s="76">
         <v>0</v>
       </c>
-      <c r="N7" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="O7" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="P7" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q7" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="R7" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="S7" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="T7" s="81"/>
-      <c r="U7" s="81"/>
+      <c r="N7" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="R7" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="S7" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="T7" s="79"/>
+      <c r="U7" s="79"/>
     </row>
     <row r="8" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="68">
         <v>6</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="69" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>30</v>
@@ -4151,57 +4187,57 @@
       <c r="I8" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="78">
-        <v>1</v>
-      </c>
-      <c r="K8" s="78">
-        <v>1</v>
-      </c>
-      <c r="L8" s="78">
+      <c r="J8" s="76">
+        <v>1</v>
+      </c>
+      <c r="K8" s="76">
+        <v>1</v>
+      </c>
+      <c r="L8" s="76">
         <v>0</v>
       </c>
-      <c r="M8" s="78">
+      <c r="M8" s="76">
         <v>0</v>
       </c>
-      <c r="N8" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="O8" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="P8" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q8" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="R8" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="S8" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="T8" s="81"/>
-      <c r="U8" s="81"/>
+      <c r="N8" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="R8" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="S8" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="T8" s="79"/>
+      <c r="U8" s="79"/>
     </row>
     <row r="9" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="68">
         <v>7</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" s="69" t="s">
         <v>46</v>
       </c>
       <c r="E9" s="71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F9" s="69" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>30</v>
@@ -4212,57 +4248,57 @@
       <c r="I9" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="78">
-        <v>1</v>
-      </c>
-      <c r="K9" s="78">
-        <v>1</v>
-      </c>
-      <c r="L9" s="78">
+      <c r="J9" s="76">
+        <v>1</v>
+      </c>
+      <c r="K9" s="76">
+        <v>1</v>
+      </c>
+      <c r="L9" s="76">
         <v>0</v>
       </c>
-      <c r="M9" s="78">
+      <c r="M9" s="76">
         <v>0</v>
       </c>
-      <c r="N9" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="O9" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="P9" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q9" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="R9" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="S9" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="T9" s="81"/>
-      <c r="U9" s="81"/>
+      <c r="N9" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="R9" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="S9" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="T9" s="79"/>
+      <c r="U9" s="79"/>
     </row>
     <row r="10" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" s="68">
         <v>8</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" s="69" t="s">
         <v>47</v>
       </c>
       <c r="E10" s="71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F10" s="69" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>30</v>
@@ -4273,57 +4309,57 @@
       <c r="I10" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="78">
-        <v>1</v>
-      </c>
-      <c r="K10" s="78">
-        <v>1</v>
-      </c>
-      <c r="L10" s="78">
+      <c r="J10" s="76">
+        <v>1</v>
+      </c>
+      <c r="K10" s="76">
+        <v>1</v>
+      </c>
+      <c r="L10" s="76">
         <v>0</v>
       </c>
-      <c r="M10" s="78">
+      <c r="M10" s="76">
         <v>0</v>
       </c>
-      <c r="N10" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="O10" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="P10" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q10" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="R10" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="S10" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="T10" s="81"/>
-      <c r="U10" s="81"/>
+      <c r="N10" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="O10" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="R10" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="S10" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="T10" s="79"/>
+      <c r="U10" s="79"/>
     </row>
     <row r="11" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" s="68">
         <v>9</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="69" t="s">
         <v>48</v>
       </c>
       <c r="E11" s="71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F11" s="69" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>30</v>
@@ -4334,57 +4370,57 @@
       <c r="I11" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="78">
-        <v>1</v>
-      </c>
-      <c r="K11" s="78">
-        <v>1</v>
-      </c>
-      <c r="L11" s="78">
+      <c r="J11" s="76">
+        <v>1</v>
+      </c>
+      <c r="K11" s="76">
+        <v>1</v>
+      </c>
+      <c r="L11" s="76">
         <v>0</v>
       </c>
-      <c r="M11" s="78">
+      <c r="M11" s="76">
         <v>0</v>
       </c>
-      <c r="N11" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="O11" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="P11" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q11" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="R11" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="S11" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="T11" s="81"/>
-      <c r="U11" s="81"/>
+      <c r="N11" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="R11" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="S11" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
     </row>
     <row r="12" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="68">
         <v>10</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="69" t="s">
         <v>49</v>
       </c>
       <c r="E12" s="71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F12" s="69" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>30</v>
@@ -4395,57 +4431,57 @@
       <c r="I12" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="78">
-        <v>1</v>
-      </c>
-      <c r="K12" s="78">
-        <v>1</v>
-      </c>
-      <c r="L12" s="78">
+      <c r="J12" s="76">
+        <v>1</v>
+      </c>
+      <c r="K12" s="76">
+        <v>1</v>
+      </c>
+      <c r="L12" s="76">
         <v>0</v>
       </c>
-      <c r="M12" s="78">
+      <c r="M12" s="76">
         <v>0</v>
       </c>
-      <c r="N12" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="O12" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="P12" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q12" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="R12" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="S12" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="T12" s="81"/>
-      <c r="U12" s="81"/>
+      <c r="N12" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="R12" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="S12" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="T12" s="79"/>
+      <c r="U12" s="79"/>
     </row>
     <row r="13" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" s="68">
         <v>11</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="69" t="s">
         <v>57</v>
       </c>
       <c r="E13" s="71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F13" s="69" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>30</v>
@@ -4456,57 +4492,57 @@
       <c r="I13" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="78">
-        <v>1</v>
-      </c>
-      <c r="K13" s="78">
-        <v>1</v>
-      </c>
-      <c r="L13" s="78">
+      <c r="J13" s="76">
+        <v>1</v>
+      </c>
+      <c r="K13" s="76">
+        <v>1</v>
+      </c>
+      <c r="L13" s="76">
         <v>0</v>
       </c>
-      <c r="M13" s="78">
+      <c r="M13" s="76">
         <v>0</v>
       </c>
-      <c r="N13" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="O13" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="P13" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q13" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="R13" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="S13" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="T13" s="81"/>
-      <c r="U13" s="81"/>
+      <c r="N13" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="O13" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="R13" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="S13" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
     </row>
     <row r="14" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" s="68">
         <v>12</v>
       </c>
       <c r="C14" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="69" t="s">
         <v>58</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F14" s="71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>29</v>
@@ -4517,59 +4553,59 @@
       <c r="I14" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="78">
-        <v>1</v>
-      </c>
-      <c r="K14" s="78">
-        <v>1</v>
-      </c>
-      <c r="L14" s="78">
-        <v>1</v>
-      </c>
-      <c r="M14" s="78">
-        <v>1</v>
-      </c>
-      <c r="N14" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="O14" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="P14" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q14" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="R14" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="S14" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="T14" s="81" t="s">
+      <c r="J14" s="76">
+        <v>1</v>
+      </c>
+      <c r="K14" s="76">
+        <v>1</v>
+      </c>
+      <c r="L14" s="76">
+        <v>1</v>
+      </c>
+      <c r="M14" s="76">
+        <v>1</v>
+      </c>
+      <c r="N14" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="O14" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q14" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="R14" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="S14" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="T14" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="U14" s="81"/>
+      <c r="U14" s="79"/>
     </row>
     <row r="15" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="68">
         <v>13</v>
       </c>
       <c r="C15" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D15" s="69" t="s">
         <v>59</v>
       </c>
       <c r="E15" s="71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F15" s="71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>29</v>
@@ -4580,247 +4616,247 @@
       <c r="I15" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="78">
-        <v>1</v>
-      </c>
-      <c r="K15" s="78">
-        <v>1</v>
-      </c>
-      <c r="L15" s="78">
+      <c r="J15" s="76">
+        <v>1</v>
+      </c>
+      <c r="K15" s="76">
+        <v>1</v>
+      </c>
+      <c r="L15" s="76">
         <v>2</v>
       </c>
-      <c r="M15" s="78">
+      <c r="M15" s="76">
         <v>2</v>
       </c>
-      <c r="N15" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="O15" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="P15" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q15" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="R15" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="S15" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="T15" s="81" t="s">
+      <c r="N15" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q15" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="R15" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="S15" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="T15" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="U15" s="81" t="s">
+      <c r="U15" s="79" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="68">
         <v>14</v>
       </c>
       <c r="C16" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="69" t="s">
         <v>61</v>
       </c>
       <c r="E16" s="71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F16" s="69" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>62</v>
       </c>
       <c r="H16" s="75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I16" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="78">
-        <v>1</v>
-      </c>
-      <c r="K16" s="78">
-        <v>1</v>
-      </c>
-      <c r="L16" s="78">
+      <c r="J16" s="76">
+        <v>1</v>
+      </c>
+      <c r="K16" s="76">
+        <v>1</v>
+      </c>
+      <c r="L16" s="76">
         <v>0</v>
       </c>
-      <c r="M16" s="78">
+      <c r="M16" s="76">
         <v>0</v>
       </c>
-      <c r="N16" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="O16" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="P16" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q16" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="R16" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="S16" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="T16" s="81"/>
-      <c r="U16" s="81"/>
+      <c r="N16" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="O16" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q16" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="R16" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="S16" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="T16" s="79"/>
+      <c r="U16" s="79"/>
     </row>
     <row r="17" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" s="72">
         <v>15</v>
       </c>
       <c r="C17" s="70" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D17" s="69" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E17" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="71" t="s">
         <v>142</v>
-      </c>
-      <c r="F17" s="71" t="s">
-        <v>144</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>62</v>
       </c>
       <c r="H17" s="75" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I17" s="75" t="s">
-        <v>129</v>
-      </c>
-      <c r="J17" s="78">
-        <v>1</v>
-      </c>
-      <c r="K17" s="78">
-        <v>1</v>
-      </c>
-      <c r="L17" s="78">
+        <v>127</v>
+      </c>
+      <c r="J17" s="76">
+        <v>1</v>
+      </c>
+      <c r="K17" s="76">
+        <v>1</v>
+      </c>
+      <c r="L17" s="76">
         <v>0</v>
       </c>
-      <c r="M17" s="78">
+      <c r="M17" s="76">
         <v>0</v>
       </c>
-      <c r="N17" s="82" t="s">
-        <v>129</v>
-      </c>
-      <c r="O17" s="83" t="s">
-        <v>129</v>
-      </c>
-      <c r="P17" s="80" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q17" s="82" t="s">
-        <v>129</v>
-      </c>
-      <c r="R17" s="80" t="s">
-        <v>129</v>
-      </c>
-      <c r="S17" s="82" t="s">
-        <v>129</v>
-      </c>
-      <c r="T17" s="81"/>
-      <c r="U17" s="81"/>
+      <c r="N17" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="O17" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="P17" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q17" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="R17" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="S17" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
     </row>
     <row r="18" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" s="72">
         <v>16</v>
       </c>
       <c r="C18" s="70" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D18" s="69" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E18" s="71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F18" s="69" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>62</v>
       </c>
       <c r="H18" s="75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I18" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="78">
-        <v>1</v>
-      </c>
-      <c r="K18" s="78">
-        <v>1</v>
-      </c>
-      <c r="L18" s="78">
+      <c r="J18" s="76">
+        <v>1</v>
+      </c>
+      <c r="K18" s="76">
+        <v>1</v>
+      </c>
+      <c r="L18" s="76">
         <v>0</v>
       </c>
-      <c r="M18" s="78">
+      <c r="M18" s="76">
         <v>0</v>
       </c>
-      <c r="N18" s="82" t="s">
+      <c r="N18" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="83" t="s">
+      <c r="O18" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="P18" s="80" t="s">
+      <c r="P18" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="Q18" s="82" t="s">
+      <c r="Q18" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="R18" s="80" t="s">
+      <c r="R18" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="S18" s="82" t="s">
+      <c r="S18" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="T18" s="81"/>
-      <c r="U18" s="81"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="79"/>
     </row>
     <row r="19" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="72">
         <v>17</v>
       </c>
       <c r="C19" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D19" s="69" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E19" s="69" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F19" s="69" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G19" s="62" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H19" s="75" t="s">
         <v>70</v>
@@ -4828,57 +4864,57 @@
       <c r="I19" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="J19" s="78">
-        <v>1</v>
-      </c>
-      <c r="K19" s="78">
-        <v>1</v>
-      </c>
-      <c r="L19" s="78">
+      <c r="J19" s="76">
+        <v>1</v>
+      </c>
+      <c r="K19" s="76">
+        <v>1</v>
+      </c>
+      <c r="L19" s="76">
         <v>0</v>
       </c>
-      <c r="M19" s="78">
+      <c r="M19" s="76">
         <v>0</v>
       </c>
-      <c r="N19" s="82">
+      <c r="N19" s="80">
         <v>3</v>
       </c>
-      <c r="O19" s="83">
+      <c r="O19" s="81">
         <v>300</v>
       </c>
-      <c r="P19" s="80" t="s">
+      <c r="P19" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="Q19" s="82">
-        <v>1</v>
-      </c>
-      <c r="R19" s="80" t="s">
+      <c r="Q19" s="80">
+        <v>1</v>
+      </c>
+      <c r="R19" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="S19" s="82">
-        <v>1</v>
-      </c>
-      <c r="T19" s="81"/>
-      <c r="U19" s="81"/>
+      <c r="S19" s="80">
+        <v>1</v>
+      </c>
+      <c r="T19" s="79"/>
+      <c r="U19" s="79"/>
     </row>
     <row r="20" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" s="72">
         <v>18</v>
       </c>
       <c r="C20" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D20" s="69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E20" s="71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F20" s="69" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>39</v>
@@ -4889,60 +4925,60 @@
       <c r="I20" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="J20" s="78">
-        <v>1</v>
-      </c>
-      <c r="K20" s="78">
-        <v>1</v>
-      </c>
-      <c r="L20" s="78">
+      <c r="J20" s="76">
+        <v>1</v>
+      </c>
+      <c r="K20" s="76">
+        <v>1</v>
+      </c>
+      <c r="L20" s="76">
         <v>0</v>
       </c>
-      <c r="M20" s="78">
+      <c r="M20" s="76">
         <v>0</v>
       </c>
-      <c r="N20" s="82">
+      <c r="N20" s="80">
         <v>3</v>
       </c>
-      <c r="O20" s="83">
+      <c r="O20" s="81">
         <v>300</v>
       </c>
-      <c r="P20" s="80" t="s">
+      <c r="P20" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="Q20" s="82">
+      <c r="Q20" s="80">
         <v>2</v>
       </c>
-      <c r="R20" s="80" t="s">
+      <c r="R20" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="S20" s="82">
+      <c r="S20" s="80">
         <v>2</v>
       </c>
-      <c r="T20" s="81"/>
-      <c r="U20" s="81"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="79"/>
     </row>
     <row r="21" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" s="72">
         <v>19</v>
       </c>
       <c r="C21" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D21" s="69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E21" s="69" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F21" s="69" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H21" s="75" t="s">
         <v>70</v>
@@ -4950,57 +4986,57 @@
       <c r="I21" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="J21" s="78">
-        <v>1</v>
-      </c>
-      <c r="K21" s="78">
-        <v>1</v>
-      </c>
-      <c r="L21" s="78">
+      <c r="J21" s="76">
+        <v>1</v>
+      </c>
+      <c r="K21" s="76">
+        <v>1</v>
+      </c>
+      <c r="L21" s="76">
         <v>0</v>
       </c>
-      <c r="M21" s="78">
+      <c r="M21" s="76">
         <v>0</v>
       </c>
-      <c r="N21" s="82">
-        <v>1</v>
-      </c>
-      <c r="O21" s="83">
+      <c r="N21" s="80">
+        <v>1</v>
+      </c>
+      <c r="O21" s="81">
         <v>600</v>
       </c>
-      <c r="P21" s="80" t="s">
+      <c r="P21" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="Q21" s="82">
+      <c r="Q21" s="80">
         <v>3</v>
       </c>
-      <c r="R21" s="80" t="s">
+      <c r="R21" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="S21" s="82">
-        <v>1</v>
-      </c>
-      <c r="T21" s="81"/>
-      <c r="U21" s="81"/>
+      <c r="S21" s="80">
+        <v>1</v>
+      </c>
+      <c r="T21" s="79"/>
+      <c r="U21" s="79"/>
     </row>
     <row r="22" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" s="72">
         <v>20</v>
       </c>
       <c r="C22" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E22" s="71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F22" s="69" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>39</v>
@@ -5011,145 +5047,202 @@
       <c r="I22" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="J22" s="78">
-        <v>1</v>
-      </c>
-      <c r="K22" s="78">
-        <v>1</v>
-      </c>
-      <c r="L22" s="78">
+      <c r="J22" s="76">
+        <v>1</v>
+      </c>
+      <c r="K22" s="76">
+        <v>1</v>
+      </c>
+      <c r="L22" s="76">
         <v>0</v>
       </c>
-      <c r="M22" s="78">
+      <c r="M22" s="76">
         <v>0</v>
       </c>
-      <c r="N22" s="82">
-        <v>1</v>
-      </c>
-      <c r="O22" s="83">
+      <c r="N22" s="80">
+        <v>1</v>
+      </c>
+      <c r="O22" s="81">
         <v>600</v>
       </c>
-      <c r="P22" s="80" t="s">
+      <c r="P22" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="Q22" s="82">
+      <c r="Q22" s="80">
         <v>4</v>
       </c>
-      <c r="R22" s="80" t="s">
+      <c r="R22" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="S22" s="82">
+      <c r="S22" s="80">
         <v>2</v>
       </c>
-      <c r="T22" s="81"/>
-      <c r="U22" s="81"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
     </row>
     <row r="23" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="73"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="85"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="80"/>
-      <c r="S23" s="84"/>
-      <c r="T23" s="81"/>
-      <c r="U23" s="81"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B24" s="11"/>
-    </row>
-    <row r="25" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="72">
+        <v>21</v>
+      </c>
+      <c r="C23" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="H23" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="76">
+        <v>0</v>
+      </c>
+      <c r="K23" s="76">
+        <v>0</v>
+      </c>
+      <c r="L23" s="76">
+        <v>0</v>
+      </c>
+      <c r="M23" s="76">
+        <v>0</v>
+      </c>
+      <c r="N23" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="O23" s="81" t="s">
+        <v>155</v>
+      </c>
+      <c r="P23" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q23" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="R23" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="S23" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+    </row>
+    <row r="24" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="73"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="82"/>
+      <c r="R24" s="78"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="79"/>
+      <c r="U24" s="79"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="E26" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="I26" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="J26" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="64" t="s">
-        <v>146</v>
-      </c>
-      <c r="F25" s="64" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="H25" s="22" t="s">
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="84"/>
+      <c r="N26" s="84"/>
+      <c r="O26" s="84"/>
+      <c r="P26" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="I25" s="22" t="s">
+      <c r="Q26" s="85"/>
+      <c r="R26" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="S26" s="85"/>
+      <c r="T26" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="U26" s="55" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="175.5" x14ac:dyDescent="0.2">
+      <c r="C27" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I27" s="22"/>
+    </row>
+    <row r="28" spans="1:21" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="H28" s="22" t="s">
         <v>123</v>
-      </c>
-      <c r="J25" s="76" t="s">
-        <v>117</v>
-      </c>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="76"/>
-      <c r="P25" s="77" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q25" s="77"/>
-      <c r="R25" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="S25" s="77"/>
-      <c r="T25" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="U25" s="55" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="175.5" x14ac:dyDescent="0.2">
-      <c r="C26" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="I26" s="22"/>
-    </row>
-    <row r="27" spans="1:21" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="H27" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="I27" s="22"/>
-    </row>
-    <row r="28" spans="1:21" ht="87.75" x14ac:dyDescent="0.2">
-      <c r="H28" s="22" t="s">
-        <v>126</v>
       </c>
       <c r="I28" s="22"/>
     </row>
     <row r="29" spans="1:21" ht="87.75" x14ac:dyDescent="0.2">
       <c r="H29" s="22" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
+    <row r="30" spans="1:21" ht="87.75" x14ac:dyDescent="0.2">
+      <c r="H30" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="I30" s="22"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H31" s="20"/>
@@ -5171,16 +5264,20 @@
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
     </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="3">
-    <mergeCell ref="J25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="J26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
-  <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G23">
+  <dataValidations count="5">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G24">
       <formula1>"ITA,mail"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G20 G22">
@@ -5191,6 +5288,9 @@
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G19 G21">
       <formula1>"None,ITA(ver1),mail(ver1),ServiceNow(ver1)"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G23">
+      <formula1>"None,No Action,ITA(ver1),mail(ver1),ServiceNow(ver1)"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/oase-root/libs/commonlibs/template.xlsx
+++ b/oase-root/libs/commonlibs/template.xlsx
@@ -15,14 +15,14 @@
     <definedName name="ClaimTypes">Lists!$A$5:$A$7</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_1">Tables!#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">Lists!$A$5:$A$7</definedName>
-    <definedName name="None">example!$G$19</definedName>
+    <definedName name="None">example!$G$23</definedName>
   </definedNames>
   <calcPr calcId="162913" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="167">
   <si>
     <t>RuleSet</t>
   </si>
@@ -175,9 +175,6 @@
   <si>
     <t>ITA_NAME=action43,SYMPHONY_CLASS_ID=2,MENU_ID=1:2,CONVERT_FLG=FALSE</t>
     <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>ITA_NAME=action43,SYMPHONY_CLASS_ID=2,MENU_ID=1:2:3:4,HOSTGROUP_NAME=1:HG1,HOST_NAME=2:H2&amp;H3|3:H4|4:H5&amp;H6&amp;H7,CONVERT_FLG=FALSE</t>
   </si>
   <si>
     <t>rule4</t>
@@ -1574,6 +1571,806 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
+    <t>[mail driver]
+MAIL_NAME is required. It is linked to the Mail driver name in the OASE System screen-&gt; Action settings.
+The "MAIL_TO=,MAIL_CC=,MAIL_BCC=" is the E-mail address you want OASE to send messages to.
+For "MAIL_TEMPLATE=", write the name of the template.
+While both the Address and the Template name can be left blank, you need to write "MAIL_TO=,MAIL_CC=,MAIL_BCC=,MAIL_TEMPLATE=".
+Note that either an E-mail address must be specified to MAIL_TO, or an address must be written in the template specified in MAIL_TEMPLATE.
+If you have more than one address you want to send mails to, seperate them with ";".
+The MAIL_TEMPLATE is linked with the Template name in the OASE system screen-&gt; Action settings-&gt; Mail template.
+If you enter {{ VAR_conditionName }} in the MAIL_TO, MAIL_CC, and MAIL_BCC values, you can apply them to the values in the condition part.</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>^.*An error has occured.*$</t>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>SERVICENOW_NAME=ServiceNowTest,WORKFLOW_ID=abcdef1234567890</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>rule16</t>
+  </si>
+  <si>
+    <t>rule17</t>
+  </si>
+  <si>
+    <t>rule18</t>
+  </si>
+  <si>
+    <t>rule19</t>
+  </si>
+  <si>
+    <t>rule20</t>
+  </si>
+  <si>
+    <t>m.getActs().addIncidentHappened("$param");</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.getActs().addHandlingSummary("$param");</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Incident happened</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color indexed="17"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color indexed="30"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color indexed="30"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Define with "X" if not needed</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Handling summary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color indexed="17"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color indexed="30"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color indexed="30"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Define with "X" if not needed</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>メール通知</t>
+    <rPh sb="3" eb="5">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ハードウェアの故障</t>
+    <rPh sb="7" eb="9">
+      <t>コショウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <t>ITA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>による対処</t>
+    </r>
+    <rPh sb="6" eb="8">
+      <t>タイショ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ServiceNowのワークフローの実行</t>
+    <rPh sb="18" eb="20">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <t>ServiceNow</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>のインシデントステータスの更新(承認付)</t>
+    </r>
+    <rPh sb="23" eb="25">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>SERVICENOW_NAME=ServiceNowTest,INCIDENT_STATUS=NEW</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Choose the action type you want to execute from the pulldown menu.</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>SERVICENOW_NAME=ServiceNowTest,INCIDENT_STATUS=IN_PROGRESS,WORK_NOTES_APPROVAL=APPROVED,WORK_NOTES_REJECTED=REJECTED</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Incident happened（Required）
+※Define with "X" if not needed</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Handling summary（Required）
+※Define with "X" if not needed</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <t>ServiceNow</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に起票</t>
+    </r>
+    <rPh sb="11" eb="13">
+      <t>キヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>No Action</t>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>情報データの取得に失敗</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <t>Action parameter information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color indexed="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color indexed="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="4"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Can't use double quotation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="4"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>If the Action Type is No Action, enter "X"</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Action parameter information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）
+※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Can't use double quotation
+If the Action Type is No Action, enter "X"</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule15</t>
+  </si>
+  <si>
+    <t>rule21</t>
+  </si>
+  <si>
+    <t>rule22</t>
+  </si>
+  <si>
+    <t>rule23</t>
+  </si>
+  <si>
+    <t>ITA_NAME=action43,SYMPHONY_CLASS_ID=2,MENU_ID=1:2:3:4,HOSTGROUP_NAME=1:HG1,HOST_NAME=2:H2&amp;H3|3:H4|4:H5&amp;H6&amp;H7,CONVERT_FLG=FALSE</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <t>ITA_NAME=action43,CONDUCTOR_CLASS_ID=2,SERVER_LIST=hostname1:hostname2,MENU=[{"ID":1,"VALUES":{"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>カラムグループ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>カラム</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>値</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1","</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>カラムグループ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>カラム</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2":"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>値</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2"}}]</t>
+    </r>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <t>ITA_NAME=action43,SYMPHONY_CLASS_ID=2,HOSTGROUP_NAME=1:HG1,HOST_NAME=2:H2&amp;H3,MENU=[{"ID":1,"VALUES":{"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>カラムグループ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>カラム</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>値</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1","</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>カラムグループ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>カラム</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2":"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>値</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2"}},{"ID":2,"VALUES":{"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>カラムグループ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>カラム</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>値</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1","</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>カラムグループ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>カラム</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2":"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>値</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2"}}]</t>
+    </r>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Please input the contents of the event. If you dont want to input anything, please input "X".</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Please input the measure(s). If there is nothing to write, please input "X".</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>【ServiceNow driver】
+SERVICENOW_NAME field is required. The value input is tied to the ServiceNow_driver name in OASE's Action settings screen.
+INCIDENT_STATUS is needed when managing incidents. Write "NEW" to register a new record in ServiceNow Incident Management, "IN_PROGRESS" to indicate that the incident is being handled, "RESOLVED" to indicate that the incident has been resolved, or "CLOSED" to close the incident.
+WORKFLOW_ID is needed when running workflows. Use the sys_id from the ServiceNow workflow schedule edit screen. WORK_NOTES_APPROVAL is required if you want to add an approval action before executing the OASE action using Flow Designer or other tools implemented in SerivceNow. The value is tied to the approval text in the ServiceNow Incident work memo. 
+WORK_NOTES_REJECTED is required if you want to add an approval action before executing the OASE action using Flow Designer or other tools implemented in SerivceNow. The value is tied to the rejection text in the ServiceNow Incident work memo.</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
     <t xml:space="preserve">
 Examples of bad notations
 1)ITA_NAME=action43,SYMPHONY_CLASS_ID=2,CONDUCTOR_CLASS_ID=3
@@ -1584,210 +2381,60 @@
 5)ITA_NAME=action43,SYMPHONY_CLASS_ID=2,SERVER_LIST=hostname1:hostname2,MENU_ID=1
 Setting OPERATION_ID, SERVER_LIST, and MENU_ID at the same time will lead to an error.
 6)ITA_NAME=action43,SYMPHONY_CLASS_ID=2,MENU_ID=1:2,CONVERT_FLG=TRUE
-It is not possible to have CONVERT_FLG set to true if you have multiple MENU_ID configured.</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>[mail driver]
-MAIL_NAME is required. It is linked to the Mail driver name in the OASE System screen-&gt; Action settings.
-The "MAIL_TO=,MAIL_CC=,MAIL_BCC=" is the E-mail address you want OASE to send messages to.
-For "MAIL_TEMPLATE=", write the name of the template.
-While both the Address and the Template name can be left blank, you need to write "MAIL_TO=,MAIL_CC=,MAIL_BCC=,MAIL_TEMPLATE=".
-Note that either an E-mail address must be specified to MAIL_TO, or an address must be written in the template specified in MAIL_TEMPLATE.
-If you have more than one address you want to send mails to, seperate them with ";".
-The MAIL_TEMPLATE is linked with the Template name in the OASE system screen-&gt; Action settings-&gt; Mail template.
-If you enter {{ VAR_conditionName }} in the MAIL_TO, MAIL_CC, and MAIL_BCC values, you can apply them to the values in the condition part.</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>^.*An error has occured.*$</t>
-  </si>
-  <si>
-    <t>rule15</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>SERVICENOW_NAME=ServiceNowTest,WORKFLOW_ID=abcdef1234567890</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>rule16</t>
-  </si>
-  <si>
-    <t>rule17</t>
-  </si>
-  <si>
-    <t>rule18</t>
-  </si>
-  <si>
-    <t>rule19</t>
-  </si>
-  <si>
-    <t>rule20</t>
-  </si>
-  <si>
-    <t>m.getActs().addIncidentHappened("$param");</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>m.getActs().addHandlingSummary("$param");</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Incident happened</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Required</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color indexed="17"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
+It is not possible to have CONVERT_FLG set to true if you have multiple MENU_ID configured.
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color indexed="30"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>※</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color indexed="30"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Define with "X" if not needed</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Handling summary</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Required</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color indexed="17"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color indexed="30"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>※</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color indexed="30"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Define with "X" if not needed</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>メール通知</t>
-    <rPh sb="3" eb="5">
-      <t>ツウチ</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>rule24</t>
+  </si>
+  <si>
+    <t>rule25</t>
+  </si>
+  <si>
+    <r>
+      <t>ITA_NAME=action43,SYMPHONY_NAME=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>プロセス再起動</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,OPERATION_NAME=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>プロセス再起動</t>
+    </r>
+    <rPh sb="36" eb="39">
+      <t>サイキドウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>ハードウェアの故障</t>
-    <rPh sb="7" eb="9">
-      <t>コショウ</t>
+    <rPh sb="59" eb="62">
+      <t>サイキドウ</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
   <si>
     <r>
-      <t>ITA</t>
+      <t>ITA_NAME=action43,CONDUCTOR_NAME=</t>
     </r>
     <r>
       <rPr>
@@ -1797,290 +2444,34 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>による対処</t>
-    </r>
-    <rPh sb="6" eb="8">
-      <t>タイショ</t>
+      <t>プロセス再起動</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,OPERATION_NAME=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>プロセス再起動</t>
+    </r>
+    <rPh sb="37" eb="40">
+      <t>サイキドウ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>ServiceNowのワークフローの実行</t>
-    <rPh sb="18" eb="20">
-      <t>ジッコウ</t>
+    <rPh sb="60" eb="63">
+      <t>サイキドウ</t>
     </rPh>
     <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <r>
-      <t>ServiceNow</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>のインシデントステータスの更新(承認付)</t>
-    </r>
-    <rPh sb="23" eb="25">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>発生した事象の内容を記入してください。記入したい内容がない場合は「X」を記入してください。</t>
-    <rPh sb="0" eb="2">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジショウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キニュウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>キニュウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>対処方法を記入してください。記入内容がない場合は「X」を記入してください。</t>
-    <rPh sb="0" eb="2">
-      <t>タイショ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キニュウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>キニュウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>SERVICENOW_NAME=ServiceNowTest,INCIDENT_STATUS=NEW</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Choose the action type you want to execute from the pulldown menu.</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>SERVICENOW_NAME=ServiceNowTest,INCIDENT_STATUS=IN_PROGRESS,WORK_NOTES_APPROVAL=APPROVED,WORK_NOTES_REJECTED=REJECTED</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>【ServiceNowドライバー】
-SERVICENOW_NAMEは必須です。OASE画面のシステム-アクション設定-ServiceNow_driverの名前と紐づけます。
-INCIDENT_STATUSはインシデント管理の際に必要です。ServiceNowインシデント管理のレコードを新規登録する「NEW」、インシデント対処中となる「IN_PROGRESS」、インシデント解決済みとなる「RESOLVED」またはインシデントを閉じる「CLOSED」を記述します。
-WORKFLOW_IDはワークフローの実行に必要です。ServiceNowのワークフロースケジュール編集画面から、sys_idを取得してください。
-WORK_NOTES_APPROVALはSerivceNowに実装されているFlow Designer等を利用してOASEのアクション実行前に承認アクションを追加したい場合に必要です。
-ServiceNowのIncidentの作業メモに記載されている承認文言と紐づけます。
-WORK_NOTES_REJECTEDはSerivceNowに実装されているFlow Designer等を利用してOASEのアクション実行前に承認アクションを追加したい場合に必要です。
-ServiceNowのIncidentの作業メモに記載されている却下文言と紐づけます。</t>
-    <rPh sb="432" eb="434">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="434" eb="436">
-      <t>モンゴン</t>
-    </rPh>
-    <rPh sb="569" eb="571">
-      <t>キャッカ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Incident happened（Required）
-※Define with "X" if not needed</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>Handling summary（Required）
-※Define with "X" if not needed</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <r>
-      <t>ServiceNow</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>に起票</t>
-    </r>
-    <rPh sb="11" eb="13">
-      <t>キヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>rule21</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>No Action</t>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>情報データの取得に失敗</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <r>
-      <t>Action parameter information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color indexed="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color indexed="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Required</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color indexed="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="4"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>※</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="4"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Can't use double quotation
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="4"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>※</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="4"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>If the Action Type is No Action, enter "X"</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Action parameter information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Required</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）
-※</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Can't use double quotation
-If the Action Type is No Action, enter "X"</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2308,7 +2699,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2561,22 +2952,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2820,10 +3200,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3423,7 +3799,7 @@
         <v>1</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R8" s="14" t="s">
         <v>1</v>
@@ -3467,10 +3843,10 @@
         <v>14</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>15</v>
@@ -3494,84 +3870,84 @@
         <v>20</v>
       </c>
       <c r="N10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="O10" s="9" t="s">
-        <v>64</v>
-      </c>
       <c r="P10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="Q10" s="9" t="s">
+      <c r="R10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="S10" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="S10" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
     </row>
     <row r="11" spans="2:21" s="44" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="43"/>
       <c r="D11" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="G11" s="57" t="s">
+      <c r="H11" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="I11" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="I11" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="57" t="s">
+      <c r="K11" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="K11" s="57" t="s">
+      <c r="L11" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="L11" s="59" t="s">
+      <c r="M11" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="N11" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="M11" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="N11" s="60" t="s">
+      <c r="O11" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="O11" s="60" t="s">
+      <c r="P11" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="P11" s="60" t="s">
+      <c r="Q11" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="Q11" s="60" t="s">
+      <c r="R11" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="R11" s="60" t="s">
+      <c r="S11" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="S11" s="60" t="s">
-        <v>91</v>
-      </c>
       <c r="T11" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="U11" s="61" t="s">
         <v>77</v>
-      </c>
-      <c r="U11" s="61" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="2:21" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -3730,7 +4106,7 @@
     </row>
     <row r="19" spans="2:21" ht="10.5" x14ac:dyDescent="0.2">
       <c r="B19" s="56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="2:21" ht="10.5" x14ac:dyDescent="0.2">
@@ -3762,7 +4138,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U36"/>
+  <dimension ref="A1:U40"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
@@ -3790,1475 +4166,1701 @@
     <row r="1" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="H2" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" s="57" t="s">
-        <v>158</v>
-      </c>
       <c r="I2" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="K2" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="L2" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="M2" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="M2" s="60" t="s">
+      <c r="N2" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="N2" s="60" t="s">
+      <c r="O2" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="O2" s="60" t="s">
+      <c r="P2" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="P2" s="60" t="s">
+      <c r="Q2" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="Q2" s="60" t="s">
+      <c r="R2" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="R2" s="60" t="s">
+      <c r="S2" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="S2" s="60" t="s">
-        <v>109</v>
-      </c>
       <c r="T2" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" s="61" t="s">
         <v>77</v>
-      </c>
-      <c r="U2" s="61" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="68">
         <v>1</v>
       </c>
       <c r="C3" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F3" s="69" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="75" t="s">
+      <c r="H3" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="76">
-        <v>1</v>
-      </c>
-      <c r="K3" s="76">
-        <v>1</v>
-      </c>
-      <c r="L3" s="76">
+      <c r="J3" s="75">
+        <v>1</v>
+      </c>
+      <c r="K3" s="75">
+        <v>1</v>
+      </c>
+      <c r="L3" s="75">
         <v>0</v>
       </c>
-      <c r="M3" s="76">
+      <c r="M3" s="75">
         <v>0</v>
       </c>
-      <c r="N3" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="O3" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="P3" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q3" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="R3" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="S3" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79" t="s">
+      <c r="N3" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="P3" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q3" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="R3" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="S3" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="68">
         <v>2</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" s="71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F4" s="69" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="75" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="75" t="s">
+      <c r="H4" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="76">
-        <v>1</v>
-      </c>
-      <c r="K4" s="76">
-        <v>1</v>
-      </c>
-      <c r="L4" s="76">
+      <c r="J4" s="75">
+        <v>1</v>
+      </c>
+      <c r="K4" s="75">
+        <v>1</v>
+      </c>
+      <c r="L4" s="75">
         <v>0</v>
       </c>
-      <c r="M4" s="76">
+      <c r="M4" s="75">
         <v>0</v>
       </c>
-      <c r="N4" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="P4" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q4" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="R4" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="S4" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
+      <c r="N4" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q4" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="R4" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="S4" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
     </row>
     <row r="5" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="68">
         <v>3</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="69" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F5" s="69" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="76">
-        <v>1</v>
-      </c>
-      <c r="K5" s="76">
-        <v>1</v>
-      </c>
-      <c r="L5" s="76">
+      <c r="J5" s="75">
+        <v>1</v>
+      </c>
+      <c r="K5" s="75">
+        <v>1</v>
+      </c>
+      <c r="L5" s="75">
         <v>0</v>
       </c>
-      <c r="M5" s="76">
+      <c r="M5" s="75">
         <v>0</v>
       </c>
-      <c r="N5" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="O5" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="P5" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q5" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="R5" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="S5" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="T5" s="79" t="s">
+      <c r="N5" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q5" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="R5" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="S5" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="T5" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="U5" s="79"/>
+      <c r="U5" s="78"/>
     </row>
     <row r="6" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="68">
         <v>4</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F6" s="69" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="75" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="75" t="s">
+      <c r="H6" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="76">
-        <v>1</v>
-      </c>
-      <c r="K6" s="76">
-        <v>1</v>
-      </c>
-      <c r="L6" s="76">
+      <c r="J6" s="75">
+        <v>1</v>
+      </c>
+      <c r="K6" s="75">
+        <v>1</v>
+      </c>
+      <c r="L6" s="75">
         <v>0</v>
       </c>
-      <c r="M6" s="76">
+      <c r="M6" s="75">
         <v>0</v>
       </c>
-      <c r="N6" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="O6" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="P6" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q6" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="R6" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="S6" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
+      <c r="N6" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q6" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="R6" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="S6" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
     </row>
     <row r="7" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="68">
         <v>5</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F7" s="69" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="75" t="s">
+      <c r="H7" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="76">
-        <v>1</v>
-      </c>
-      <c r="K7" s="76">
-        <v>1</v>
-      </c>
-      <c r="L7" s="76">
+      <c r="J7" s="75">
+        <v>1</v>
+      </c>
+      <c r="K7" s="75">
+        <v>1</v>
+      </c>
+      <c r="L7" s="75">
         <v>0</v>
       </c>
-      <c r="M7" s="76">
+      <c r="M7" s="75">
         <v>0</v>
       </c>
-      <c r="N7" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="O7" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="P7" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q7" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="R7" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="S7" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="T7" s="79"/>
-      <c r="U7" s="79"/>
+      <c r="N7" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q7" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="S7" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="T7" s="78"/>
+      <c r="U7" s="78"/>
     </row>
     <row r="8" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="68">
         <v>6</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="75" t="s">
+      <c r="H8" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="76">
-        <v>1</v>
-      </c>
-      <c r="K8" s="76">
-        <v>1</v>
-      </c>
-      <c r="L8" s="76">
+      <c r="J8" s="75">
+        <v>1</v>
+      </c>
+      <c r="K8" s="75">
+        <v>1</v>
+      </c>
+      <c r="L8" s="75">
         <v>0</v>
       </c>
-      <c r="M8" s="76">
+      <c r="M8" s="75">
         <v>0</v>
       </c>
-      <c r="N8" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="O8" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="P8" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q8" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="R8" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="S8" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="T8" s="79"/>
-      <c r="U8" s="79"/>
+      <c r="N8" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q8" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="R8" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="S8" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="T8" s="78"/>
+      <c r="U8" s="78"/>
     </row>
     <row r="9" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="68">
         <v>7</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" s="69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F9" s="69" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="75" t="s">
+      <c r="H9" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="75" t="s">
+      <c r="I9" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="76">
-        <v>1</v>
-      </c>
-      <c r="K9" s="76">
-        <v>1</v>
-      </c>
-      <c r="L9" s="76">
+      <c r="J9" s="75">
+        <v>1</v>
+      </c>
+      <c r="K9" s="75">
+        <v>1</v>
+      </c>
+      <c r="L9" s="75">
         <v>0</v>
       </c>
-      <c r="M9" s="76">
+      <c r="M9" s="75">
         <v>0</v>
       </c>
-      <c r="N9" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="O9" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="P9" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q9" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="R9" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="S9" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
+      <c r="N9" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="O9" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q9" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="R9" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="S9" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="T9" s="78"/>
+      <c r="U9" s="78"/>
     </row>
     <row r="10" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="68">
         <v>8</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F10" s="69" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="75" t="s">
+      <c r="H10" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="75" t="s">
+      <c r="I10" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="76">
-        <v>1</v>
-      </c>
-      <c r="K10" s="76">
-        <v>1</v>
-      </c>
-      <c r="L10" s="76">
+      <c r="J10" s="75">
+        <v>1</v>
+      </c>
+      <c r="K10" s="75">
+        <v>1</v>
+      </c>
+      <c r="L10" s="75">
         <v>0</v>
       </c>
-      <c r="M10" s="76">
+      <c r="M10" s="75">
         <v>0</v>
       </c>
-      <c r="N10" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="O10" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="P10" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q10" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="R10" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="S10" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="T10" s="79"/>
-      <c r="U10" s="79"/>
+      <c r="N10" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="O10" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q10" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="S10" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="T10" s="78"/>
+      <c r="U10" s="78"/>
     </row>
     <row r="11" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="68">
         <v>9</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" s="69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F11" s="69" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="75" t="s">
+      <c r="H11" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="76">
-        <v>1</v>
-      </c>
-      <c r="K11" s="76">
-        <v>1</v>
-      </c>
-      <c r="L11" s="76">
+      <c r="J11" s="75">
+        <v>1</v>
+      </c>
+      <c r="K11" s="75">
+        <v>1</v>
+      </c>
+      <c r="L11" s="75">
         <v>0</v>
       </c>
-      <c r="M11" s="76">
+      <c r="M11" s="75">
         <v>0</v>
       </c>
-      <c r="N11" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="O11" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="P11" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q11" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="R11" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="S11" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
+      <c r="N11" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="O11" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q11" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="R11" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="S11" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="T11" s="78"/>
+      <c r="U11" s="78"/>
     </row>
     <row r="12" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="68">
         <v>10</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" s="69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F12" s="69" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="75" t="s">
+      <c r="H12" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="76">
-        <v>1</v>
-      </c>
-      <c r="K12" s="76">
-        <v>1</v>
-      </c>
-      <c r="L12" s="76">
+      <c r="J12" s="75">
+        <v>1</v>
+      </c>
+      <c r="K12" s="75">
+        <v>1</v>
+      </c>
+      <c r="L12" s="75">
         <v>0</v>
       </c>
-      <c r="M12" s="76">
+      <c r="M12" s="75">
         <v>0</v>
       </c>
-      <c r="N12" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="O12" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="P12" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q12" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="R12" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="S12" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="T12" s="79"/>
-      <c r="U12" s="79"/>
+      <c r="N12" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="O12" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="R12" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="S12" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="T12" s="78"/>
+      <c r="U12" s="78"/>
     </row>
     <row r="13" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="68">
         <v>11</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" s="69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F13" s="69" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="75" t="s">
+      <c r="H13" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="I13" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="76">
-        <v>1</v>
-      </c>
-      <c r="K13" s="76">
-        <v>1</v>
-      </c>
-      <c r="L13" s="76">
+      <c r="J13" s="75">
+        <v>1</v>
+      </c>
+      <c r="K13" s="75">
+        <v>1</v>
+      </c>
+      <c r="L13" s="75">
         <v>0</v>
       </c>
-      <c r="M13" s="76">
+      <c r="M13" s="75">
         <v>0</v>
       </c>
-      <c r="N13" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="O13" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="P13" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q13" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="R13" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="S13" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="T13" s="79"/>
-      <c r="U13" s="79"/>
-    </row>
-    <row r="14" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N13" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="O13" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q13" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="R13" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="S13" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="T13" s="78"/>
+      <c r="U13" s="78"/>
+    </row>
+    <row r="14" spans="1:21" s="15" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" s="68">
         <v>12</v>
       </c>
       <c r="C14" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" s="69" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" s="71" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="F14" s="69" t="s">
+        <v>138</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="76">
-        <v>1</v>
-      </c>
-      <c r="K14" s="76">
-        <v>1</v>
-      </c>
-      <c r="L14" s="76">
-        <v>1</v>
-      </c>
-      <c r="M14" s="76">
-        <v>1</v>
-      </c>
-      <c r="N14" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="O14" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="P14" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q14" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="R14" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="S14" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="T14" s="79" t="s">
-        <v>34</v>
-      </c>
-      <c r="U14" s="79"/>
-    </row>
-    <row r="15" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="H14" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="75">
+        <v>1</v>
+      </c>
+      <c r="K14" s="75">
+        <v>1</v>
+      </c>
+      <c r="L14" s="75">
+        <v>0</v>
+      </c>
+      <c r="M14" s="75">
+        <v>0</v>
+      </c>
+      <c r="N14" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="S14" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="T14" s="78"/>
+      <c r="U14" s="78"/>
+    </row>
+    <row r="15" spans="1:21" s="15" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="68">
         <v>13</v>
       </c>
       <c r="C15" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="F15" s="71" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="F15" s="69" t="s">
+        <v>138</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="74" t="s">
+        <v>158</v>
+      </c>
+      <c r="I15" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="76">
-        <v>1</v>
-      </c>
-      <c r="K15" s="76">
-        <v>1</v>
-      </c>
-      <c r="L15" s="76">
-        <v>2</v>
-      </c>
-      <c r="M15" s="76">
-        <v>2</v>
-      </c>
-      <c r="N15" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="O15" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="P15" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q15" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="R15" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="S15" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="T15" s="79" t="s">
-        <v>35</v>
-      </c>
-      <c r="U15" s="79" t="s">
-        <v>36</v>
-      </c>
+      <c r="J15" s="75">
+        <v>1</v>
+      </c>
+      <c r="K15" s="75">
+        <v>1</v>
+      </c>
+      <c r="L15" s="75">
+        <v>0</v>
+      </c>
+      <c r="M15" s="75">
+        <v>0</v>
+      </c>
+      <c r="N15" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q15" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="S15" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="T15" s="78"/>
+      <c r="U15" s="78"/>
     </row>
     <row r="16" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="68">
         <v>14</v>
       </c>
       <c r="C16" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" s="71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F16" s="69" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="75" t="s">
-        <v>146</v>
-      </c>
-      <c r="I16" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="I16" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="76">
-        <v>1</v>
-      </c>
-      <c r="K16" s="76">
-        <v>1</v>
-      </c>
-      <c r="L16" s="76">
+      <c r="J16" s="75">
+        <v>1</v>
+      </c>
+      <c r="K16" s="75">
+        <v>1</v>
+      </c>
+      <c r="L16" s="75">
         <v>0</v>
       </c>
-      <c r="M16" s="76">
+      <c r="M16" s="75">
         <v>0</v>
       </c>
-      <c r="N16" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="O16" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="P16" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q16" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="R16" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="S16" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="T16" s="79"/>
-      <c r="U16" s="79"/>
+      <c r="N16" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="R16" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="S16" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="T16" s="78"/>
+      <c r="U16" s="78"/>
     </row>
     <row r="17" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="72">
+        <v>93</v>
+      </c>
+      <c r="B17" s="68">
         <v>15</v>
       </c>
       <c r="C17" s="70" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="D17" s="69" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="E17" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="F17" s="71" t="s">
-        <v>142</v>
+        <v>137</v>
+      </c>
+      <c r="F17" s="69" t="s">
+        <v>138</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="75" t="s">
-        <v>128</v>
-      </c>
-      <c r="I17" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="J17" s="76">
-        <v>1</v>
-      </c>
-      <c r="K17" s="76">
-        <v>1</v>
-      </c>
-      <c r="L17" s="76">
+        <v>39</v>
+      </c>
+      <c r="H17" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="I17" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="75">
+        <v>1</v>
+      </c>
+      <c r="K17" s="75">
+        <v>1</v>
+      </c>
+      <c r="L17" s="75">
         <v>0</v>
       </c>
-      <c r="M17" s="76">
+      <c r="M17" s="75">
         <v>0</v>
       </c>
-      <c r="N17" s="80" t="s">
-        <v>127</v>
-      </c>
-      <c r="O17" s="81" t="s">
-        <v>127</v>
-      </c>
-      <c r="P17" s="78" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q17" s="80" t="s">
-        <v>127</v>
-      </c>
-      <c r="R17" s="78" t="s">
-        <v>127</v>
-      </c>
-      <c r="S17" s="80" t="s">
-        <v>127</v>
-      </c>
-      <c r="T17" s="79"/>
-      <c r="U17" s="79"/>
+      <c r="N17" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="R17" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="S17" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="T17" s="78"/>
+      <c r="U17" s="78"/>
     </row>
     <row r="18" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" s="72">
+        <v>93</v>
+      </c>
+      <c r="B18" s="68">
         <v>16</v>
       </c>
       <c r="C18" s="70" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="D18" s="69" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E18" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="F18" s="69" t="s">
-        <v>143</v>
+        <v>137</v>
+      </c>
+      <c r="F18" s="71" t="s">
+        <v>136</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="75" t="s">
-        <v>148</v>
-      </c>
-      <c r="I18" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="76">
-        <v>1</v>
-      </c>
-      <c r="K18" s="76">
-        <v>1</v>
-      </c>
-      <c r="L18" s="76">
-        <v>0</v>
-      </c>
-      <c r="M18" s="76">
-        <v>0</v>
-      </c>
-      <c r="N18" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="O18" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="P18" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q18" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="R18" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="S18" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="T18" s="79"/>
-      <c r="U18" s="79"/>
+        <v>29</v>
+      </c>
+      <c r="H18" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="75">
+        <v>1</v>
+      </c>
+      <c r="K18" s="75">
+        <v>1</v>
+      </c>
+      <c r="L18" s="75">
+        <v>1</v>
+      </c>
+      <c r="M18" s="75">
+        <v>1</v>
+      </c>
+      <c r="N18" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="O18" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="P18" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q18" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="R18" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="S18" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="T18" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="U18" s="78"/>
     </row>
     <row r="19" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="72">
+        <v>93</v>
+      </c>
+      <c r="B19" s="68">
         <v>17</v>
       </c>
       <c r="C19" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="E19" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="G19" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="H19" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="I19" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="J19" s="76">
-        <v>1</v>
-      </c>
-      <c r="K19" s="76">
-        <v>1</v>
-      </c>
-      <c r="L19" s="76">
-        <v>0</v>
-      </c>
-      <c r="M19" s="76">
-        <v>0</v>
-      </c>
-      <c r="N19" s="80">
-        <v>3</v>
-      </c>
-      <c r="O19" s="81">
-        <v>300</v>
-      </c>
-      <c r="P19" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q19" s="80">
-        <v>1</v>
-      </c>
-      <c r="R19" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="S19" s="80">
-        <v>1</v>
-      </c>
-      <c r="T19" s="79"/>
-      <c r="U19" s="79"/>
+        <v>127</v>
+      </c>
+      <c r="E19" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="75">
+        <v>1</v>
+      </c>
+      <c r="K19" s="75">
+        <v>1</v>
+      </c>
+      <c r="L19" s="75">
+        <v>2</v>
+      </c>
+      <c r="M19" s="75">
+        <v>2</v>
+      </c>
+      <c r="N19" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="O19" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q19" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="R19" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="S19" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="T19" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="U19" s="78" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="20" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="72">
+        <v>93</v>
+      </c>
+      <c r="B20" s="68">
         <v>18</v>
       </c>
       <c r="C20" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" s="69" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E20" s="71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F20" s="69" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="I20" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="J20" s="76">
-        <v>1</v>
-      </c>
-      <c r="K20" s="76">
-        <v>1</v>
-      </c>
-      <c r="L20" s="76">
+      <c r="I20" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="75">
+        <v>1</v>
+      </c>
+      <c r="K20" s="75">
+        <v>1</v>
+      </c>
+      <c r="L20" s="75">
         <v>0</v>
       </c>
-      <c r="M20" s="76">
+      <c r="M20" s="75">
         <v>0</v>
       </c>
-      <c r="N20" s="80">
-        <v>3</v>
-      </c>
-      <c r="O20" s="81">
-        <v>300</v>
-      </c>
-      <c r="P20" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q20" s="80">
-        <v>2</v>
-      </c>
-      <c r="R20" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="S20" s="80">
-        <v>2</v>
-      </c>
-      <c r="T20" s="79"/>
-      <c r="U20" s="79"/>
+      <c r="N20" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="O20" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="P20" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q20" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="R20" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="S20" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
     </row>
     <row r="21" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="72">
+        <v>93</v>
+      </c>
+      <c r="B21" s="68">
         <v>19</v>
       </c>
       <c r="C21" s="70" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="D21" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="F21" s="69" t="s">
-        <v>138</v>
+        <v>129</v>
+      </c>
+      <c r="E21" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="71" t="s">
+        <v>139</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H21" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="I21" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="J21" s="76">
-        <v>1</v>
-      </c>
-      <c r="K21" s="76">
-        <v>1</v>
-      </c>
-      <c r="L21" s="76">
+        <v>61</v>
+      </c>
+      <c r="H21" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="I21" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="J21" s="75">
+        <v>1</v>
+      </c>
+      <c r="K21" s="75">
+        <v>1</v>
+      </c>
+      <c r="L21" s="75">
         <v>0</v>
       </c>
-      <c r="M21" s="76">
+      <c r="M21" s="75">
         <v>0</v>
       </c>
-      <c r="N21" s="80">
-        <v>1</v>
-      </c>
-      <c r="O21" s="81">
-        <v>600</v>
-      </c>
-      <c r="P21" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q21" s="80">
-        <v>3</v>
-      </c>
-      <c r="R21" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="S21" s="80">
-        <v>1</v>
-      </c>
-      <c r="T21" s="79"/>
-      <c r="U21" s="79"/>
+      <c r="N21" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="O21" s="80" t="s">
+        <v>124</v>
+      </c>
+      <c r="P21" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q21" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="R21" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="S21" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="T21" s="78"/>
+      <c r="U21" s="78"/>
     </row>
     <row r="22" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="72">
+        <v>93</v>
+      </c>
+      <c r="B22" s="68">
         <v>20</v>
       </c>
       <c r="C22" s="70" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="D22" s="69" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E22" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="69" t="s">
-        <v>141</v>
-      </c>
       <c r="G22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="I22" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="J22" s="76">
-        <v>1</v>
-      </c>
-      <c r="K22" s="76">
-        <v>1</v>
-      </c>
-      <c r="L22" s="76">
+        <v>61</v>
+      </c>
+      <c r="H22" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="I22" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="75">
+        <v>1</v>
+      </c>
+      <c r="K22" s="75">
+        <v>1</v>
+      </c>
+      <c r="L22" s="75">
         <v>0</v>
       </c>
-      <c r="M22" s="76">
+      <c r="M22" s="75">
         <v>0</v>
       </c>
-      <c r="N22" s="80">
-        <v>1</v>
-      </c>
-      <c r="O22" s="81">
-        <v>600</v>
-      </c>
-      <c r="P22" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q22" s="80">
-        <v>4</v>
-      </c>
-      <c r="R22" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="S22" s="80">
-        <v>2</v>
-      </c>
-      <c r="T22" s="79"/>
-      <c r="U22" s="79"/>
+      <c r="N22" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q22" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="R22" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="S22" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="T22" s="78"/>
+      <c r="U22" s="78"/>
     </row>
     <row r="23" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="72">
+        <v>93</v>
+      </c>
+      <c r="B23" s="68">
         <v>21</v>
       </c>
       <c r="C23" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="E23" s="71" t="s">
-        <v>156</v>
+      <c r="E23" s="69" t="s">
+        <v>135</v>
       </c>
       <c r="F23" s="69" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="G23" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="H23" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" s="76">
+        <v>109</v>
+      </c>
+      <c r="H23" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" s="75">
+        <v>1</v>
+      </c>
+      <c r="K23" s="75">
+        <v>1</v>
+      </c>
+      <c r="L23" s="75">
         <v>0</v>
       </c>
-      <c r="K23" s="76">
+      <c r="M23" s="75">
         <v>0</v>
       </c>
-      <c r="L23" s="76">
-        <v>0</v>
-      </c>
-      <c r="M23" s="76">
-        <v>0</v>
-      </c>
-      <c r="N23" s="80" t="s">
-        <v>155</v>
-      </c>
-      <c r="O23" s="81" t="s">
-        <v>155</v>
-      </c>
-      <c r="P23" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q23" s="80" t="s">
-        <v>155</v>
-      </c>
-      <c r="R23" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="S23" s="80" t="s">
-        <v>155</v>
-      </c>
-      <c r="T23" s="79"/>
-      <c r="U23" s="79"/>
+      <c r="N23" s="79">
+        <v>3</v>
+      </c>
+      <c r="O23" s="80">
+        <v>300</v>
+      </c>
+      <c r="P23" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q23" s="79">
+        <v>1</v>
+      </c>
+      <c r="R23" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="S23" s="79">
+        <v>1</v>
+      </c>
+      <c r="T23" s="78"/>
+      <c r="U23" s="78"/>
     </row>
     <row r="24" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" s="73"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="83"/>
-      <c r="P24" s="78"/>
-      <c r="Q24" s="82"/>
-      <c r="R24" s="78"/>
-      <c r="S24" s="82"/>
-      <c r="T24" s="79"/>
-      <c r="U24" s="79"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="68">
+        <v>22</v>
+      </c>
+      <c r="C24" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" s="75">
+        <v>1</v>
+      </c>
+      <c r="K24" s="75">
+        <v>1</v>
+      </c>
+      <c r="L24" s="75">
+        <v>0</v>
+      </c>
+      <c r="M24" s="75">
+        <v>0</v>
+      </c>
+      <c r="N24" s="79">
+        <v>3</v>
+      </c>
+      <c r="O24" s="80">
+        <v>300</v>
+      </c>
+      <c r="P24" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q24" s="79">
+        <v>2</v>
+      </c>
+      <c r="R24" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="S24" s="79">
+        <v>2</v>
+      </c>
+      <c r="T24" s="78"/>
+      <c r="U24" s="78"/>
+    </row>
+    <row r="25" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="68">
+        <v>23</v>
+      </c>
+      <c r="C25" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" s="75">
+        <v>1</v>
+      </c>
+      <c r="K25" s="75">
+        <v>1</v>
+      </c>
+      <c r="L25" s="75">
+        <v>0</v>
+      </c>
+      <c r="M25" s="75">
+        <v>0</v>
+      </c>
+      <c r="N25" s="79">
+        <v>1</v>
+      </c>
+      <c r="O25" s="80">
+        <v>600</v>
+      </c>
+      <c r="P25" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q25" s="79">
+        <v>3</v>
+      </c>
+      <c r="R25" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="S25" s="79">
+        <v>1</v>
+      </c>
+      <c r="T25" s="78"/>
+      <c r="U25" s="78"/>
+    </row>
+    <row r="26" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="68">
+        <v>24</v>
+      </c>
+      <c r="C26" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="J26" s="75">
+        <v>1</v>
+      </c>
+      <c r="K26" s="75">
+        <v>1</v>
+      </c>
+      <c r="L26" s="75">
+        <v>0</v>
+      </c>
+      <c r="M26" s="75">
+        <v>0</v>
+      </c>
+      <c r="N26" s="79">
+        <v>1</v>
+      </c>
+      <c r="O26" s="80">
+        <v>600</v>
+      </c>
+      <c r="P26" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q26" s="79">
+        <v>4</v>
+      </c>
+      <c r="R26" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="S26" s="79">
+        <v>2</v>
+      </c>
+      <c r="T26" s="78"/>
+      <c r="U26" s="78"/>
+    </row>
+    <row r="27" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="68">
+        <v>25</v>
+      </c>
+      <c r="C27" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="H27" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="75">
+        <v>0</v>
+      </c>
+      <c r="K27" s="75">
+        <v>0</v>
+      </c>
+      <c r="L27" s="75">
+        <v>0</v>
+      </c>
+      <c r="M27" s="75">
+        <v>0</v>
+      </c>
+      <c r="N27" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="O27" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="P27" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="R27" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="S27" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78"/>
+    </row>
+    <row r="28" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="19"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="77"/>
+      <c r="S28" s="81"/>
+      <c r="T28" s="78"/>
+      <c r="U28" s="78"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B29" s="11"/>
+    </row>
+    <row r="30" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="D30" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="E30" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="G30" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="H30" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E26" s="64" t="s">
-        <v>144</v>
-      </c>
-      <c r="F26" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="G26" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="H26" s="22" t="s">
+      <c r="I30" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="J30" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="I26" s="22" t="s">
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q30" s="84"/>
+      <c r="R30" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="S30" s="84"/>
+      <c r="T30" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="U30" s="55" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="175.5" x14ac:dyDescent="0.2">
+      <c r="C31" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="J26" s="84" t="s">
-        <v>115</v>
-      </c>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="85" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q26" s="85"/>
-      <c r="R26" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="S26" s="85"/>
-      <c r="T26" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="U26" s="55" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="175.5" x14ac:dyDescent="0.2">
-      <c r="C27" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="H27" s="22" t="s">
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" spans="1:21" ht="204.75" x14ac:dyDescent="0.2">
+      <c r="H32" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="I32" s="22"/>
+    </row>
+    <row r="33" spans="8:9" ht="87.75" x14ac:dyDescent="0.2">
+      <c r="H33" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="I27" s="22"/>
-    </row>
-    <row r="28" spans="1:21" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="H28" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="I28" s="22"/>
-    </row>
-    <row r="29" spans="1:21" ht="87.75" x14ac:dyDescent="0.2">
-      <c r="H29" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="I29" s="22"/>
-    </row>
-    <row r="30" spans="1:21" ht="87.75" x14ac:dyDescent="0.2">
-      <c r="H30" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="I30" s="22"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-    </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-    </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
+      <c r="I33" s="22"/>
+    </row>
+    <row r="34" spans="8:9" ht="87.75" x14ac:dyDescent="0.2">
+      <c r="H34" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="I34" s="22"/>
     </row>
     <row r="35" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H35" s="20"/>
@@ -5268,28 +5870,44 @@
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
     </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+    </row>
+    <row r="38" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+    </row>
+    <row r="39" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+    </row>
+    <row r="40" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="3">
-    <mergeCell ref="J26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="5">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G24">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G28">
       <formula1>"ITA,mail"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G20 G22">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G24 G26">
       <formula1>"ITA(ver1),mail(ver1),ServiceNow(ver1)"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G18">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G22">
       <formula1>"なし,ITA(ver1),mail(ver1),ServiceNow(ver1)"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G19 G21">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G23 G25">
       <formula1>"None,ITA(ver1),mail(ver1),ServiceNow(ver1)"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G23">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G27">
       <formula1>"None,No Action,ITA(ver1),mail(ver1),ServiceNow(ver1)"</formula1>
     </dataValidation>
   </dataValidations>
